--- a/JupyterNotebooks/AvgHW/SA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,31 +82,31 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,31 +653,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.01129282771604</v>
+        <v>0.9838997531596372</v>
       </c>
       <c r="D3">
-        <v>0.9838997531596372</v>
+        <v>0.9993027847609944</v>
       </c>
       <c r="E3">
         <v>1.000024179678731</v>
       </c>
       <c r="F3">
+        <v>0.9838997531596372</v>
+      </c>
+      <c r="G3">
         <v>1.01129282771604</v>
       </c>
-      <c r="G3">
-        <v>0.9974985787439331</v>
-      </c>
       <c r="H3">
-        <v>1.003096944747023</v>
+        <v>1.01129282771604</v>
       </c>
       <c r="I3">
         <v>1.01129282771604</v>
       </c>
       <c r="J3">
-        <v>0.9838997531596372</v>
+        <v>0.9974985787439331</v>
       </c>
       <c r="K3">
-        <v>0.9993027847609944</v>
+        <v>1.003096944747023</v>
       </c>
       <c r="L3">
         <v>1.003301783011864</v>
@@ -764,7 +716,7 @@
         <v>0.9987398857784702</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,31 +724,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.021251571549398</v>
+        <v>0.9692194832354084</v>
       </c>
       <c r="D4">
-        <v>0.9692194832354084</v>
+        <v>0.9984597986800647</v>
       </c>
       <c r="E4">
         <v>1.000375953435432</v>
       </c>
       <c r="F4">
+        <v>0.9692194832354084</v>
+      </c>
+      <c r="G4">
         <v>1.021251571549398</v>
       </c>
-      <c r="G4">
-        <v>0.9951754179706747</v>
-      </c>
       <c r="H4">
-        <v>1.006240332003238</v>
+        <v>1.021251571549398</v>
       </c>
       <c r="I4">
         <v>1.021251571549398</v>
       </c>
       <c r="J4">
-        <v>0.9692194832354084</v>
+        <v>0.9951754179706747</v>
       </c>
       <c r="K4">
-        <v>0.9984597986800647</v>
+        <v>1.006240332003238</v>
       </c>
       <c r="L4">
         <v>1.006411549506512</v>
@@ -835,7 +787,7 @@
         <v>0.9975826583806804</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,31 +795,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.041017691372045</v>
+        <v>0.9406278177183728</v>
       </c>
       <c r="D5">
-        <v>0.9406278177183729</v>
+        <v>0.997140317652354</v>
       </c>
       <c r="E5">
         <v>0.9999673120125044</v>
       </c>
       <c r="F5">
+        <v>0.9406278177183728</v>
+      </c>
+      <c r="G5">
         <v>1.041017691372045</v>
       </c>
-      <c r="G5">
-        <v>0.9907493540477137</v>
-      </c>
       <c r="H5">
-        <v>1.011800620672222</v>
+        <v>1.041017691372045</v>
       </c>
       <c r="I5">
         <v>1.041017691372045</v>
       </c>
       <c r="J5">
-        <v>0.9406278177183729</v>
+        <v>0.9907493540477137</v>
       </c>
       <c r="K5">
-        <v>0.997140317652354</v>
+        <v>1.011800620672222</v>
       </c>
       <c r="L5">
         <v>1.012402428083585</v>
@@ -906,7 +858,7 @@
         <v>0.995273656230832</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,31 +866,31 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9091037321898744</v>
+      </c>
+      <c r="D6">
+        <v>0.9994428081346243</v>
+      </c>
+      <c r="E6">
+        <v>0.9978304273329416</v>
+      </c>
+      <c r="F6">
+        <v>0.9091037321898744</v>
+      </c>
+      <c r="G6">
         <v>1.062642051283568</v>
       </c>
-      <c r="D6">
-        <v>0.9091037321898744</v>
-      </c>
-      <c r="E6">
-        <v>0.9978304273329414</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.062642051283568</v>
-      </c>
-      <c r="G6">
-        <v>0.9838083183315108</v>
-      </c>
-      <c r="H6">
-        <v>1.017276555413839</v>
       </c>
       <c r="I6">
         <v>1.062642051283568</v>
       </c>
       <c r="J6">
-        <v>0.9091037321898744</v>
+        <v>0.9838083183315108</v>
       </c>
       <c r="K6">
-        <v>0.9994428081346243</v>
+        <v>1.017276555413839</v>
       </c>
       <c r="L6">
         <v>1.015244049629062</v>
@@ -950,16 +902,16 @@
         <v>1.062642051283568</v>
       </c>
       <c r="O6">
-        <v>0.9978304273329414</v>
+        <v>0.9978304273329416</v>
       </c>
       <c r="P6">
-        <v>0.9534670797614079</v>
+        <v>0.953467079761408</v>
       </c>
       <c r="Q6">
-        <v>0.9908193728322261</v>
+        <v>0.9908193728322262</v>
       </c>
       <c r="R6">
-        <v>0.9898587369354613</v>
+        <v>0.9898587369354614</v>
       </c>
       <c r="S6">
         <v>0.9635808259514422</v>
@@ -977,7 +929,7 @@
         <v>0.9923668718421869</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,31 +937,31 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9989001364378607</v>
+      </c>
+      <c r="D7">
+        <v>0.9997106828400392</v>
+      </c>
+      <c r="E7">
+        <v>1.000079600497128</v>
+      </c>
+      <c r="F7">
+        <v>0.9989001364378607</v>
+      </c>
+      <c r="G7">
         <v>1.000389277241507</v>
       </c>
-      <c r="D7">
-        <v>0.9989001364378608</v>
-      </c>
-      <c r="E7">
-        <v>1.000079600497129</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
         <v>1.000389277241507</v>
-      </c>
-      <c r="G7">
-        <v>0.9999074270273094</v>
-      </c>
-      <c r="H7">
-        <v>1.000413703571251</v>
       </c>
       <c r="I7">
         <v>1.000389277241507</v>
       </c>
       <c r="J7">
-        <v>0.9989001364378608</v>
+        <v>0.9999074270273095</v>
       </c>
       <c r="K7">
-        <v>0.9997106828400389</v>
+        <v>1.000413703571251</v>
       </c>
       <c r="L7">
         <v>1.000480188263348</v>
@@ -1021,13 +973,13 @@
         <v>1.000389277241507</v>
       </c>
       <c r="O7">
-        <v>1.000079600497129</v>
+        <v>1.000079600497128</v>
       </c>
       <c r="P7">
-        <v>0.9994898684674947</v>
+        <v>0.9994898684674945</v>
       </c>
       <c r="Q7">
-        <v>0.999993513762219</v>
+        <v>0.9999935137622189</v>
       </c>
       <c r="R7">
         <v>0.9997896713921653</v>
@@ -1048,7 +1000,7 @@
         <v>0.9998928032387242</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,31 +1008,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001598694851835</v>
+        <v>0.9967397795570422</v>
       </c>
       <c r="D8">
-        <v>0.9967397795570431</v>
+        <v>0.9992125811629827</v>
       </c>
       <c r="E8">
         <v>1.000196382095786</v>
       </c>
       <c r="F8">
-        <v>1.001598694851835</v>
+        <v>0.9967397795570422</v>
       </c>
       <c r="G8">
-        <v>0.9996633080932074</v>
+        <v>1.001598694851836</v>
       </c>
       <c r="H8">
+        <v>1.001598694851836</v>
+      </c>
+      <c r="I8">
+        <v>1.001598694851836</v>
+      </c>
+      <c r="J8">
+        <v>0.9996633080932071</v>
+      </c>
+      <c r="K8">
         <v>1.001096574239334</v>
-      </c>
-      <c r="I8">
-        <v>1.001598694851835</v>
-      </c>
-      <c r="J8">
-        <v>0.9967397795570431</v>
-      </c>
-      <c r="K8">
-        <v>0.9992125811629829</v>
       </c>
       <c r="L8">
         <v>1.001268950743919</v>
@@ -1089,28 +1041,28 @@
         <v>0.9979501672901014</v>
       </c>
       <c r="N8">
-        <v>1.001598694851835</v>
+        <v>1.001598694851836</v>
       </c>
       <c r="O8">
         <v>1.000196382095786</v>
       </c>
       <c r="P8">
-        <v>0.9984680808264144</v>
+        <v>0.9984680808264139</v>
       </c>
       <c r="Q8">
-        <v>0.9999298450944966</v>
+        <v>0.9999298450944963</v>
       </c>
       <c r="R8">
         <v>0.9995116188348879</v>
       </c>
       <c r="S8">
-        <v>0.9988664899153453</v>
+        <v>0.9988664899153449</v>
       </c>
       <c r="T8">
-        <v>0.9995116188348879</v>
+        <v>0.9995116188348878</v>
       </c>
       <c r="U8">
-        <v>0.9995495411494678</v>
+        <v>0.9995495411494677</v>
       </c>
       <c r="V8">
         <v>0.9999593718899413</v>
@@ -1119,7 +1071,7 @@
         <v>0.999715804754276</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002543942607621</v>
+        <v>0.9955103629021471</v>
       </c>
       <c r="D9">
-        <v>0.9955103629021473</v>
+        <v>0.9986055482881374</v>
       </c>
       <c r="E9">
         <v>1.000074377227052</v>
       </c>
       <c r="F9">
+        <v>0.9955103629021471</v>
+      </c>
+      <c r="G9">
         <v>1.002543942607621</v>
       </c>
-      <c r="G9">
-        <v>0.9995394385917882</v>
-      </c>
       <c r="H9">
-        <v>1.001578580362111</v>
+        <v>1.002543942607621</v>
       </c>
       <c r="I9">
         <v>1.002543942607621</v>
       </c>
       <c r="J9">
-        <v>0.9955103629021473</v>
+        <v>0.9995394385917882</v>
       </c>
       <c r="K9">
-        <v>0.9986055482881374</v>
+        <v>1.001578580362111</v>
       </c>
       <c r="L9">
         <v>1.002061940481059</v>
       </c>
       <c r="M9">
-        <v>0.9970050145776465</v>
+        <v>0.997005014577646</v>
       </c>
       <c r="N9">
         <v>1.002543942607621</v>
@@ -1166,7 +1118,7 @@
         <v>1.000074377227052</v>
       </c>
       <c r="P9">
-        <v>0.9977923700645996</v>
+        <v>0.9977923700645995</v>
       </c>
       <c r="Q9">
         <v>0.9998069079094201</v>
@@ -1175,7 +1127,7 @@
         <v>0.9993762275789401</v>
       </c>
       <c r="S9">
-        <v>0.9983747262403292</v>
+        <v>0.998374726240329</v>
       </c>
       <c r="T9">
         <v>0.9993762275789401</v>
@@ -1190,7 +1142,7 @@
         <v>0.9996149006296953</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,31 +1150,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.004928538529499</v>
+        <v>0.9903845197976474</v>
       </c>
       <c r="D10">
-        <v>0.9903845197976475</v>
+        <v>0.9971435701022453</v>
       </c>
       <c r="E10">
         <v>1.00019930542307</v>
       </c>
       <c r="F10">
+        <v>0.9903845197976474</v>
+      </c>
+      <c r="G10">
         <v>1.004928538529499</v>
       </c>
-      <c r="G10">
-        <v>0.9990845821274649</v>
-      </c>
       <c r="H10">
-        <v>1.003414240673258</v>
+        <v>1.004928538529499</v>
       </c>
       <c r="I10">
         <v>1.004928538529499</v>
       </c>
       <c r="J10">
-        <v>0.9903845197976475</v>
+        <v>0.9990845821274648</v>
       </c>
       <c r="K10">
-        <v>0.9971435701022453</v>
+        <v>1.003414240673258</v>
       </c>
       <c r="L10">
         <v>1.004330518238204</v>
@@ -1237,7 +1189,7 @@
         <v>1.00019930542307</v>
       </c>
       <c r="P10">
-        <v>0.9952919126103587</v>
+        <v>0.9952919126103585</v>
       </c>
       <c r="Q10">
         <v>0.9996419437752673</v>
@@ -1246,7 +1198,7 @@
         <v>0.9985041212500722</v>
       </c>
       <c r="S10">
-        <v>0.9965561357827274</v>
+        <v>0.9965561357827273</v>
       </c>
       <c r="T10">
         <v>0.9985041212500722</v>
@@ -1261,7 +1213,7 @@
         <v>0.9991424600136025</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.010549275583635</v>
+        <v>0.9836303164026937</v>
       </c>
       <c r="D11">
-        <v>0.9836303164026935</v>
+        <v>0.9948449963088384</v>
       </c>
       <c r="E11">
         <v>0.9992797947288097</v>
       </c>
       <c r="F11">
+        <v>0.9836303164026937</v>
+      </c>
+      <c r="G11">
         <v>1.010549275583635</v>
       </c>
-      <c r="G11">
-        <v>0.9982839364485552</v>
-      </c>
       <c r="H11">
-        <v>1.005443096746881</v>
+        <v>1.010549275583635</v>
       </c>
       <c r="I11">
         <v>1.010549275583635</v>
       </c>
       <c r="J11">
-        <v>0.9836303164026935</v>
+        <v>0.9982839364485552</v>
       </c>
       <c r="K11">
-        <v>0.9948449963088384</v>
+        <v>1.005443096746881</v>
       </c>
       <c r="L11">
         <v>1.007523857007484</v>
       </c>
       <c r="M11">
-        <v>0.9893480702861314</v>
+        <v>0.9893480702861311</v>
       </c>
       <c r="N11">
         <v>1.010549275583635</v>
@@ -1308,22 +1260,22 @@
         <v>0.9992797947288097</v>
       </c>
       <c r="P11">
-        <v>0.9914550555657515</v>
+        <v>0.9914550555657518</v>
       </c>
       <c r="Q11">
         <v>0.9987818655886824</v>
       </c>
       <c r="R11">
-        <v>0.9978197955717126</v>
+        <v>0.9978197955717129</v>
       </c>
       <c r="S11">
         <v>0.9937313491933528</v>
       </c>
       <c r="T11">
-        <v>0.9978197955717126</v>
+        <v>0.9978197955717129</v>
       </c>
       <c r="U11">
-        <v>0.9979358307909232</v>
+        <v>0.9979358307909234</v>
       </c>
       <c r="V11">
         <v>1.000458519749466</v>
@@ -1332,7 +1284,7 @@
         <v>0.9986129179391285</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,31 +1292,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.056749160557282</v>
+        <v>1.33124827028334</v>
       </c>
       <c r="D12">
-        <v>1.33124827028334</v>
+        <v>0.9477131255820066</v>
       </c>
       <c r="E12">
         <v>0.7938059821182893</v>
       </c>
       <c r="F12">
+        <v>1.33124827028334</v>
+      </c>
+      <c r="G12">
         <v>1.056749160557282</v>
       </c>
-      <c r="G12">
-        <v>1.044983896682497</v>
-      </c>
       <c r="H12">
-        <v>0.8861111348405585</v>
+        <v>1.056749160557282</v>
       </c>
       <c r="I12">
         <v>1.056749160557282</v>
       </c>
       <c r="J12">
-        <v>1.33124827028334</v>
+        <v>1.044983896682497</v>
       </c>
       <c r="K12">
-        <v>0.9477131255820066</v>
+        <v>0.8861111348405583</v>
       </c>
       <c r="L12">
         <v>1.009600378499737</v>
@@ -1403,7 +1355,7 @@
         <v>1.029632004103247</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,31 +1363,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9252458156922565</v>
+        <v>0.9452396739507762</v>
       </c>
       <c r="D13">
-        <v>0.9452396739507762</v>
+        <v>1.076957009981891</v>
       </c>
       <c r="E13">
         <v>1.043636693120122</v>
       </c>
       <c r="F13">
+        <v>0.9452396739507762</v>
+      </c>
+      <c r="G13">
         <v>0.9252458156922565</v>
       </c>
-      <c r="G13">
-        <v>1.01039682232485</v>
-      </c>
       <c r="H13">
-        <v>0.9805879051240963</v>
+        <v>0.9252458156922565</v>
       </c>
       <c r="I13">
         <v>0.9252458156922565</v>
       </c>
       <c r="J13">
-        <v>0.9452396739507762</v>
+        <v>1.01039682232485</v>
       </c>
       <c r="K13">
-        <v>1.076957009981891</v>
+        <v>0.9805879051240963</v>
       </c>
       <c r="L13">
         <v>0.951223235371931</v>
@@ -1474,7 +1426,7 @@
         <v>0.9933327915408567</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,31 +1434,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4410001629655855</v>
+        <v>0.6292570061519027</v>
       </c>
       <c r="D14">
-        <v>0.6292570061519027</v>
+        <v>1.231457406871493</v>
       </c>
       <c r="E14">
         <v>1.514130508078374</v>
       </c>
       <c r="F14">
+        <v>0.6292570061519027</v>
+      </c>
+      <c r="G14">
         <v>0.4410001629655855</v>
       </c>
-      <c r="G14">
-        <v>0.9706731619074589</v>
-      </c>
       <c r="H14">
-        <v>1.155648466661597</v>
+        <v>0.4410001629655855</v>
       </c>
       <c r="I14">
         <v>0.4410001629655855</v>
       </c>
       <c r="J14">
-        <v>0.6292570061519027</v>
+        <v>0.9706731619074589</v>
       </c>
       <c r="K14">
-        <v>1.231457406871493</v>
+        <v>1.155648466661597</v>
       </c>
       <c r="L14">
         <v>0.8328893118235465</v>
@@ -1545,7 +1497,7 @@
         <v>0.9560423222433903</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,31 +1505,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.187748706572134</v>
+        <v>1.202250310326608</v>
       </c>
       <c r="D15">
-        <v>1.202250310326608</v>
+        <v>0.868862257372056</v>
       </c>
       <c r="E15">
         <v>0.7986249444705715</v>
       </c>
       <c r="F15">
+        <v>1.202250310326608</v>
+      </c>
+      <c r="G15">
         <v>1.187748706572134</v>
       </c>
-      <c r="G15">
-        <v>1.013655450581753</v>
-      </c>
       <c r="H15">
-        <v>0.9594749306531103</v>
+        <v>1.187748706572134</v>
       </c>
       <c r="I15">
         <v>1.187748706572134</v>
       </c>
       <c r="J15">
-        <v>1.202250310326608</v>
+        <v>1.013655450581753</v>
       </c>
       <c r="K15">
-        <v>0.868862257372056</v>
+        <v>0.9594749306531103</v>
       </c>
       <c r="L15">
         <v>1.084166210186356</v>
@@ -1607,7 +1559,7 @@
         <v>1.062874653789771</v>
       </c>
       <c r="U15">
-        <v>1.050569852987766</v>
+        <v>1.050569852987767</v>
       </c>
       <c r="V15">
         <v>1.07800562370464</v>
@@ -1616,7 +1568,7 @@
         <v>1.021013877144135</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000869093009285</v>
+        <v>0.6962316156217383</v>
       </c>
       <c r="D16">
-        <v>1.001283833649116</v>
+        <v>0.9777115433581162</v>
       </c>
       <c r="E16">
-        <v>0.9990452851409132</v>
+        <v>1.008651731245333</v>
       </c>
       <c r="F16">
-        <v>1.000869093009285</v>
+        <v>0.6962316156217383</v>
       </c>
       <c r="G16">
-        <v>0.9998371003201459</v>
+        <v>1.212549592292039</v>
       </c>
       <c r="H16">
-        <v>1.000176773194876</v>
+        <v>1.212549592292039</v>
       </c>
       <c r="I16">
-        <v>1.000869093009285</v>
+        <v>1.212549592292039</v>
       </c>
       <c r="J16">
-        <v>1.001283833649116</v>
+        <v>0.9528011852055719</v>
       </c>
       <c r="K16">
-        <v>0.9990884980500727</v>
+        <v>1.064806732348945</v>
       </c>
       <c r="L16">
-        <v>1.000283468781067</v>
+        <v>1.067576605929247</v>
       </c>
       <c r="M16">
-        <v>1.000320361720735</v>
+        <v>0.8348253317417699</v>
       </c>
       <c r="N16">
-        <v>1.000869093009285</v>
+        <v>1.212549592292039</v>
       </c>
       <c r="O16">
-        <v>0.9990452851409132</v>
+        <v>1.008651731245333</v>
       </c>
       <c r="P16">
-        <v>1.000164559395015</v>
+        <v>0.8524416734335358</v>
       </c>
       <c r="Q16">
-        <v>0.9994411927305296</v>
+        <v>0.9807264582254527</v>
       </c>
       <c r="R16">
-        <v>1.000399403933105</v>
+        <v>0.9724776463863702</v>
       </c>
       <c r="S16">
-        <v>1.000055406370058</v>
+        <v>0.8858948440242145</v>
       </c>
       <c r="T16">
-        <v>1.000399403933105</v>
+        <v>0.9724776463863702</v>
       </c>
       <c r="U16">
-        <v>1.000258828029865</v>
+        <v>0.9675585310911706</v>
       </c>
       <c r="V16">
-        <v>1.000380881025749</v>
+        <v>1.016556743331344</v>
       </c>
       <c r="W16">
-        <v>1.000113051733277</v>
+        <v>0.9768942922178452</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9987850368141383</v>
+        <v>0.7547999005023952</v>
       </c>
       <c r="D17">
-        <v>0.9971734497206481</v>
+        <v>0.9774295320605128</v>
       </c>
       <c r="E17">
-        <v>1.001739845717986</v>
+        <v>1.014828661462144</v>
       </c>
       <c r="F17">
-        <v>0.9987850368141383</v>
+        <v>0.7547999005023952</v>
       </c>
       <c r="G17">
-        <v>1.000116558286192</v>
+        <v>1.157770349284357</v>
       </c>
       <c r="H17">
-        <v>1.000251187161805</v>
+        <v>1.157770349284357</v>
       </c>
       <c r="I17">
-        <v>0.9987850368141383</v>
+        <v>1.157770349284357</v>
       </c>
       <c r="J17">
-        <v>0.9971734497206481</v>
+        <v>0.9630564503782968</v>
       </c>
       <c r="K17">
-        <v>1.001047700442176</v>
+        <v>1.05888454821444</v>
       </c>
       <c r="L17">
-        <v>1.000174583611164</v>
+        <v>1.057852453071322</v>
       </c>
       <c r="M17">
-        <v>0.9985213300955645</v>
+        <v>0.8631775658219223</v>
       </c>
       <c r="N17">
-        <v>0.9987850368141383</v>
+        <v>1.157770349284357</v>
       </c>
       <c r="O17">
-        <v>1.001739845717986</v>
+        <v>1.014828661462144</v>
       </c>
       <c r="P17">
-        <v>0.9994566477193171</v>
+        <v>0.8848142809822699</v>
       </c>
       <c r="Q17">
-        <v>1.000928202002089</v>
+        <v>0.9889425559202206</v>
       </c>
       <c r="R17">
-        <v>0.9992327774175909</v>
+        <v>0.9757996370829657</v>
       </c>
       <c r="S17">
-        <v>0.9996766179082753</v>
+        <v>0.9108950041142788</v>
       </c>
       <c r="T17">
-        <v>0.9992327774175909</v>
+        <v>0.9757996370829657</v>
       </c>
       <c r="U17">
-        <v>0.9994537226347412</v>
+        <v>0.9726138404067984</v>
       </c>
       <c r="V17">
-        <v>0.9993199854706207</v>
+        <v>1.00964514218231</v>
       </c>
       <c r="W17">
-        <v>0.9997262114812092</v>
+        <v>0.9809749325994237</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.005651538612513</v>
+        <v>0.872085678748022</v>
       </c>
       <c r="D18">
-        <v>0.9990389148252888</v>
+        <v>0.9767693823155725</v>
       </c>
       <c r="E18">
-        <v>0.9963695499922867</v>
+        <v>1.02673576385722</v>
       </c>
       <c r="F18">
-        <v>1.005651538612513</v>
+        <v>0.872085678748022</v>
       </c>
       <c r="G18">
-        <v>0.998296705938797</v>
+        <v>1.04921192984217</v>
       </c>
       <c r="H18">
-        <v>1.001817671825823</v>
+        <v>1.04921192984217</v>
       </c>
       <c r="I18">
-        <v>1.005651538612513</v>
+        <v>1.04921192984217</v>
       </c>
       <c r="J18">
-        <v>0.9990389148252888</v>
+        <v>0.9835026515705605</v>
       </c>
       <c r="K18">
-        <v>0.997288706979271</v>
+        <v>1.046778066688968</v>
       </c>
       <c r="L18">
-        <v>1.001573537913993</v>
+        <v>1.038459255833351</v>
       </c>
       <c r="M18">
-        <v>0.9984261680135433</v>
+        <v>0.9199902002688101</v>
       </c>
       <c r="N18">
-        <v>1.005651538612513</v>
+        <v>1.04921192984217</v>
       </c>
       <c r="O18">
-        <v>0.9963695499922867</v>
+        <v>1.02673576385722</v>
       </c>
       <c r="P18">
-        <v>0.9977042324087877</v>
+        <v>0.9494107213026209</v>
       </c>
       <c r="Q18">
-        <v>0.9973331279655419</v>
+        <v>1.00511920771389</v>
       </c>
       <c r="R18">
-        <v>1.000353334476696</v>
+        <v>0.9826777908158041</v>
       </c>
       <c r="S18">
-        <v>0.9979017235854575</v>
+        <v>0.9607746980586008</v>
       </c>
       <c r="T18">
-        <v>1.000353334476696</v>
+        <v>0.9826777908158041</v>
       </c>
       <c r="U18">
-        <v>0.9998391773422215</v>
+        <v>0.9828840060044932</v>
       </c>
       <c r="V18">
-        <v>1.00100164959628</v>
+        <v>0.9961495907720286</v>
       </c>
       <c r="W18">
-        <v>0.9998078492626895</v>
+        <v>0.9891916161405843</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8471297224586756</v>
+      </c>
+      <c r="D19">
+        <v>0.9796241675689754</v>
+      </c>
+      <c r="E19">
+        <v>1.030714322637913</v>
+      </c>
+      <c r="F19">
+        <v>0.8471297224586756</v>
+      </c>
+      <c r="G19">
+        <v>1.040069976662858</v>
+      </c>
+      <c r="H19">
+        <v>1.040069976662858</v>
+      </c>
+      <c r="I19">
+        <v>1.040069976662858</v>
+      </c>
+      <c r="J19">
+        <v>0.986726025234512</v>
+      </c>
+      <c r="K19">
+        <v>1.05111181323651</v>
+      </c>
+      <c r="L19">
+        <v>1.044039531382398</v>
+      </c>
+      <c r="M19">
+        <v>0.9100285907877131</v>
+      </c>
+      <c r="N19">
+        <v>1.040069976662858</v>
+      </c>
+      <c r="O19">
+        <v>1.030714322637913</v>
+      </c>
+      <c r="P19">
+        <v>0.9389220225482944</v>
+      </c>
+      <c r="Q19">
+        <v>1.008720173936213</v>
+      </c>
+      <c r="R19">
+        <v>0.9726380072531491</v>
+      </c>
+      <c r="S19">
+        <v>0.9548566901103669</v>
+      </c>
+      <c r="T19">
+        <v>0.9726380072531491</v>
+      </c>
+      <c r="U19">
+        <v>0.9761600117484899</v>
+      </c>
+      <c r="V19">
+        <v>0.9889420047313635</v>
+      </c>
+      <c r="W19">
+        <v>0.9861805187461945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.001283833649116</v>
+      </c>
+      <c r="D20">
+        <v>0.9990884980500727</v>
+      </c>
+      <c r="E20">
+        <v>0.9990452851409128</v>
+      </c>
+      <c r="F20">
+        <v>1.001283833649116</v>
+      </c>
+      <c r="G20">
+        <v>1.000869093009285</v>
+      </c>
+      <c r="H20">
+        <v>1.000869093009285</v>
+      </c>
+      <c r="I20">
+        <v>1.000869093009285</v>
+      </c>
+      <c r="J20">
+        <v>0.9998371003201458</v>
+      </c>
+      <c r="K20">
+        <v>1.000176773194876</v>
+      </c>
+      <c r="L20">
+        <v>1.000283468781067</v>
+      </c>
+      <c r="M20">
+        <v>1.000320361720735</v>
+      </c>
+      <c r="N20">
+        <v>1.000869093009285</v>
+      </c>
+      <c r="O20">
+        <v>0.9990452851409128</v>
+      </c>
+      <c r="P20">
+        <v>1.000164559395015</v>
+      </c>
+      <c r="Q20">
+        <v>0.9994411927305293</v>
+      </c>
+      <c r="R20">
+        <v>1.000399403933105</v>
+      </c>
+      <c r="S20">
+        <v>1.000055406370058</v>
+      </c>
+      <c r="T20">
+        <v>1.000399403933105</v>
+      </c>
+      <c r="U20">
+        <v>1.000258828029865</v>
+      </c>
+      <c r="V20">
+        <v>1.000380881025749</v>
+      </c>
+      <c r="W20">
+        <v>1.000113051733276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9971734497206481</v>
+      </c>
+      <c r="D21">
+        <v>1.001047700442176</v>
+      </c>
+      <c r="E21">
+        <v>1.001739845717986</v>
+      </c>
+      <c r="F21">
+        <v>0.9971734497206481</v>
+      </c>
+      <c r="G21">
+        <v>0.9987850368141383</v>
+      </c>
+      <c r="H21">
+        <v>0.9987850368141383</v>
+      </c>
+      <c r="I21">
+        <v>0.9987850368141383</v>
+      </c>
+      <c r="J21">
+        <v>1.000116558286192</v>
+      </c>
+      <c r="K21">
+        <v>1.000251187161805</v>
+      </c>
+      <c r="L21">
+        <v>1.000174583611165</v>
+      </c>
+      <c r="M21">
+        <v>0.9985213300955644</v>
+      </c>
+      <c r="N21">
+        <v>0.9987850368141383</v>
+      </c>
+      <c r="O21">
+        <v>1.001739845717986</v>
+      </c>
+      <c r="P21">
+        <v>0.9994566477193172</v>
+      </c>
+      <c r="Q21">
+        <v>1.000928202002089</v>
+      </c>
+      <c r="R21">
+        <v>0.9992327774175909</v>
+      </c>
+      <c r="S21">
+        <v>0.9996766179082753</v>
+      </c>
+      <c r="T21">
+        <v>0.9992327774175909</v>
+      </c>
+      <c r="U21">
+        <v>0.9994537226347411</v>
+      </c>
+      <c r="V21">
+        <v>0.9993199854706205</v>
+      </c>
+      <c r="W21">
+        <v>0.9997262114812093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9990389148252886</v>
+      </c>
+      <c r="D22">
+        <v>0.9972887069792715</v>
+      </c>
+      <c r="E22">
+        <v>0.9963695499922866</v>
+      </c>
+      <c r="F22">
+        <v>0.9990389148252886</v>
+      </c>
+      <c r="G22">
+        <v>1.005651538612514</v>
+      </c>
+      <c r="H22">
+        <v>1.005651538612514</v>
+      </c>
+      <c r="I22">
+        <v>1.005651538612514</v>
+      </c>
+      <c r="J22">
+        <v>0.9982967059387967</v>
+      </c>
+      <c r="K22">
+        <v>1.001817671825822</v>
+      </c>
+      <c r="L22">
+        <v>1.001573537913993</v>
+      </c>
+      <c r="M22">
+        <v>0.9984261680135433</v>
+      </c>
+      <c r="N22">
+        <v>1.005651538612514</v>
+      </c>
+      <c r="O22">
+        <v>0.9963695499922866</v>
+      </c>
+      <c r="P22">
+        <v>0.9977042324087876</v>
+      </c>
+      <c r="Q22">
+        <v>0.9973331279655416</v>
+      </c>
+      <c r="R22">
+        <v>1.000353334476696</v>
+      </c>
+      <c r="S22">
+        <v>0.9979017235854574</v>
+      </c>
+      <c r="T22">
+        <v>1.000353334476696</v>
+      </c>
+      <c r="U22">
+        <v>0.9998391773422213</v>
+      </c>
+      <c r="V22">
+        <v>1.00100164959628</v>
+      </c>
+      <c r="W22">
+        <v>0.9998078492626894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.003396653651694</v>
+      </c>
+      <c r="D23">
+        <v>0.9884953809974645</v>
+      </c>
+      <c r="E23">
+        <v>0.9882869936718864</v>
+      </c>
+      <c r="F23">
+        <v>1.003396653651694</v>
+      </c>
+      <c r="G23">
         <v>1.02223865634517</v>
       </c>
-      <c r="D19">
-        <v>1.003396653651694</v>
-      </c>
-      <c r="E19">
+      <c r="H23">
+        <v>1.02223865634517</v>
+      </c>
+      <c r="I23">
+        <v>1.02223865634517</v>
+      </c>
+      <c r="J23">
+        <v>0.9961934838782176</v>
+      </c>
+      <c r="K23">
+        <v>1.003754772695041</v>
+      </c>
+      <c r="L23">
+        <v>1.004382257387526</v>
+      </c>
+      <c r="M23">
+        <v>0.9992522760616596</v>
+      </c>
+      <c r="N23">
+        <v>1.02223865634517</v>
+      </c>
+      <c r="O23">
         <v>0.9882869936718864</v>
       </c>
-      <c r="F19">
-        <v>1.02223865634517</v>
-      </c>
-      <c r="G19">
-        <v>0.9961934838782176</v>
-      </c>
-      <c r="H19">
-        <v>1.003754772695041</v>
-      </c>
-      <c r="I19">
-        <v>1.02223865634517</v>
-      </c>
-      <c r="J19">
-        <v>1.003396653651694</v>
-      </c>
-      <c r="K19">
-        <v>0.9884953809974645</v>
-      </c>
-      <c r="L19">
-        <v>1.004382257387526</v>
-      </c>
-      <c r="M19">
-        <v>0.9992522760616596</v>
-      </c>
-      <c r="N19">
-        <v>1.02223865634517</v>
-      </c>
-      <c r="O19">
-        <v>0.9882869936718864</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9958418236617903</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.992240238775052</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.004640767889583</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9959590437339326</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.004640767889583</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.002528946886742</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.006470888778427</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.000750059336082</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/SA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9838997531596372</v>
+        <v>0.8433295646822753</v>
       </c>
       <c r="D3">
-        <v>0.9993027847609944</v>
+        <v>0.9730594726296825</v>
       </c>
       <c r="E3">
-        <v>1.000024179678731</v>
+        <v>1.031315756368879</v>
       </c>
       <c r="F3">
-        <v>0.9838997531596372</v>
+        <v>0.8433295646822753</v>
       </c>
       <c r="G3">
-        <v>1.01129282771604</v>
+        <v>1.057566429474063</v>
       </c>
       <c r="H3">
-        <v>1.01129282771604</v>
+        <v>1.057566429474063</v>
       </c>
       <c r="I3">
-        <v>1.01129282771604</v>
+        <v>1.057566429474063</v>
       </c>
       <c r="J3">
-        <v>0.9974985787439331</v>
+        <v>0.9799392563616721</v>
       </c>
       <c r="K3">
-        <v>1.003096944747023</v>
+        <v>1.057006719135443</v>
       </c>
       <c r="L3">
-        <v>1.003301783011864</v>
+        <v>1.046485354409218</v>
       </c>
       <c r="M3">
-        <v>0.9915022344095379</v>
+        <v>0.9024876154034576</v>
       </c>
       <c r="N3">
-        <v>1.01129282771604</v>
+        <v>1.057566429474063</v>
       </c>
       <c r="O3">
-        <v>1.000024179678731</v>
+        <v>1.031315756368879</v>
       </c>
       <c r="P3">
-        <v>0.9919619664191842</v>
+        <v>0.9373226605255773</v>
       </c>
       <c r="Q3">
-        <v>0.9987613792113321</v>
+        <v>1.005627506365276</v>
       </c>
       <c r="R3">
-        <v>0.9984055868514695</v>
+        <v>0.9774039168417392</v>
       </c>
       <c r="S3">
-        <v>0.9938075038607672</v>
+        <v>0.9515281924709423</v>
       </c>
       <c r="T3">
-        <v>0.9984055868514695</v>
+        <v>0.9774039168417392</v>
       </c>
       <c r="U3">
-        <v>0.9981788348245854</v>
+        <v>0.9780377517217225</v>
       </c>
       <c r="V3">
-        <v>1.000801633402876</v>
+        <v>0.9939434872721906</v>
       </c>
       <c r="W3">
-        <v>0.9987398857784702</v>
+        <v>0.9863987710580864</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9692194832354084</v>
+        <v>0.8592990246354846</v>
       </c>
       <c r="D4">
-        <v>0.9984597986800647</v>
+        <v>0.9754699783581803</v>
       </c>
       <c r="E4">
-        <v>1.000375953435432</v>
+        <v>1.029440889105472</v>
       </c>
       <c r="F4">
-        <v>0.9692194832354084</v>
+        <v>0.8592990246354846</v>
       </c>
       <c r="G4">
-        <v>1.021251571549398</v>
+        <v>1.051832351293331</v>
       </c>
       <c r="H4">
-        <v>1.021251571549398</v>
+        <v>1.051832351293331</v>
       </c>
       <c r="I4">
-        <v>1.021251571549398</v>
+        <v>1.051832351293331</v>
       </c>
       <c r="J4">
-        <v>0.9951754179706747</v>
+        <v>0.981889915862837</v>
       </c>
       <c r="K4">
-        <v>1.006240332003238</v>
+        <v>1.051524330460304</v>
       </c>
       <c r="L4">
-        <v>1.006411549506512</v>
+        <v>1.041627550775249</v>
       </c>
       <c r="M4">
-        <v>0.9835271606647148</v>
+        <v>0.9122608453223987</v>
       </c>
       <c r="N4">
-        <v>1.021251571549398</v>
+        <v>1.051832351293331</v>
       </c>
       <c r="O4">
-        <v>1.000375953435432</v>
+        <v>1.029440889105472</v>
       </c>
       <c r="P4">
-        <v>0.9847977183354203</v>
+        <v>0.9443699568704782</v>
       </c>
       <c r="Q4">
-        <v>0.9977756857030534</v>
+        <v>1.005665402484154</v>
       </c>
       <c r="R4">
-        <v>0.9969490027400795</v>
+        <v>0.9801907550114289</v>
       </c>
       <c r="S4">
-        <v>0.9882569515471719</v>
+        <v>0.9568766098679311</v>
       </c>
       <c r="T4">
-        <v>0.9969490027400795</v>
+        <v>0.9801907550114289</v>
       </c>
       <c r="U4">
-        <v>0.9965056065477282</v>
+        <v>0.980615545224281</v>
       </c>
       <c r="V4">
-        <v>1.001454799548062</v>
+        <v>0.9948589064380908</v>
       </c>
       <c r="W4">
-        <v>0.9975826583806804</v>
+        <v>0.987918110726657</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9406278177183728</v>
+        <v>0.8129315110458217</v>
       </c>
       <c r="D5">
-        <v>0.997140317652354</v>
+        <v>0.9681867108625336</v>
       </c>
       <c r="E5">
-        <v>0.9999673120125044</v>
+        <v>1.034621304797841</v>
       </c>
       <c r="F5">
-        <v>0.9406278177183728</v>
+        <v>0.8129315110458217</v>
       </c>
       <c r="G5">
-        <v>1.041017691372045</v>
+        <v>1.068682884797842</v>
       </c>
       <c r="H5">
-        <v>1.041017691372045</v>
+        <v>1.068682884797842</v>
       </c>
       <c r="I5">
-        <v>1.041017691372045</v>
+        <v>1.068682884797842</v>
       </c>
       <c r="J5">
-        <v>0.9907493540477137</v>
+        <v>0.9763041181401619</v>
       </c>
       <c r="K5">
-        <v>1.011800620672222</v>
+        <v>1.067465809919137</v>
       </c>
       <c r="L5">
-        <v>1.012402428083585</v>
+        <v>1.056057613234502</v>
       </c>
       <c r="M5">
-        <v>0.9684837082878579</v>
+        <v>0.8837873533962263</v>
       </c>
       <c r="N5">
-        <v>1.041017691372045</v>
+        <v>1.068682884797842</v>
       </c>
       <c r="O5">
-        <v>0.9999673120125044</v>
+        <v>1.034621304797841</v>
       </c>
       <c r="P5">
-        <v>0.9702975648654386</v>
+        <v>0.9237764079218316</v>
       </c>
       <c r="Q5">
-        <v>0.995358333030109</v>
+        <v>1.005462711469002</v>
       </c>
       <c r="R5">
-        <v>0.9938709403676409</v>
+        <v>0.9720785668805018</v>
       </c>
       <c r="S5">
-        <v>0.9771148279261969</v>
+        <v>0.9412856446612751</v>
       </c>
       <c r="T5">
-        <v>0.9938709403676409</v>
+        <v>0.9720785668805018</v>
       </c>
       <c r="U5">
-        <v>0.9930905437876592</v>
+        <v>0.9731349546954168</v>
       </c>
       <c r="V5">
-        <v>1.002675973304536</v>
+        <v>0.992244540715902</v>
       </c>
       <c r="W5">
-        <v>0.995273656230832</v>
+        <v>0.9835046632742583</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9091037321898744</v>
+        <v>0.7844653274715907</v>
       </c>
       <c r="D6">
-        <v>0.9994428081346243</v>
+        <v>0.9632862660795449</v>
       </c>
       <c r="E6">
-        <v>0.9978304273329416</v>
+        <v>1.037404399943183</v>
       </c>
       <c r="F6">
-        <v>0.9091037321898744</v>
+        <v>0.7844653274715907</v>
       </c>
       <c r="G6">
-        <v>1.062642051283568</v>
+        <v>1.079332012159091</v>
       </c>
       <c r="H6">
-        <v>1.062642051283568</v>
+        <v>1.079332012159091</v>
       </c>
       <c r="I6">
-        <v>1.062642051283568</v>
+        <v>1.079332012159091</v>
       </c>
       <c r="J6">
-        <v>0.9838083183315108</v>
+        <v>0.9729925148863638</v>
       </c>
       <c r="K6">
-        <v>1.017276555413839</v>
+        <v>1.077287834261363</v>
       </c>
       <c r="L6">
-        <v>1.015244049629062</v>
+        <v>1.065407583522727</v>
       </c>
       <c r="M6">
-        <v>0.953587032422075</v>
+        <v>0.8661606822727279</v>
       </c>
       <c r="N6">
-        <v>1.062642051283568</v>
+        <v>1.079332012159091</v>
       </c>
       <c r="O6">
-        <v>0.9978304273329416</v>
+        <v>1.037404399943183</v>
       </c>
       <c r="P6">
-        <v>0.953467079761408</v>
+        <v>0.9109348637073871</v>
       </c>
       <c r="Q6">
-        <v>0.9908193728322262</v>
+        <v>1.005198457414774</v>
       </c>
       <c r="R6">
-        <v>0.9898587369354614</v>
+        <v>0.9670672465246218</v>
       </c>
       <c r="S6">
-        <v>0.9635808259514422</v>
+        <v>0.9316207474337127</v>
       </c>
       <c r="T6">
-        <v>0.9898587369354614</v>
+        <v>0.9670672465246218</v>
       </c>
       <c r="U6">
-        <v>0.9883461322844738</v>
+        <v>0.9685485636150574</v>
       </c>
       <c r="V6">
-        <v>1.003205316084293</v>
+        <v>0.9907052533238641</v>
       </c>
       <c r="W6">
-        <v>0.9923668718421869</v>
+        <v>0.9807920775745741</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9989001364378607</v>
+        <v>0.5021267630692989</v>
       </c>
       <c r="D7">
-        <v>0.9997106828400392</v>
+        <v>0.9653872412623163</v>
       </c>
       <c r="E7">
-        <v>1.000079600497128</v>
+        <v>1.172910273926771</v>
       </c>
       <c r="F7">
-        <v>0.9989001364378607</v>
+        <v>0.5021267630692989</v>
       </c>
       <c r="G7">
-        <v>1.000389277241507</v>
+        <v>1.299771082046848</v>
       </c>
       <c r="H7">
-        <v>1.000389277241507</v>
+        <v>1.299771082046848</v>
       </c>
       <c r="I7">
-        <v>1.000389277241507</v>
+        <v>1.299771082046848</v>
       </c>
       <c r="J7">
-        <v>0.9999074270273095</v>
+        <v>0.8522673153730054</v>
       </c>
       <c r="K7">
-        <v>1.000413703571251</v>
+        <v>1.194146538040323</v>
       </c>
       <c r="L7">
-        <v>1.000480188263348</v>
+        <v>1.042610400318781</v>
       </c>
       <c r="M7">
-        <v>0.9992614100313503</v>
+        <v>0.691155139147705</v>
       </c>
       <c r="N7">
-        <v>1.000389277241507</v>
+        <v>1.299771082046848</v>
       </c>
       <c r="O7">
-        <v>1.000079600497128</v>
+        <v>1.172910273926771</v>
       </c>
       <c r="P7">
-        <v>0.9994898684674945</v>
+        <v>0.8375185184980349</v>
       </c>
       <c r="Q7">
-        <v>0.9999935137622189</v>
+        <v>1.012588794649888</v>
       </c>
       <c r="R7">
-        <v>0.9997896713921653</v>
+        <v>0.9916027063476393</v>
       </c>
       <c r="S7">
-        <v>0.9996290546540996</v>
+        <v>0.8424347841230251</v>
       </c>
       <c r="T7">
-        <v>0.9997896713921653</v>
+        <v>0.9916027063476393</v>
       </c>
       <c r="U7">
-        <v>0.9998191103009514</v>
+        <v>0.9567688586039808</v>
       </c>
       <c r="V7">
-        <v>0.9999331436890625</v>
+        <v>1.025369303292554</v>
       </c>
       <c r="W7">
-        <v>0.9998928032387242</v>
+        <v>0.9650468441481312</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9967397795570422</v>
+        <v>0.4995501974358014</v>
       </c>
       <c r="D8">
-        <v>0.9992125811629827</v>
+        <v>0.9638867570068957</v>
       </c>
       <c r="E8">
-        <v>1.000196382095786</v>
+        <v>1.17198689683651</v>
       </c>
       <c r="F8">
-        <v>0.9967397795570422</v>
+        <v>0.4995501974358014</v>
       </c>
       <c r="G8">
-        <v>1.001598694851836</v>
+        <v>1.300685790840398</v>
       </c>
       <c r="H8">
-        <v>1.001598694851836</v>
+        <v>1.300685790840398</v>
       </c>
       <c r="I8">
-        <v>1.001598694851836</v>
+        <v>1.300685790840398</v>
       </c>
       <c r="J8">
-        <v>0.9996633080932071</v>
+        <v>0.8525995676398073</v>
       </c>
       <c r="K8">
-        <v>1.001096574239334</v>
+        <v>1.19503010968925</v>
       </c>
       <c r="L8">
-        <v>1.001268950743919</v>
+        <v>1.044951655130421</v>
       </c>
       <c r="M8">
-        <v>0.9979501672901014</v>
+        <v>0.6892538189038696</v>
       </c>
       <c r="N8">
-        <v>1.001598694851836</v>
+        <v>1.300685790840398</v>
       </c>
       <c r="O8">
-        <v>1.000196382095786</v>
+        <v>1.17198689683651</v>
       </c>
       <c r="P8">
-        <v>0.9984680808264139</v>
+        <v>0.8357685471361559</v>
       </c>
       <c r="Q8">
-        <v>0.9999298450944963</v>
+        <v>1.012293232238159</v>
       </c>
       <c r="R8">
-        <v>0.9995116188348879</v>
+        <v>0.9907409617042368</v>
       </c>
       <c r="S8">
-        <v>0.9988664899153449</v>
+        <v>0.8413788873040398</v>
       </c>
       <c r="T8">
-        <v>0.9995116188348878</v>
+        <v>0.9907409617042368</v>
       </c>
       <c r="U8">
-        <v>0.9995495411494677</v>
+        <v>0.9562056131881294</v>
       </c>
       <c r="V8">
-        <v>0.9999593718899413</v>
+        <v>1.025101648718583</v>
       </c>
       <c r="W8">
-        <v>0.999715804754276</v>
+        <v>0.9647430991853693</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9955103629021471</v>
+        <v>0.4972732952202857</v>
       </c>
       <c r="D9">
-        <v>0.9986055482881374</v>
+        <v>0.9632149208164198</v>
       </c>
       <c r="E9">
-        <v>1.000074377227052</v>
+        <v>1.172732021492436</v>
       </c>
       <c r="F9">
-        <v>0.9955103629021471</v>
+        <v>0.4972732952202857</v>
       </c>
       <c r="G9">
-        <v>1.002543942607621</v>
+        <v>1.298933581234007</v>
       </c>
       <c r="H9">
-        <v>1.002543942607621</v>
+        <v>1.298933581234007</v>
       </c>
       <c r="I9">
-        <v>1.002543942607621</v>
+        <v>1.298933581234007</v>
       </c>
       <c r="J9">
-        <v>0.9995394385917882</v>
+        <v>0.8528788596480726</v>
       </c>
       <c r="K9">
-        <v>1.001578580362111</v>
+        <v>1.196282325757915</v>
       </c>
       <c r="L9">
-        <v>1.002061940481059</v>
+        <v>1.046291187920785</v>
       </c>
       <c r="M9">
-        <v>0.997005014577646</v>
+        <v>0.6876397420686992</v>
       </c>
       <c r="N9">
-        <v>1.002543942607621</v>
+        <v>1.298933581234007</v>
       </c>
       <c r="O9">
-        <v>1.000074377227052</v>
+        <v>1.172732021492436</v>
       </c>
       <c r="P9">
-        <v>0.9977923700645995</v>
+        <v>0.8350026583563608</v>
       </c>
       <c r="Q9">
-        <v>0.9998069079094201</v>
+        <v>1.012805440570254</v>
       </c>
       <c r="R9">
-        <v>0.9993762275789401</v>
+        <v>0.9896462993155763</v>
       </c>
       <c r="S9">
-        <v>0.998374726240329</v>
+        <v>0.8409613921202648</v>
       </c>
       <c r="T9">
-        <v>0.9993762275789401</v>
+        <v>0.9896462993155763</v>
       </c>
       <c r="U9">
-        <v>0.9994170303321521</v>
+        <v>0.9554544393987005</v>
       </c>
       <c r="V9">
-        <v>1.000042412787246</v>
+        <v>1.024150267765762</v>
       </c>
       <c r="W9">
-        <v>0.9996149006296953</v>
+        <v>0.9644057417698275</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9903845197976474</v>
+        <v>0.4894706278067404</v>
       </c>
       <c r="D10">
-        <v>0.9971435701022453</v>
+        <v>0.9573179982671709</v>
       </c>
       <c r="E10">
-        <v>1.00019930542307</v>
+        <v>1.169010964412322</v>
       </c>
       <c r="F10">
-        <v>0.9903845197976474</v>
+        <v>0.4894706278067404</v>
       </c>
       <c r="G10">
-        <v>1.004928538529499</v>
+        <v>1.304078019051119</v>
       </c>
       <c r="H10">
-        <v>1.004928538529499</v>
+        <v>1.304078019051119</v>
       </c>
       <c r="I10">
-        <v>1.004928538529499</v>
+        <v>1.304078019051119</v>
       </c>
       <c r="J10">
-        <v>0.9990845821274648</v>
+        <v>0.8537757571013196</v>
       </c>
       <c r="K10">
-        <v>1.003414240673258</v>
+        <v>1.199023489948756</v>
       </c>
       <c r="L10">
-        <v>1.004330518238204</v>
+        <v>1.054541627627109</v>
       </c>
       <c r="M10">
-        <v>0.9936544052174312</v>
+        <v>0.6814494912703619</v>
       </c>
       <c r="N10">
-        <v>1.004928538529499</v>
+        <v>1.304078019051119</v>
       </c>
       <c r="O10">
-        <v>1.00019930542307</v>
+        <v>1.169010964412322</v>
       </c>
       <c r="P10">
-        <v>0.9952919126103585</v>
+        <v>0.8292407961095312</v>
       </c>
       <c r="Q10">
-        <v>0.9996419437752673</v>
+        <v>1.011393360756821</v>
       </c>
       <c r="R10">
-        <v>0.9985041212500722</v>
+        <v>0.9875198704233936</v>
       </c>
       <c r="S10">
-        <v>0.9965561357827273</v>
+        <v>0.8374191164401273</v>
       </c>
       <c r="T10">
-        <v>0.9985041212500722</v>
+        <v>0.9875198704233936</v>
       </c>
       <c r="U10">
-        <v>0.9986492364694203</v>
+        <v>0.9540838420928751</v>
       </c>
       <c r="V10">
-        <v>0.999905096881436</v>
+        <v>1.024082677484524</v>
       </c>
       <c r="W10">
-        <v>0.9991424600136025</v>
+        <v>0.9635834969356123</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9836303164026937</v>
+        <v>0.9824680654228982</v>
       </c>
       <c r="D11">
-        <v>0.9948449963088384</v>
+        <v>0.9979677086282019</v>
       </c>
       <c r="E11">
-        <v>0.9992797947288097</v>
+        <v>0.9988203720482636</v>
       </c>
       <c r="F11">
-        <v>0.9836303164026937</v>
+        <v>0.9824680654228982</v>
       </c>
       <c r="G11">
-        <v>1.010549275583635</v>
+        <v>1.015942104759218</v>
       </c>
       <c r="H11">
-        <v>1.010549275583635</v>
+        <v>1.015942104759218</v>
       </c>
       <c r="I11">
-        <v>1.010549275583635</v>
+        <v>1.015942104759218</v>
       </c>
       <c r="J11">
-        <v>0.9982839364485552</v>
+        <v>0.9969140876834335</v>
       </c>
       <c r="K11">
-        <v>1.005443096746881</v>
+        <v>1.003418445257159</v>
       </c>
       <c r="L11">
-        <v>1.007523857007484</v>
+        <v>1.004296467785693</v>
       </c>
       <c r="M11">
-        <v>0.9893480702861311</v>
+        <v>0.9904089320555512</v>
       </c>
       <c r="N11">
-        <v>1.010549275583635</v>
+        <v>1.015942104759218</v>
       </c>
       <c r="O11">
-        <v>0.9992797947288097</v>
+        <v>0.9988203720482636</v>
       </c>
       <c r="P11">
-        <v>0.9914550555657518</v>
+        <v>0.9906442187355808</v>
       </c>
       <c r="Q11">
-        <v>0.9987818655886824</v>
+        <v>0.9978672298658485</v>
       </c>
       <c r="R11">
-        <v>0.9978197955717129</v>
+        <v>0.9990768474101266</v>
       </c>
       <c r="S11">
-        <v>0.9937313491933528</v>
+        <v>0.9927341750515316</v>
       </c>
       <c r="T11">
-        <v>0.9978197955717129</v>
+        <v>0.9990768474101266</v>
       </c>
       <c r="U11">
-        <v>0.9979358307909234</v>
+        <v>0.9985361574784533</v>
       </c>
       <c r="V11">
-        <v>1.000458519749466</v>
+        <v>1.002017346934606</v>
       </c>
       <c r="W11">
-        <v>0.9986129179391285</v>
+        <v>0.9987795229550522</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.33124827028334</v>
+        <v>0.9892113785822868</v>
       </c>
       <c r="D12">
-        <v>0.9477131255820066</v>
+        <v>0.9994421026928749</v>
       </c>
       <c r="E12">
-        <v>0.7938059821182893</v>
+        <v>1.001637327168648</v>
       </c>
       <c r="F12">
-        <v>1.33124827028334</v>
+        <v>0.9892113785822868</v>
       </c>
       <c r="G12">
-        <v>1.056749160557282</v>
+        <v>1.006171050981389</v>
       </c>
       <c r="H12">
-        <v>1.056749160557282</v>
+        <v>1.006171050981389</v>
       </c>
       <c r="I12">
-        <v>1.056749160557282</v>
+        <v>1.006171050981389</v>
       </c>
       <c r="J12">
-        <v>1.044983896682497</v>
+        <v>0.9979968548600844</v>
       </c>
       <c r="K12">
-        <v>0.8861111348405583</v>
+        <v>1.002927658432537</v>
       </c>
       <c r="L12">
-        <v>1.009600378499737</v>
+        <v>1.001898268399346</v>
       </c>
       <c r="M12">
-        <v>1.166844084262264</v>
+        <v>0.9939170008891093</v>
       </c>
       <c r="N12">
-        <v>1.056749160557282</v>
+        <v>1.006171050981389</v>
       </c>
       <c r="O12">
-        <v>0.7938059821182893</v>
+        <v>1.001637327168648</v>
       </c>
       <c r="P12">
-        <v>1.062527126200815</v>
+        <v>0.9954243528754674</v>
       </c>
       <c r="Q12">
-        <v>0.9193949394003931</v>
+        <v>0.9998170910143662</v>
       </c>
       <c r="R12">
-        <v>1.06060113765297</v>
+        <v>0.9990065855774413</v>
       </c>
       <c r="S12">
-        <v>1.056679383028042</v>
+        <v>0.9962818535370065</v>
       </c>
       <c r="T12">
-        <v>1.06060113765297</v>
+        <v>0.9990065855774413</v>
       </c>
       <c r="U12">
-        <v>1.056696827410352</v>
+        <v>0.9987541528981021</v>
       </c>
       <c r="V12">
-        <v>1.056707294039738</v>
+        <v>1.000237532514759</v>
       </c>
       <c r="W12">
-        <v>1.029632004103247</v>
+        <v>0.9991502052507845</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9452396739507762</v>
+        <v>0.9606451076089103</v>
       </c>
       <c r="D13">
-        <v>1.076957009981891</v>
+        <v>0.998232009576161</v>
       </c>
       <c r="E13">
-        <v>1.043636693120122</v>
+        <v>1.007820716843559</v>
       </c>
       <c r="F13">
-        <v>0.9452396739507762</v>
+        <v>0.9606451076089103</v>
       </c>
       <c r="G13">
-        <v>0.9252458156922565</v>
+        <v>1.019053944682633</v>
       </c>
       <c r="H13">
-        <v>0.9252458156922565</v>
+        <v>1.019053944682633</v>
       </c>
       <c r="I13">
-        <v>0.9252458156922565</v>
+        <v>1.019053944682633</v>
       </c>
       <c r="J13">
-        <v>1.01039682232485</v>
+        <v>0.9927262463156793</v>
       </c>
       <c r="K13">
-        <v>0.9805879051240963</v>
+        <v>1.011593575121256</v>
       </c>
       <c r="L13">
-        <v>0.951223235371931</v>
+        <v>1.00663056711682</v>
       </c>
       <c r="M13">
-        <v>1.01337517676093</v>
+        <v>0.9775269993754286</v>
       </c>
       <c r="N13">
-        <v>0.9252458156922565</v>
+        <v>1.019053944682633</v>
       </c>
       <c r="O13">
-        <v>1.043636693120122</v>
+        <v>1.007820716843559</v>
       </c>
       <c r="P13">
-        <v>0.9944381835354492</v>
+        <v>0.9842329122262348</v>
       </c>
       <c r="Q13">
-        <v>1.027016757722486</v>
+        <v>1.000273481579619</v>
       </c>
       <c r="R13">
-        <v>0.9713740609210516</v>
+        <v>0.9958399230450343</v>
       </c>
       <c r="S13">
-        <v>0.9997577297985828</v>
+        <v>0.9870640235893829</v>
       </c>
       <c r="T13">
-        <v>0.9713740609210516</v>
+        <v>0.9958399230450343</v>
       </c>
       <c r="U13">
-        <v>0.9811297512720012</v>
+        <v>0.9950615038626955</v>
       </c>
       <c r="V13">
-        <v>0.9699529641560523</v>
+        <v>0.9998599920266831</v>
       </c>
       <c r="W13">
-        <v>0.9933327915408567</v>
+        <v>0.9967786458300559</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6292570061519027</v>
+        <v>0.9554680404786225</v>
       </c>
       <c r="D14">
-        <v>1.231457406871493</v>
+        <v>0.9972834506673859</v>
       </c>
       <c r="E14">
-        <v>1.514130508078374</v>
+        <v>1.000842026022879</v>
       </c>
       <c r="F14">
-        <v>0.6292570061519027</v>
+        <v>0.9554680404786225</v>
       </c>
       <c r="G14">
-        <v>0.4410001629655855</v>
+        <v>1.030207664363495</v>
       </c>
       <c r="H14">
-        <v>0.4410001629655855</v>
+        <v>1.030207664363495</v>
       </c>
       <c r="I14">
-        <v>0.4410001629655855</v>
+        <v>1.030207664363495</v>
       </c>
       <c r="J14">
-        <v>0.9706731619074589</v>
+        <v>0.9933081068929699</v>
       </c>
       <c r="K14">
-        <v>1.155648466661597</v>
+        <v>1.0093582667926</v>
       </c>
       <c r="L14">
-        <v>0.8328893118235465</v>
+        <v>1.009500048143603</v>
       </c>
       <c r="M14">
-        <v>0.8732825534871642</v>
+        <v>0.9762373216540088</v>
       </c>
       <c r="N14">
-        <v>0.4410001629655855</v>
+        <v>1.030207664363495</v>
       </c>
       <c r="O14">
-        <v>1.514130508078374</v>
+        <v>1.000842026022879</v>
       </c>
       <c r="P14">
-        <v>1.071693757115138</v>
+        <v>0.9781550332507505</v>
       </c>
       <c r="Q14">
-        <v>1.242401834992916</v>
+        <v>0.9970750664579242</v>
       </c>
       <c r="R14">
-        <v>0.8614625590652872</v>
+        <v>0.9955059102883318</v>
       </c>
       <c r="S14">
-        <v>1.038020225379245</v>
+        <v>0.983206057798157</v>
       </c>
       <c r="T14">
-        <v>0.8614625590652872</v>
+        <v>0.9955059102883319</v>
       </c>
       <c r="U14">
-        <v>0.8887652097758301</v>
+        <v>0.9949564594394914</v>
       </c>
       <c r="V14">
-        <v>0.7992122004137812</v>
+        <v>1.002006700424292</v>
       </c>
       <c r="W14">
-        <v>0.9560423222433903</v>
+        <v>0.9965256156269454</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.202250310326608</v>
+        <v>0.9838997531596372</v>
       </c>
       <c r="D15">
-        <v>0.868862257372056</v>
+        <v>0.9993027847609944</v>
       </c>
       <c r="E15">
-        <v>0.7986249444705715</v>
+        <v>1.000024179678731</v>
       </c>
       <c r="F15">
-        <v>1.202250310326608</v>
+        <v>0.9838997531596372</v>
       </c>
       <c r="G15">
-        <v>1.187748706572134</v>
+        <v>1.01129282771604</v>
       </c>
       <c r="H15">
-        <v>1.187748706572134</v>
+        <v>1.01129282771604</v>
       </c>
       <c r="I15">
-        <v>1.187748706572134</v>
+        <v>1.01129282771604</v>
       </c>
       <c r="J15">
-        <v>1.013655450581753</v>
+        <v>0.9974985787439331</v>
       </c>
       <c r="K15">
-        <v>0.9594749306531103</v>
+        <v>1.003096944747023</v>
       </c>
       <c r="L15">
-        <v>1.084166210186356</v>
+        <v>1.003301783011864</v>
       </c>
       <c r="M15">
-        <v>1.053328206990494</v>
+        <v>0.9915022344095379</v>
       </c>
       <c r="N15">
-        <v>1.187748706572134</v>
+        <v>1.01129282771604</v>
       </c>
       <c r="O15">
-        <v>0.7986249444705715</v>
+        <v>1.000024179678731</v>
       </c>
       <c r="P15">
-        <v>1.00043762739859</v>
+        <v>0.9919619664191842</v>
       </c>
       <c r="Q15">
-        <v>0.906140197526162</v>
+        <v>0.9987613792113321</v>
       </c>
       <c r="R15">
-        <v>1.062874653789771</v>
+        <v>0.9984055868514695</v>
       </c>
       <c r="S15">
-        <v>1.004843568459644</v>
+        <v>0.9938075038607672</v>
       </c>
       <c r="T15">
-        <v>1.062874653789771</v>
+        <v>0.9984055868514695</v>
       </c>
       <c r="U15">
-        <v>1.050569852987767</v>
+        <v>0.9981788348245854</v>
       </c>
       <c r="V15">
-        <v>1.07800562370464</v>
+        <v>1.000801633402876</v>
       </c>
       <c r="W15">
-        <v>1.021013877144135</v>
+        <v>0.9987398857784702</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.6962316156217383</v>
+        <v>0.9692194832354084</v>
       </c>
       <c r="D16">
-        <v>0.9777115433581162</v>
+        <v>0.9984597986800647</v>
       </c>
       <c r="E16">
-        <v>1.008651731245333</v>
+        <v>1.000375953435432</v>
       </c>
       <c r="F16">
-        <v>0.6962316156217383</v>
+        <v>0.9692194832354084</v>
       </c>
       <c r="G16">
-        <v>1.212549592292039</v>
+        <v>1.021251571549398</v>
       </c>
       <c r="H16">
-        <v>1.212549592292039</v>
+        <v>1.021251571549398</v>
       </c>
       <c r="I16">
-        <v>1.212549592292039</v>
+        <v>1.021251571549398</v>
       </c>
       <c r="J16">
-        <v>0.9528011852055719</v>
+        <v>0.9951754179706747</v>
       </c>
       <c r="K16">
-        <v>1.064806732348945</v>
+        <v>1.006240332003238</v>
       </c>
       <c r="L16">
-        <v>1.067576605929247</v>
+        <v>1.006411549506512</v>
       </c>
       <c r="M16">
-        <v>0.8348253317417699</v>
+        <v>0.9835271606647148</v>
       </c>
       <c r="N16">
-        <v>1.212549592292039</v>
+        <v>1.021251571549398</v>
       </c>
       <c r="O16">
-        <v>1.008651731245333</v>
+        <v>1.000375953435432</v>
       </c>
       <c r="P16">
-        <v>0.8524416734335358</v>
+        <v>0.9847977183354203</v>
       </c>
       <c r="Q16">
-        <v>0.9807264582254527</v>
+        <v>0.9977756857030534</v>
       </c>
       <c r="R16">
-        <v>0.9724776463863702</v>
+        <v>0.9969490027400795</v>
       </c>
       <c r="S16">
-        <v>0.8858948440242145</v>
+        <v>0.9882569515471719</v>
       </c>
       <c r="T16">
-        <v>0.9724776463863702</v>
+        <v>0.9969490027400795</v>
       </c>
       <c r="U16">
-        <v>0.9675585310911706</v>
+        <v>0.9965056065477282</v>
       </c>
       <c r="V16">
-        <v>1.016556743331344</v>
+        <v>1.001454799548062</v>
       </c>
       <c r="W16">
-        <v>0.9768942922178452</v>
+        <v>0.9975826583806804</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7547999005023952</v>
+        <v>0.9406278177183728</v>
       </c>
       <c r="D17">
-        <v>0.9774295320605128</v>
+        <v>0.997140317652354</v>
       </c>
       <c r="E17">
-        <v>1.014828661462144</v>
+        <v>0.9999673120125044</v>
       </c>
       <c r="F17">
-        <v>0.7547999005023952</v>
+        <v>0.9406278177183728</v>
       </c>
       <c r="G17">
-        <v>1.157770349284357</v>
+        <v>1.041017691372045</v>
       </c>
       <c r="H17">
-        <v>1.157770349284357</v>
+        <v>1.041017691372045</v>
       </c>
       <c r="I17">
-        <v>1.157770349284357</v>
+        <v>1.041017691372045</v>
       </c>
       <c r="J17">
-        <v>0.9630564503782968</v>
+        <v>0.9907493540477137</v>
       </c>
       <c r="K17">
-        <v>1.05888454821444</v>
+        <v>1.011800620672222</v>
       </c>
       <c r="L17">
-        <v>1.057852453071322</v>
+        <v>1.012402428083585</v>
       </c>
       <c r="M17">
-        <v>0.8631775658219223</v>
+        <v>0.9684837082878579</v>
       </c>
       <c r="N17">
-        <v>1.157770349284357</v>
+        <v>1.041017691372045</v>
       </c>
       <c r="O17">
-        <v>1.014828661462144</v>
+        <v>0.9999673120125044</v>
       </c>
       <c r="P17">
-        <v>0.8848142809822699</v>
+        <v>0.9702975648654386</v>
       </c>
       <c r="Q17">
-        <v>0.9889425559202206</v>
+        <v>0.995358333030109</v>
       </c>
       <c r="R17">
-        <v>0.9757996370829657</v>
+        <v>0.9938709403676409</v>
       </c>
       <c r="S17">
-        <v>0.9108950041142788</v>
+        <v>0.9771148279261969</v>
       </c>
       <c r="T17">
-        <v>0.9757996370829657</v>
+        <v>0.9938709403676409</v>
       </c>
       <c r="U17">
-        <v>0.9726138404067984</v>
+        <v>0.9930905437876592</v>
       </c>
       <c r="V17">
-        <v>1.00964514218231</v>
+        <v>1.002675973304536</v>
       </c>
       <c r="W17">
-        <v>0.9809749325994237</v>
+        <v>0.995273656230832</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.872085678748022</v>
+        <v>0.9091037321898744</v>
       </c>
       <c r="D18">
-        <v>0.9767693823155725</v>
+        <v>0.9994428081346243</v>
       </c>
       <c r="E18">
-        <v>1.02673576385722</v>
+        <v>0.9978304273329416</v>
       </c>
       <c r="F18">
-        <v>0.872085678748022</v>
+        <v>0.9091037321898744</v>
       </c>
       <c r="G18">
-        <v>1.04921192984217</v>
+        <v>1.062642051283568</v>
       </c>
       <c r="H18">
-        <v>1.04921192984217</v>
+        <v>1.062642051283568</v>
       </c>
       <c r="I18">
-        <v>1.04921192984217</v>
+        <v>1.062642051283568</v>
       </c>
       <c r="J18">
-        <v>0.9835026515705605</v>
+        <v>0.9838083183315108</v>
       </c>
       <c r="K18">
-        <v>1.046778066688968</v>
+        <v>1.017276555413839</v>
       </c>
       <c r="L18">
-        <v>1.038459255833351</v>
+        <v>1.015244049629062</v>
       </c>
       <c r="M18">
-        <v>0.9199902002688101</v>
+        <v>0.953587032422075</v>
       </c>
       <c r="N18">
-        <v>1.04921192984217</v>
+        <v>1.062642051283568</v>
       </c>
       <c r="O18">
-        <v>1.02673576385722</v>
+        <v>0.9978304273329416</v>
       </c>
       <c r="P18">
-        <v>0.9494107213026209</v>
+        <v>0.953467079761408</v>
       </c>
       <c r="Q18">
-        <v>1.00511920771389</v>
+        <v>0.9908193728322262</v>
       </c>
       <c r="R18">
-        <v>0.9826777908158041</v>
+        <v>0.9898587369354614</v>
       </c>
       <c r="S18">
-        <v>0.9607746980586008</v>
+        <v>0.9635808259514422</v>
       </c>
       <c r="T18">
-        <v>0.9826777908158041</v>
+        <v>0.9898587369354614</v>
       </c>
       <c r="U18">
-        <v>0.9828840060044932</v>
+        <v>0.9883461322844738</v>
       </c>
       <c r="V18">
-        <v>0.9961495907720286</v>
+        <v>1.003205316084293</v>
       </c>
       <c r="W18">
-        <v>0.9891916161405843</v>
+        <v>0.9923668718421869</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8471297224586756</v>
+        <v>0.9989001364378607</v>
       </c>
       <c r="D19">
-        <v>0.9796241675689754</v>
+        <v>0.9997106828400392</v>
       </c>
       <c r="E19">
-        <v>1.030714322637913</v>
+        <v>1.000079600497128</v>
       </c>
       <c r="F19">
-        <v>0.8471297224586756</v>
+        <v>0.9989001364378607</v>
       </c>
       <c r="G19">
-        <v>1.040069976662858</v>
+        <v>1.000389277241507</v>
       </c>
       <c r="H19">
-        <v>1.040069976662858</v>
+        <v>1.000389277241507</v>
       </c>
       <c r="I19">
-        <v>1.040069976662858</v>
+        <v>1.000389277241507</v>
       </c>
       <c r="J19">
-        <v>0.986726025234512</v>
+        <v>0.9999074270273095</v>
       </c>
       <c r="K19">
-        <v>1.05111181323651</v>
+        <v>1.000413703571251</v>
       </c>
       <c r="L19">
-        <v>1.044039531382398</v>
+        <v>1.000480188263348</v>
       </c>
       <c r="M19">
-        <v>0.9100285907877131</v>
+        <v>0.9992614100313503</v>
       </c>
       <c r="N19">
-        <v>1.040069976662858</v>
+        <v>1.000389277241507</v>
       </c>
       <c r="O19">
-        <v>1.030714322637913</v>
+        <v>1.000079600497128</v>
       </c>
       <c r="P19">
-        <v>0.9389220225482944</v>
+        <v>0.9994898684674945</v>
       </c>
       <c r="Q19">
-        <v>1.008720173936213</v>
+        <v>0.9999935137622189</v>
       </c>
       <c r="R19">
-        <v>0.9726380072531491</v>
+        <v>0.9997896713921653</v>
       </c>
       <c r="S19">
-        <v>0.9548566901103669</v>
+        <v>0.9996290546540996</v>
       </c>
       <c r="T19">
-        <v>0.9726380072531491</v>
+        <v>0.9997896713921653</v>
       </c>
       <c r="U19">
-        <v>0.9761600117484899</v>
+        <v>0.9998191103009514</v>
       </c>
       <c r="V19">
-        <v>0.9889420047313635</v>
+        <v>0.9999331436890625</v>
       </c>
       <c r="W19">
-        <v>0.9861805187461945</v>
+        <v>0.9998928032387242</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.001283833649116</v>
+        <v>0.9967397795570422</v>
       </c>
       <c r="D20">
-        <v>0.9990884980500727</v>
+        <v>0.9992125811629827</v>
       </c>
       <c r="E20">
-        <v>0.9990452851409128</v>
+        <v>1.000196382095786</v>
       </c>
       <c r="F20">
-        <v>1.001283833649116</v>
+        <v>0.9967397795570422</v>
       </c>
       <c r="G20">
-        <v>1.000869093009285</v>
+        <v>1.001598694851836</v>
       </c>
       <c r="H20">
-        <v>1.000869093009285</v>
+        <v>1.001598694851836</v>
       </c>
       <c r="I20">
-        <v>1.000869093009285</v>
+        <v>1.001598694851836</v>
       </c>
       <c r="J20">
-        <v>0.9998371003201458</v>
+        <v>0.9996633080932071</v>
       </c>
       <c r="K20">
-        <v>1.000176773194876</v>
+        <v>1.001096574239334</v>
       </c>
       <c r="L20">
-        <v>1.000283468781067</v>
+        <v>1.001268950743919</v>
       </c>
       <c r="M20">
-        <v>1.000320361720735</v>
+        <v>0.9979501672901014</v>
       </c>
       <c r="N20">
-        <v>1.000869093009285</v>
+        <v>1.001598694851836</v>
       </c>
       <c r="O20">
-        <v>0.9990452851409128</v>
+        <v>1.000196382095786</v>
       </c>
       <c r="P20">
-        <v>1.000164559395015</v>
+        <v>0.9984680808264139</v>
       </c>
       <c r="Q20">
-        <v>0.9994411927305293</v>
+        <v>0.9999298450944963</v>
       </c>
       <c r="R20">
-        <v>1.000399403933105</v>
+        <v>0.9995116188348879</v>
       </c>
       <c r="S20">
-        <v>1.000055406370058</v>
+        <v>0.9988664899153449</v>
       </c>
       <c r="T20">
-        <v>1.000399403933105</v>
+        <v>0.9995116188348878</v>
       </c>
       <c r="U20">
-        <v>1.000258828029865</v>
+        <v>0.9995495411494677</v>
       </c>
       <c r="V20">
-        <v>1.000380881025749</v>
+        <v>0.9999593718899413</v>
       </c>
       <c r="W20">
-        <v>1.000113051733276</v>
+        <v>0.999715804754276</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9971734497206481</v>
+        <v>0.9955103629021471</v>
       </c>
       <c r="D21">
-        <v>1.001047700442176</v>
+        <v>0.9986055482881374</v>
       </c>
       <c r="E21">
-        <v>1.001739845717986</v>
+        <v>1.000074377227052</v>
       </c>
       <c r="F21">
-        <v>0.9971734497206481</v>
+        <v>0.9955103629021471</v>
       </c>
       <c r="G21">
-        <v>0.9987850368141383</v>
+        <v>1.002543942607621</v>
       </c>
       <c r="H21">
-        <v>0.9987850368141383</v>
+        <v>1.002543942607621</v>
       </c>
       <c r="I21">
-        <v>0.9987850368141383</v>
+        <v>1.002543942607621</v>
       </c>
       <c r="J21">
-        <v>1.000116558286192</v>
+        <v>0.9995394385917882</v>
       </c>
       <c r="K21">
-        <v>1.000251187161805</v>
+        <v>1.001578580362111</v>
       </c>
       <c r="L21">
-        <v>1.000174583611165</v>
+        <v>1.002061940481059</v>
       </c>
       <c r="M21">
-        <v>0.9985213300955644</v>
+        <v>0.997005014577646</v>
       </c>
       <c r="N21">
-        <v>0.9987850368141383</v>
+        <v>1.002543942607621</v>
       </c>
       <c r="O21">
-        <v>1.001739845717986</v>
+        <v>1.000074377227052</v>
       </c>
       <c r="P21">
-        <v>0.9994566477193172</v>
+        <v>0.9977923700645995</v>
       </c>
       <c r="Q21">
-        <v>1.000928202002089</v>
+        <v>0.9998069079094201</v>
       </c>
       <c r="R21">
-        <v>0.9992327774175909</v>
+        <v>0.9993762275789401</v>
       </c>
       <c r="S21">
-        <v>0.9996766179082753</v>
+        <v>0.998374726240329</v>
       </c>
       <c r="T21">
-        <v>0.9992327774175909</v>
+        <v>0.9993762275789401</v>
       </c>
       <c r="U21">
-        <v>0.9994537226347411</v>
+        <v>0.9994170303321521</v>
       </c>
       <c r="V21">
-        <v>0.9993199854706205</v>
+        <v>1.000042412787246</v>
       </c>
       <c r="W21">
-        <v>0.9997262114812093</v>
+        <v>0.9996149006296953</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9990389148252886</v>
+        <v>0.9903845197976474</v>
       </c>
       <c r="D22">
-        <v>0.9972887069792715</v>
+        <v>0.9971435701022453</v>
       </c>
       <c r="E22">
-        <v>0.9963695499922866</v>
+        <v>1.00019930542307</v>
       </c>
       <c r="F22">
-        <v>0.9990389148252886</v>
+        <v>0.9903845197976474</v>
       </c>
       <c r="G22">
-        <v>1.005651538612514</v>
+        <v>1.004928538529499</v>
       </c>
       <c r="H22">
-        <v>1.005651538612514</v>
+        <v>1.004928538529499</v>
       </c>
       <c r="I22">
-        <v>1.005651538612514</v>
+        <v>1.004928538529499</v>
       </c>
       <c r="J22">
-        <v>0.9982967059387967</v>
+        <v>0.9990845821274648</v>
       </c>
       <c r="K22">
-        <v>1.001817671825822</v>
+        <v>1.003414240673258</v>
       </c>
       <c r="L22">
-        <v>1.001573537913993</v>
+        <v>1.004330518238204</v>
       </c>
       <c r="M22">
-        <v>0.9984261680135433</v>
+        <v>0.9936544052174312</v>
       </c>
       <c r="N22">
-        <v>1.005651538612514</v>
+        <v>1.004928538529499</v>
       </c>
       <c r="O22">
-        <v>0.9963695499922866</v>
+        <v>1.00019930542307</v>
       </c>
       <c r="P22">
-        <v>0.9977042324087876</v>
+        <v>0.9952919126103585</v>
       </c>
       <c r="Q22">
-        <v>0.9973331279655416</v>
+        <v>0.9996419437752673</v>
       </c>
       <c r="R22">
-        <v>1.000353334476696</v>
+        <v>0.9985041212500722</v>
       </c>
       <c r="S22">
-        <v>0.9979017235854574</v>
+        <v>0.9965561357827273</v>
       </c>
       <c r="T22">
-        <v>1.000353334476696</v>
+        <v>0.9985041212500722</v>
       </c>
       <c r="U22">
-        <v>0.9998391773422213</v>
+        <v>0.9986492364694203</v>
       </c>
       <c r="V22">
-        <v>1.00100164959628</v>
+        <v>0.999905096881436</v>
       </c>
       <c r="W22">
-        <v>0.9998078492626894</v>
+        <v>0.9991424600136025</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9836303164026937</v>
+      </c>
+      <c r="D23">
+        <v>0.9948449963088384</v>
+      </c>
+      <c r="E23">
+        <v>0.9992797947288097</v>
+      </c>
+      <c r="F23">
+        <v>0.9836303164026937</v>
+      </c>
+      <c r="G23">
+        <v>1.010549275583635</v>
+      </c>
+      <c r="H23">
+        <v>1.010549275583635</v>
+      </c>
+      <c r="I23">
+        <v>1.010549275583635</v>
+      </c>
+      <c r="J23">
+        <v>0.9982839364485552</v>
+      </c>
+      <c r="K23">
+        <v>1.005443096746881</v>
+      </c>
+      <c r="L23">
+        <v>1.007523857007484</v>
+      </c>
+      <c r="M23">
+        <v>0.9893480702861311</v>
+      </c>
+      <c r="N23">
+        <v>1.010549275583635</v>
+      </c>
+      <c r="O23">
+        <v>0.9992797947288097</v>
+      </c>
+      <c r="P23">
+        <v>0.9914550555657518</v>
+      </c>
+      <c r="Q23">
+        <v>0.9987818655886824</v>
+      </c>
+      <c r="R23">
+        <v>0.9978197955717129</v>
+      </c>
+      <c r="S23">
+        <v>0.9937313491933528</v>
+      </c>
+      <c r="T23">
+        <v>0.9978197955717129</v>
+      </c>
+      <c r="U23">
+        <v>0.9979358307909234</v>
+      </c>
+      <c r="V23">
+        <v>1.000458519749466</v>
+      </c>
+      <c r="W23">
+        <v>0.9986129179391285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.33124827028334</v>
+      </c>
+      <c r="D24">
+        <v>0.9477131255820066</v>
+      </c>
+      <c r="E24">
+        <v>0.7938059821182893</v>
+      </c>
+      <c r="F24">
+        <v>1.33124827028334</v>
+      </c>
+      <c r="G24">
+        <v>1.056749160557282</v>
+      </c>
+      <c r="H24">
+        <v>1.056749160557282</v>
+      </c>
+      <c r="I24">
+        <v>1.056749160557282</v>
+      </c>
+      <c r="J24">
+        <v>1.044983896682497</v>
+      </c>
+      <c r="K24">
+        <v>0.8861111348405583</v>
+      </c>
+      <c r="L24">
+        <v>1.009600378499737</v>
+      </c>
+      <c r="M24">
+        <v>1.166844084262264</v>
+      </c>
+      <c r="N24">
+        <v>1.056749160557282</v>
+      </c>
+      <c r="O24">
+        <v>0.7938059821182893</v>
+      </c>
+      <c r="P24">
+        <v>1.062527126200815</v>
+      </c>
+      <c r="Q24">
+        <v>0.9193949394003931</v>
+      </c>
+      <c r="R24">
+        <v>1.06060113765297</v>
+      </c>
+      <c r="S24">
+        <v>1.056679383028042</v>
+      </c>
+      <c r="T24">
+        <v>1.06060113765297</v>
+      </c>
+      <c r="U24">
+        <v>1.056696827410352</v>
+      </c>
+      <c r="V24">
+        <v>1.056707294039738</v>
+      </c>
+      <c r="W24">
+        <v>1.029632004103247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9452396739507762</v>
+      </c>
+      <c r="D25">
+        <v>1.076957009981891</v>
+      </c>
+      <c r="E25">
+        <v>1.043636693120122</v>
+      </c>
+      <c r="F25">
+        <v>0.9452396739507762</v>
+      </c>
+      <c r="G25">
+        <v>0.9252458156922565</v>
+      </c>
+      <c r="H25">
+        <v>0.9252458156922565</v>
+      </c>
+      <c r="I25">
+        <v>0.9252458156922565</v>
+      </c>
+      <c r="J25">
+        <v>1.01039682232485</v>
+      </c>
+      <c r="K25">
+        <v>0.9805879051240963</v>
+      </c>
+      <c r="L25">
+        <v>0.951223235371931</v>
+      </c>
+      <c r="M25">
+        <v>1.01337517676093</v>
+      </c>
+      <c r="N25">
+        <v>0.9252458156922565</v>
+      </c>
+      <c r="O25">
+        <v>1.043636693120122</v>
+      </c>
+      <c r="P25">
+        <v>0.9944381835354492</v>
+      </c>
+      <c r="Q25">
+        <v>1.027016757722486</v>
+      </c>
+      <c r="R25">
+        <v>0.9713740609210516</v>
+      </c>
+      <c r="S25">
+        <v>0.9997577297985828</v>
+      </c>
+      <c r="T25">
+        <v>0.9713740609210516</v>
+      </c>
+      <c r="U25">
+        <v>0.9811297512720012</v>
+      </c>
+      <c r="V25">
+        <v>0.9699529641560523</v>
+      </c>
+      <c r="W25">
+        <v>0.9933327915408567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.6292570061519027</v>
+      </c>
+      <c r="D26">
+        <v>1.231457406871493</v>
+      </c>
+      <c r="E26">
+        <v>1.514130508078374</v>
+      </c>
+      <c r="F26">
+        <v>0.6292570061519027</v>
+      </c>
+      <c r="G26">
+        <v>0.4410001629655855</v>
+      </c>
+      <c r="H26">
+        <v>0.4410001629655855</v>
+      </c>
+      <c r="I26">
+        <v>0.4410001629655855</v>
+      </c>
+      <c r="J26">
+        <v>0.9706731619074589</v>
+      </c>
+      <c r="K26">
+        <v>1.155648466661597</v>
+      </c>
+      <c r="L26">
+        <v>0.8328893118235465</v>
+      </c>
+      <c r="M26">
+        <v>0.8732825534871642</v>
+      </c>
+      <c r="N26">
+        <v>0.4410001629655855</v>
+      </c>
+      <c r="O26">
+        <v>1.514130508078374</v>
+      </c>
+      <c r="P26">
+        <v>1.071693757115138</v>
+      </c>
+      <c r="Q26">
+        <v>1.242401834992916</v>
+      </c>
+      <c r="R26">
+        <v>0.8614625590652872</v>
+      </c>
+      <c r="S26">
+        <v>1.038020225379245</v>
+      </c>
+      <c r="T26">
+        <v>0.8614625590652872</v>
+      </c>
+      <c r="U26">
+        <v>0.8887652097758301</v>
+      </c>
+      <c r="V26">
+        <v>0.7992122004137812</v>
+      </c>
+      <c r="W26">
+        <v>0.9560423222433903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.202250310326608</v>
+      </c>
+      <c r="D27">
+        <v>0.868862257372056</v>
+      </c>
+      <c r="E27">
+        <v>0.7986249444705715</v>
+      </c>
+      <c r="F27">
+        <v>1.202250310326608</v>
+      </c>
+      <c r="G27">
+        <v>1.187748706572134</v>
+      </c>
+      <c r="H27">
+        <v>1.187748706572134</v>
+      </c>
+      <c r="I27">
+        <v>1.187748706572134</v>
+      </c>
+      <c r="J27">
+        <v>1.013655450581753</v>
+      </c>
+      <c r="K27">
+        <v>0.9594749306531103</v>
+      </c>
+      <c r="L27">
+        <v>1.084166210186356</v>
+      </c>
+      <c r="M27">
+        <v>1.053328206990494</v>
+      </c>
+      <c r="N27">
+        <v>1.187748706572134</v>
+      </c>
+      <c r="O27">
+        <v>0.7986249444705715</v>
+      </c>
+      <c r="P27">
+        <v>1.00043762739859</v>
+      </c>
+      <c r="Q27">
+        <v>0.906140197526162</v>
+      </c>
+      <c r="R27">
+        <v>1.062874653789771</v>
+      </c>
+      <c r="S27">
+        <v>1.004843568459644</v>
+      </c>
+      <c r="T27">
+        <v>1.062874653789771</v>
+      </c>
+      <c r="U27">
+        <v>1.050569852987767</v>
+      </c>
+      <c r="V27">
+        <v>1.07800562370464</v>
+      </c>
+      <c r="W27">
+        <v>1.021013877144135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.6962316156217383</v>
+      </c>
+      <c r="D28">
+        <v>0.9777115433581162</v>
+      </c>
+      <c r="E28">
+        <v>1.008651731245333</v>
+      </c>
+      <c r="F28">
+        <v>0.6962316156217383</v>
+      </c>
+      <c r="G28">
+        <v>1.212549592292039</v>
+      </c>
+      <c r="H28">
+        <v>1.212549592292039</v>
+      </c>
+      <c r="I28">
+        <v>1.212549592292039</v>
+      </c>
+      <c r="J28">
+        <v>0.9528011852055719</v>
+      </c>
+      <c r="K28">
+        <v>1.064806732348945</v>
+      </c>
+      <c r="L28">
+        <v>1.067576605929247</v>
+      </c>
+      <c r="M28">
+        <v>0.8348253317417699</v>
+      </c>
+      <c r="N28">
+        <v>1.212549592292039</v>
+      </c>
+      <c r="O28">
+        <v>1.008651731245333</v>
+      </c>
+      <c r="P28">
+        <v>0.8524416734335358</v>
+      </c>
+      <c r="Q28">
+        <v>0.9807264582254527</v>
+      </c>
+      <c r="R28">
+        <v>0.9724776463863702</v>
+      </c>
+      <c r="S28">
+        <v>0.8858948440242145</v>
+      </c>
+      <c r="T28">
+        <v>0.9724776463863702</v>
+      </c>
+      <c r="U28">
+        <v>0.9675585310911706</v>
+      </c>
+      <c r="V28">
+        <v>1.016556743331344</v>
+      </c>
+      <c r="W28">
+        <v>0.9768942922178452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.7547999005023952</v>
+      </c>
+      <c r="D29">
+        <v>0.9774295320605128</v>
+      </c>
+      <c r="E29">
+        <v>1.014828661462144</v>
+      </c>
+      <c r="F29">
+        <v>0.7547999005023952</v>
+      </c>
+      <c r="G29">
+        <v>1.157770349284357</v>
+      </c>
+      <c r="H29">
+        <v>1.157770349284357</v>
+      </c>
+      <c r="I29">
+        <v>1.157770349284357</v>
+      </c>
+      <c r="J29">
+        <v>0.9630564503782968</v>
+      </c>
+      <c r="K29">
+        <v>1.05888454821444</v>
+      </c>
+      <c r="L29">
+        <v>1.057852453071322</v>
+      </c>
+      <c r="M29">
+        <v>0.8631775658219223</v>
+      </c>
+      <c r="N29">
+        <v>1.157770349284357</v>
+      </c>
+      <c r="O29">
+        <v>1.014828661462144</v>
+      </c>
+      <c r="P29">
+        <v>0.8848142809822699</v>
+      </c>
+      <c r="Q29">
+        <v>0.9889425559202206</v>
+      </c>
+      <c r="R29">
+        <v>0.9757996370829657</v>
+      </c>
+      <c r="S29">
+        <v>0.9108950041142788</v>
+      </c>
+      <c r="T29">
+        <v>0.9757996370829657</v>
+      </c>
+      <c r="U29">
+        <v>0.9726138404067984</v>
+      </c>
+      <c r="V29">
+        <v>1.00964514218231</v>
+      </c>
+      <c r="W29">
+        <v>0.9809749325994237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.872085678748022</v>
+      </c>
+      <c r="D30">
+        <v>0.9767693823155725</v>
+      </c>
+      <c r="E30">
+        <v>1.02673576385722</v>
+      </c>
+      <c r="F30">
+        <v>0.872085678748022</v>
+      </c>
+      <c r="G30">
+        <v>1.04921192984217</v>
+      </c>
+      <c r="H30">
+        <v>1.04921192984217</v>
+      </c>
+      <c r="I30">
+        <v>1.04921192984217</v>
+      </c>
+      <c r="J30">
+        <v>0.9835026515705605</v>
+      </c>
+      <c r="K30">
+        <v>1.046778066688968</v>
+      </c>
+      <c r="L30">
+        <v>1.038459255833351</v>
+      </c>
+      <c r="M30">
+        <v>0.9199902002688101</v>
+      </c>
+      <c r="N30">
+        <v>1.04921192984217</v>
+      </c>
+      <c r="O30">
+        <v>1.02673576385722</v>
+      </c>
+      <c r="P30">
+        <v>0.9494107213026209</v>
+      </c>
+      <c r="Q30">
+        <v>1.00511920771389</v>
+      </c>
+      <c r="R30">
+        <v>0.9826777908158041</v>
+      </c>
+      <c r="S30">
+        <v>0.9607746980586008</v>
+      </c>
+      <c r="T30">
+        <v>0.9826777908158041</v>
+      </c>
+      <c r="U30">
+        <v>0.9828840060044932</v>
+      </c>
+      <c r="V30">
+        <v>0.9961495907720286</v>
+      </c>
+      <c r="W30">
+        <v>0.9891916161405843</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8471297224586756</v>
+      </c>
+      <c r="D31">
+        <v>0.9796241675689754</v>
+      </c>
+      <c r="E31">
+        <v>1.030714322637913</v>
+      </c>
+      <c r="F31">
+        <v>0.8471297224586756</v>
+      </c>
+      <c r="G31">
+        <v>1.040069976662858</v>
+      </c>
+      <c r="H31">
+        <v>1.040069976662858</v>
+      </c>
+      <c r="I31">
+        <v>1.040069976662858</v>
+      </c>
+      <c r="J31">
+        <v>0.986726025234512</v>
+      </c>
+      <c r="K31">
+        <v>1.05111181323651</v>
+      </c>
+      <c r="L31">
+        <v>1.044039531382398</v>
+      </c>
+      <c r="M31">
+        <v>0.9100285907877131</v>
+      </c>
+      <c r="N31">
+        <v>1.040069976662858</v>
+      </c>
+      <c r="O31">
+        <v>1.030714322637913</v>
+      </c>
+      <c r="P31">
+        <v>0.9389220225482944</v>
+      </c>
+      <c r="Q31">
+        <v>1.008720173936213</v>
+      </c>
+      <c r="R31">
+        <v>0.9726380072531491</v>
+      </c>
+      <c r="S31">
+        <v>0.9548566901103669</v>
+      </c>
+      <c r="T31">
+        <v>0.9726380072531491</v>
+      </c>
+      <c r="U31">
+        <v>0.9761600117484899</v>
+      </c>
+      <c r="V31">
+        <v>0.9889420047313635</v>
+      </c>
+      <c r="W31">
+        <v>0.9861805187461945</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.6290249592328768</v>
+      </c>
+      <c r="D32">
+        <v>0.9702086726027395</v>
+      </c>
+      <c r="E32">
+        <v>0.9963461402739724</v>
+      </c>
+      <c r="F32">
+        <v>0.6290249592328768</v>
+      </c>
+      <c r="G32">
+        <v>1.282197215068493</v>
+      </c>
+      <c r="H32">
+        <v>1.282197215068493</v>
+      </c>
+      <c r="I32">
+        <v>1.282197215068493</v>
+      </c>
+      <c r="J32">
+        <v>0.9417915263013698</v>
+      </c>
+      <c r="K32">
+        <v>1.073243689315069</v>
+      </c>
+      <c r="L32">
+        <v>1.086499628219178</v>
+      </c>
+      <c r="M32">
+        <v>0.7991112813698635</v>
+      </c>
+      <c r="N32">
+        <v>1.282197215068493</v>
+      </c>
+      <c r="O32">
+        <v>0.9963461402739724</v>
+      </c>
+      <c r="P32">
+        <v>0.8126855497534247</v>
+      </c>
+      <c r="Q32">
+        <v>0.9690688332876711</v>
+      </c>
+      <c r="R32">
+        <v>0.969189438191781</v>
+      </c>
+      <c r="S32">
+        <v>0.8557208752694064</v>
+      </c>
+      <c r="T32">
+        <v>0.9691894381917808</v>
+      </c>
+      <c r="U32">
+        <v>0.9623399602191781</v>
+      </c>
+      <c r="V32">
+        <v>1.026311411189041</v>
+      </c>
+      <c r="W32">
+        <v>0.9723028890479453</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.3106690667894737</v>
+      </c>
+      <c r="D33">
+        <v>1.011693811052631</v>
+      </c>
+      <c r="E33">
+        <v>1.283223473157895</v>
+      </c>
+      <c r="F33">
+        <v>0.3106690667894737</v>
+      </c>
+      <c r="G33">
+        <v>1.148376904210526</v>
+      </c>
+      <c r="H33">
+        <v>1.148376904210526</v>
+      </c>
+      <c r="I33">
+        <v>1.148376904210526</v>
+      </c>
+      <c r="J33">
+        <v>0.8913537273684213</v>
+      </c>
+      <c r="K33">
+        <v>1.226564115789474</v>
+      </c>
+      <c r="L33">
+        <v>1.070575995263158</v>
+      </c>
+      <c r="M33">
+        <v>0.6092873963157897</v>
+      </c>
+      <c r="N33">
+        <v>1.148376904210526</v>
+      </c>
+      <c r="O33">
+        <v>1.283223473157895</v>
+      </c>
+      <c r="P33">
+        <v>0.7969462699736842</v>
+      </c>
+      <c r="Q33">
+        <v>1.087288600263158</v>
+      </c>
+      <c r="R33">
+        <v>0.9140898147192983</v>
+      </c>
+      <c r="S33">
+        <v>0.8284154224385967</v>
+      </c>
+      <c r="T33">
+        <v>0.9140898147192981</v>
+      </c>
+      <c r="U33">
+        <v>0.908405792881579</v>
+      </c>
+      <c r="V33">
+        <v>0.9564000151473684</v>
+      </c>
+      <c r="W33">
+        <v>0.9439680612434209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.4620953888947369</v>
+      </c>
+      <c r="D34">
+        <v>0.9417972668421053</v>
+      </c>
+      <c r="E34">
+        <v>1.152991674736842</v>
+      </c>
+      <c r="F34">
+        <v>0.4620953888947369</v>
+      </c>
+      <c r="G34">
+        <v>1.316131018421053</v>
+      </c>
+      <c r="H34">
+        <v>1.316131018421053</v>
+      </c>
+      <c r="I34">
+        <v>1.316131018421053</v>
+      </c>
+      <c r="J34">
+        <v>0.8591794521052631</v>
+      </c>
+      <c r="K34">
+        <v>1.205887782105263</v>
+      </c>
+      <c r="L34">
+        <v>1.080670141052632</v>
+      </c>
+      <c r="M34">
+        <v>0.662588005263158</v>
+      </c>
+      <c r="N34">
+        <v>1.316131018421053</v>
+      </c>
+      <c r="O34">
+        <v>1.152991674736842</v>
+      </c>
+      <c r="P34">
+        <v>0.8075435318157895</v>
+      </c>
+      <c r="Q34">
+        <v>1.006085563421053</v>
+      </c>
+      <c r="R34">
+        <v>0.9770726940175439</v>
+      </c>
+      <c r="S34">
+        <v>0.824755505245614</v>
+      </c>
+      <c r="T34">
+        <v>0.9770726940175439</v>
+      </c>
+      <c r="U34">
+        <v>0.9475993835394737</v>
+      </c>
+      <c r="V34">
+        <v>1.021305710515789</v>
+      </c>
+      <c r="W34">
+        <v>0.9601675911776317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.488946812374294</v>
+      </c>
+      <c r="D35">
+        <v>0.897235803805974</v>
+      </c>
+      <c r="E35">
+        <v>1.080707370831878</v>
+      </c>
+      <c r="F35">
+        <v>0.488946812374294</v>
+      </c>
+      <c r="G35">
+        <v>1.086111918525873</v>
+      </c>
+      <c r="H35">
+        <v>1.086111918525873</v>
+      </c>
+      <c r="I35">
+        <v>1.086111918525873</v>
+      </c>
+      <c r="J35">
+        <v>0.9611501595955484</v>
+      </c>
+      <c r="K35">
+        <v>1.201547292742791</v>
+      </c>
+      <c r="L35">
+        <v>1.188540083613676</v>
+      </c>
+      <c r="M35">
+        <v>0.6734337782984637</v>
+      </c>
+      <c r="N35">
+        <v>1.086111918525873</v>
+      </c>
+      <c r="O35">
+        <v>1.080707370831878</v>
+      </c>
+      <c r="P35">
+        <v>0.7848270916030857</v>
+      </c>
+      <c r="Q35">
+        <v>1.020928765213713</v>
+      </c>
+      <c r="R35">
+        <v>0.8852553672440147</v>
+      </c>
+      <c r="S35">
+        <v>0.8436014476005732</v>
+      </c>
+      <c r="T35">
+        <v>0.8852553672440147</v>
+      </c>
+      <c r="U35">
+        <v>0.9042290653318981</v>
+      </c>
+      <c r="V35">
+        <v>0.940605635970693</v>
+      </c>
+      <c r="W35">
+        <v>0.9472091524735622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.001283833649116</v>
+      </c>
+      <c r="D36">
+        <v>0.9990884980500727</v>
+      </c>
+      <c r="E36">
+        <v>0.9990452851409128</v>
+      </c>
+      <c r="F36">
+        <v>1.001283833649116</v>
+      </c>
+      <c r="G36">
+        <v>1.000869093009285</v>
+      </c>
+      <c r="H36">
+        <v>1.000869093009285</v>
+      </c>
+      <c r="I36">
+        <v>1.000869093009285</v>
+      </c>
+      <c r="J36">
+        <v>0.9998371003201458</v>
+      </c>
+      <c r="K36">
+        <v>1.000176773194876</v>
+      </c>
+      <c r="L36">
+        <v>1.000283468781067</v>
+      </c>
+      <c r="M36">
+        <v>1.000320361720735</v>
+      </c>
+      <c r="N36">
+        <v>1.000869093009285</v>
+      </c>
+      <c r="O36">
+        <v>0.9990452851409128</v>
+      </c>
+      <c r="P36">
+        <v>1.000164559395015</v>
+      </c>
+      <c r="Q36">
+        <v>0.9994411927305293</v>
+      </c>
+      <c r="R36">
+        <v>1.000399403933105</v>
+      </c>
+      <c r="S36">
+        <v>1.000055406370058</v>
+      </c>
+      <c r="T36">
+        <v>1.000399403933105</v>
+      </c>
+      <c r="U36">
+        <v>1.000258828029865</v>
+      </c>
+      <c r="V36">
+        <v>1.000380881025749</v>
+      </c>
+      <c r="W36">
+        <v>1.000113051733276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9971734497206481</v>
+      </c>
+      <c r="D37">
+        <v>1.001047700442176</v>
+      </c>
+      <c r="E37">
+        <v>1.001739845717986</v>
+      </c>
+      <c r="F37">
+        <v>0.9971734497206481</v>
+      </c>
+      <c r="G37">
+        <v>0.9987850368141383</v>
+      </c>
+      <c r="H37">
+        <v>0.9987850368141383</v>
+      </c>
+      <c r="I37">
+        <v>0.9987850368141383</v>
+      </c>
+      <c r="J37">
+        <v>1.000116558286192</v>
+      </c>
+      <c r="K37">
+        <v>1.000251187161805</v>
+      </c>
+      <c r="L37">
+        <v>1.000174583611165</v>
+      </c>
+      <c r="M37">
+        <v>0.9985213300955644</v>
+      </c>
+      <c r="N37">
+        <v>0.9987850368141383</v>
+      </c>
+      <c r="O37">
+        <v>1.001739845717986</v>
+      </c>
+      <c r="P37">
+        <v>0.9994566477193172</v>
+      </c>
+      <c r="Q37">
+        <v>1.000928202002089</v>
+      </c>
+      <c r="R37">
+        <v>0.9992327774175909</v>
+      </c>
+      <c r="S37">
+        <v>0.9996766179082753</v>
+      </c>
+      <c r="T37">
+        <v>0.9992327774175909</v>
+      </c>
+      <c r="U37">
+        <v>0.9994537226347411</v>
+      </c>
+      <c r="V37">
+        <v>0.9993199854706205</v>
+      </c>
+      <c r="W37">
+        <v>0.9997262114812093</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9990389148252886</v>
+      </c>
+      <c r="D38">
+        <v>0.9972887069792715</v>
+      </c>
+      <c r="E38">
+        <v>0.9963695499922866</v>
+      </c>
+      <c r="F38">
+        <v>0.9990389148252886</v>
+      </c>
+      <c r="G38">
+        <v>1.005651538612514</v>
+      </c>
+      <c r="H38">
+        <v>1.005651538612514</v>
+      </c>
+      <c r="I38">
+        <v>1.005651538612514</v>
+      </c>
+      <c r="J38">
+        <v>0.9982967059387967</v>
+      </c>
+      <c r="K38">
+        <v>1.001817671825822</v>
+      </c>
+      <c r="L38">
+        <v>1.001573537913993</v>
+      </c>
+      <c r="M38">
+        <v>0.9984261680135433</v>
+      </c>
+      <c r="N38">
+        <v>1.005651538612514</v>
+      </c>
+      <c r="O38">
+        <v>0.9963695499922866</v>
+      </c>
+      <c r="P38">
+        <v>0.9977042324087876</v>
+      </c>
+      <c r="Q38">
+        <v>0.9973331279655416</v>
+      </c>
+      <c r="R38">
+        <v>1.000353334476696</v>
+      </c>
+      <c r="S38">
+        <v>0.9979017235854574</v>
+      </c>
+      <c r="T38">
+        <v>1.000353334476696</v>
+      </c>
+      <c r="U38">
+        <v>0.9998391773422213</v>
+      </c>
+      <c r="V38">
+        <v>1.00100164959628</v>
+      </c>
+      <c r="W38">
+        <v>0.9998078492626894</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.003396653651694</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9884953809974645</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9882869936718864</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.003396653651694</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.02223865634517</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.02223865634517</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.02223865634517</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9961934838782176</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.003754772695041</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.004382257387526</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9992522760616596</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.02223865634517</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9882869936718864</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9958418236617903</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.992240238775052</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.004640767889583</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9959590437339326</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.004640767889583</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.002528946886742</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.006470888778427</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.000750059336082</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8368218343082955</v>
+      </c>
+      <c r="D40">
+        <v>0.9548637838594713</v>
+      </c>
+      <c r="E40">
+        <v>1.034161695528331</v>
+      </c>
+      <c r="F40">
+        <v>0.8368218343082955</v>
+      </c>
+      <c r="G40">
+        <v>1.120816718081987</v>
+      </c>
+      <c r="H40">
+        <v>1.120816718081987</v>
+      </c>
+      <c r="I40">
+        <v>1.120816718081987</v>
+      </c>
+      <c r="J40">
+        <v>0.9599781157101281</v>
+      </c>
+      <c r="K40">
+        <v>1.069817481552992</v>
+      </c>
+      <c r="L40">
+        <v>1.048489668829025</v>
+      </c>
+      <c r="M40">
+        <v>0.8861334485399571</v>
+      </c>
+      <c r="N40">
+        <v>1.120816718081987</v>
+      </c>
+      <c r="O40">
+        <v>1.034161695528331</v>
+      </c>
+      <c r="P40">
+        <v>0.9354917649183132</v>
+      </c>
+      <c r="Q40">
+        <v>0.9970699056192296</v>
+      </c>
+      <c r="R40">
+        <v>0.9972667493062047</v>
+      </c>
+      <c r="S40">
+        <v>0.9436538818489182</v>
+      </c>
+      <c r="T40">
+        <v>0.9972667493062047</v>
+      </c>
+      <c r="U40">
+        <v>0.9879445909071856</v>
+      </c>
+      <c r="V40">
+        <v>1.014519016342146</v>
+      </c>
+      <c r="W40">
+        <v>0.9888853433012734</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.104918242874772</v>
+      </c>
+      <c r="D41">
+        <v>1.007318012200767</v>
+      </c>
+      <c r="E41">
+        <v>0.9645870383626591</v>
+      </c>
+      <c r="F41">
+        <v>1.104918242874772</v>
+      </c>
+      <c r="G41">
+        <v>0.9459835132750913</v>
+      </c>
+      <c r="H41">
+        <v>0.9459835132750913</v>
+      </c>
+      <c r="I41">
+        <v>0.9459835132750913</v>
+      </c>
+      <c r="J41">
+        <v>1.023213967072433</v>
+      </c>
+      <c r="K41">
+        <v>0.9640487507304649</v>
+      </c>
+      <c r="L41">
+        <v>0.9861714939382221</v>
+      </c>
+      <c r="M41">
+        <v>1.062238619416059</v>
+      </c>
+      <c r="N41">
+        <v>0.9459835132750913</v>
+      </c>
+      <c r="O41">
+        <v>0.9645870383626591</v>
+      </c>
+      <c r="P41">
+        <v>1.034752640618716</v>
+      </c>
+      <c r="Q41">
+        <v>0.9939005027175462</v>
+      </c>
+      <c r="R41">
+        <v>1.005162931504174</v>
+      </c>
+      <c r="S41">
+        <v>1.030906416103288</v>
+      </c>
+      <c r="T41">
+        <v>1.005162931504174</v>
+      </c>
+      <c r="U41">
+        <v>1.009675690396239</v>
+      </c>
+      <c r="V41">
+        <v>0.9969372549720095</v>
+      </c>
+      <c r="W41">
+        <v>1.007309954733809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.7676058235040938</v>
+      </c>
+      <c r="D42">
+        <v>0.9972643152126841</v>
+      </c>
+      <c r="E42">
+        <v>1.154385186015617</v>
+      </c>
+      <c r="F42">
+        <v>0.7676058235040938</v>
+      </c>
+      <c r="G42">
+        <v>0.9420823461862472</v>
+      </c>
+      <c r="H42">
+        <v>0.9420823461862472</v>
+      </c>
+      <c r="I42">
+        <v>0.9420823461862472</v>
+      </c>
+      <c r="J42">
+        <v>0.9661406951592535</v>
+      </c>
+      <c r="K42">
+        <v>1.111224417721746</v>
+      </c>
+      <c r="L42">
+        <v>1.02546129875293</v>
+      </c>
+      <c r="M42">
+        <v>0.8581786340446544</v>
+      </c>
+      <c r="N42">
+        <v>0.9420823461862472</v>
+      </c>
+      <c r="O42">
+        <v>1.154385186015617</v>
+      </c>
+      <c r="P42">
+        <v>0.9609955047598555</v>
+      </c>
+      <c r="Q42">
+        <v>1.060262940587435</v>
+      </c>
+      <c r="R42">
+        <v>0.9546911185686527</v>
+      </c>
+      <c r="S42">
+        <v>0.9627105682263215</v>
+      </c>
+      <c r="T42">
+        <v>0.9546911185686527</v>
+      </c>
+      <c r="U42">
+        <v>0.957553512716303</v>
+      </c>
+      <c r="V42">
+        <v>0.9544592794102918</v>
+      </c>
+      <c r="W42">
+        <v>0.9777928395746532</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,49 +85,46 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.01129282771604</v>
+        <v>0.9967397795570422</v>
       </c>
       <c r="D3">
-        <v>0.9838997531596372</v>
+        <v>0.9992125811629827</v>
       </c>
       <c r="E3">
-        <v>1.000024179678731</v>
+        <v>1.000196382095786</v>
       </c>
       <c r="F3">
-        <v>1.01129282771604</v>
+        <v>0.9967397795570422</v>
       </c>
       <c r="G3">
-        <v>0.9974985787439331</v>
+        <v>1.001598694851836</v>
       </c>
       <c r="H3">
-        <v>1.003096944747023</v>
+        <v>1.001598694851836</v>
       </c>
       <c r="I3">
-        <v>1.01129282771604</v>
+        <v>1.001598694851836</v>
       </c>
       <c r="J3">
-        <v>0.9838997531596372</v>
+        <v>0.9996633080932071</v>
       </c>
       <c r="K3">
-        <v>0.9993027847609944</v>
+        <v>1.001096574239334</v>
       </c>
       <c r="L3">
-        <v>1.003301783011864</v>
+        <v>1.001268950743919</v>
       </c>
       <c r="M3">
-        <v>0.9915022344095379</v>
+        <v>0.9979501672901014</v>
       </c>
       <c r="N3">
-        <v>1.01129282771604</v>
+        <v>1.001598694851836</v>
       </c>
       <c r="O3">
-        <v>1.000024179678731</v>
+        <v>1.000196382095786</v>
       </c>
       <c r="P3">
-        <v>0.9919619664191842</v>
+        <v>0.9984680808264139</v>
       </c>
       <c r="Q3">
-        <v>0.9987613792113321</v>
+        <v>0.9999298450944963</v>
       </c>
       <c r="R3">
-        <v>0.9984055868514695</v>
+        <v>0.9995116188348879</v>
       </c>
       <c r="S3">
-        <v>0.9938075038607672</v>
+        <v>0.9988664899153449</v>
       </c>
       <c r="T3">
-        <v>0.9984055868514695</v>
+        <v>0.9995116188348878</v>
       </c>
       <c r="U3">
-        <v>0.9981788348245854</v>
+        <v>0.9995495411494677</v>
       </c>
       <c r="V3">
-        <v>1.000801633402876</v>
+        <v>0.9999593718899413</v>
       </c>
       <c r="W3">
-        <v>0.9987398857784702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.999715804754276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.021251571549398</v>
+        <v>0.8368218343082955</v>
       </c>
       <c r="D4">
-        <v>0.9692194832354084</v>
+        <v>0.9548637838594713</v>
       </c>
       <c r="E4">
-        <v>1.000375953435432</v>
+        <v>1.034161695528331</v>
       </c>
       <c r="F4">
-        <v>1.021251571549398</v>
+        <v>0.8368218343082955</v>
       </c>
       <c r="G4">
-        <v>0.9951754179706747</v>
+        <v>1.120816718081987</v>
       </c>
       <c r="H4">
-        <v>1.006240332003238</v>
+        <v>1.120816718081987</v>
       </c>
       <c r="I4">
-        <v>1.021251571549398</v>
+        <v>1.120816718081987</v>
       </c>
       <c r="J4">
-        <v>0.9692194832354084</v>
+        <v>0.9599781157101281</v>
       </c>
       <c r="K4">
-        <v>0.9984597986800647</v>
+        <v>1.069817481552992</v>
       </c>
       <c r="L4">
-        <v>1.006411549506512</v>
+        <v>1.048489668829025</v>
       </c>
       <c r="M4">
-        <v>0.9835271606647148</v>
+        <v>0.8861334485399571</v>
       </c>
       <c r="N4">
-        <v>1.021251571549398</v>
+        <v>1.120816718081987</v>
       </c>
       <c r="O4">
-        <v>1.000375953435432</v>
+        <v>1.034161695528331</v>
       </c>
       <c r="P4">
-        <v>0.9847977183354203</v>
+        <v>0.9354917649183132</v>
       </c>
       <c r="Q4">
-        <v>0.9977756857030534</v>
+        <v>0.9970699056192296</v>
       </c>
       <c r="R4">
-        <v>0.9969490027400795</v>
+        <v>0.9972667493062047</v>
       </c>
       <c r="S4">
-        <v>0.9882569515471719</v>
+        <v>0.9436538818489182</v>
       </c>
       <c r="T4">
-        <v>0.9969490027400795</v>
+        <v>0.9972667493062047</v>
       </c>
       <c r="U4">
-        <v>0.9965056065477282</v>
+        <v>0.9879445909071856</v>
       </c>
       <c r="V4">
-        <v>1.001454799548062</v>
+        <v>1.014519016342146</v>
       </c>
       <c r="W4">
-        <v>0.9975826583806804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9888853433012734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.041017691372045</v>
+        <v>0.8433295646822753</v>
       </c>
       <c r="D5">
-        <v>0.9406278177183729</v>
+        <v>0.9730594726296825</v>
       </c>
       <c r="E5">
-        <v>0.9999673120125044</v>
+        <v>1.031315756368879</v>
       </c>
       <c r="F5">
-        <v>1.041017691372045</v>
+        <v>0.8433295646822753</v>
       </c>
       <c r="G5">
-        <v>0.9907493540477137</v>
+        <v>1.057566429474063</v>
       </c>
       <c r="H5">
-        <v>1.011800620672222</v>
+        <v>1.057566429474063</v>
       </c>
       <c r="I5">
-        <v>1.041017691372045</v>
+        <v>1.057566429474063</v>
       </c>
       <c r="J5">
-        <v>0.9406278177183729</v>
+        <v>0.9799392563616721</v>
       </c>
       <c r="K5">
-        <v>0.997140317652354</v>
+        <v>1.057006719135443</v>
       </c>
       <c r="L5">
-        <v>1.012402428083585</v>
+        <v>1.046485354409218</v>
       </c>
       <c r="M5">
-        <v>0.9684837082878579</v>
+        <v>0.9024876154034576</v>
       </c>
       <c r="N5">
-        <v>1.041017691372045</v>
+        <v>1.057566429474063</v>
       </c>
       <c r="O5">
-        <v>0.9999673120125044</v>
+        <v>1.031315756368879</v>
       </c>
       <c r="P5">
-        <v>0.9702975648654386</v>
+        <v>0.9373226605255773</v>
       </c>
       <c r="Q5">
-        <v>0.995358333030109</v>
+        <v>1.005627506365276</v>
       </c>
       <c r="R5">
-        <v>0.9938709403676409</v>
+        <v>0.9774039168417392</v>
       </c>
       <c r="S5">
-        <v>0.9771148279261969</v>
+        <v>0.9515281924709423</v>
       </c>
       <c r="T5">
-        <v>0.9938709403676409</v>
+        <v>0.9774039168417392</v>
       </c>
       <c r="U5">
-        <v>0.9930905437876592</v>
+        <v>0.9780377517217225</v>
       </c>
       <c r="V5">
-        <v>1.002675973304536</v>
+        <v>0.9939434872721906</v>
       </c>
       <c r="W5">
-        <v>0.995273656230832</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9863987710580864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.062642051283568</v>
+        <v>0.488946812374294</v>
       </c>
       <c r="D6">
-        <v>0.9091037321898744</v>
+        <v>0.897235803805974</v>
       </c>
       <c r="E6">
-        <v>0.9978304273329414</v>
+        <v>1.080707370831878</v>
       </c>
       <c r="F6">
-        <v>1.062642051283568</v>
+        <v>0.488946812374294</v>
       </c>
       <c r="G6">
-        <v>0.9838083183315108</v>
+        <v>1.086111918525873</v>
       </c>
       <c r="H6">
-        <v>1.017276555413839</v>
+        <v>1.086111918525873</v>
       </c>
       <c r="I6">
-        <v>1.062642051283568</v>
+        <v>1.086111918525873</v>
       </c>
       <c r="J6">
-        <v>0.9091037321898744</v>
+        <v>0.9611501595955484</v>
       </c>
       <c r="K6">
-        <v>0.9994428081346243</v>
+        <v>1.201547292742791</v>
       </c>
       <c r="L6">
-        <v>1.015244049629062</v>
+        <v>1.188540083613676</v>
       </c>
       <c r="M6">
-        <v>0.953587032422075</v>
+        <v>0.6734337782984637</v>
       </c>
       <c r="N6">
-        <v>1.062642051283568</v>
+        <v>1.086111918525873</v>
       </c>
       <c r="O6">
-        <v>0.9978304273329414</v>
+        <v>1.080707370831878</v>
       </c>
       <c r="P6">
-        <v>0.9534670797614079</v>
+        <v>0.7848270916030857</v>
       </c>
       <c r="Q6">
-        <v>0.9908193728322261</v>
+        <v>1.020928765213713</v>
       </c>
       <c r="R6">
-        <v>0.9898587369354613</v>
+        <v>0.8852553672440147</v>
       </c>
       <c r="S6">
-        <v>0.9635808259514422</v>
+        <v>0.8436014476005732</v>
       </c>
       <c r="T6">
-        <v>0.9898587369354614</v>
+        <v>0.8852553672440147</v>
       </c>
       <c r="U6">
-        <v>0.9883461322844738</v>
+        <v>0.9042290653318981</v>
       </c>
       <c r="V6">
-        <v>1.003205316084293</v>
+        <v>0.940605635970693</v>
       </c>
       <c r="W6">
-        <v>0.9923668718421869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9472091524735622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000389277241507</v>
+        <v>0.9824680654228982</v>
       </c>
       <c r="D7">
-        <v>0.9989001364378608</v>
+        <v>0.9979677086282019</v>
       </c>
       <c r="E7">
-        <v>1.000079600497129</v>
+        <v>0.9988203720482636</v>
       </c>
       <c r="F7">
-        <v>1.000389277241507</v>
+        <v>0.9824680654228982</v>
       </c>
       <c r="G7">
-        <v>0.9999074270273094</v>
+        <v>1.015942104759218</v>
       </c>
       <c r="H7">
-        <v>1.000413703571251</v>
+        <v>1.015942104759218</v>
       </c>
       <c r="I7">
-        <v>1.000389277241507</v>
+        <v>1.015942104759218</v>
       </c>
       <c r="J7">
-        <v>0.9989001364378608</v>
+        <v>0.9969140876834335</v>
       </c>
       <c r="K7">
-        <v>0.9997106828400389</v>
+        <v>1.003418445257159</v>
       </c>
       <c r="L7">
-        <v>1.000480188263348</v>
+        <v>1.004296467785693</v>
       </c>
       <c r="M7">
-        <v>0.9992614100313503</v>
+        <v>0.9904089320555512</v>
       </c>
       <c r="N7">
-        <v>1.000389277241507</v>
+        <v>1.015942104759218</v>
       </c>
       <c r="O7">
-        <v>1.000079600497129</v>
+        <v>0.9988203720482636</v>
       </c>
       <c r="P7">
-        <v>0.9994898684674947</v>
+        <v>0.9906442187355808</v>
       </c>
       <c r="Q7">
-        <v>0.999993513762219</v>
+        <v>0.9978672298658485</v>
       </c>
       <c r="R7">
-        <v>0.9997896713921653</v>
+        <v>0.9990768474101266</v>
       </c>
       <c r="S7">
-        <v>0.9996290546540996</v>
+        <v>0.9927341750515316</v>
       </c>
       <c r="T7">
-        <v>0.9997896713921653</v>
+        <v>0.9990768474101266</v>
       </c>
       <c r="U7">
-        <v>0.9998191103009514</v>
+        <v>0.9985361574784533</v>
       </c>
       <c r="V7">
-        <v>0.9999331436890625</v>
+        <v>1.002017346934606</v>
       </c>
       <c r="W7">
-        <v>0.9998928032387242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9987795229550522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001598694851835</v>
+        <v>0.9971734497206481</v>
       </c>
       <c r="D8">
-        <v>0.9967397795570431</v>
+        <v>1.001047700442176</v>
       </c>
       <c r="E8">
-        <v>1.000196382095786</v>
+        <v>1.001739845717986</v>
       </c>
       <c r="F8">
-        <v>1.001598694851835</v>
+        <v>0.9971734497206481</v>
       </c>
       <c r="G8">
-        <v>0.9996633080932074</v>
+        <v>0.9987850368141383</v>
       </c>
       <c r="H8">
-        <v>1.001096574239334</v>
+        <v>0.9987850368141383</v>
       </c>
       <c r="I8">
-        <v>1.001598694851835</v>
+        <v>0.9987850368141383</v>
       </c>
       <c r="J8">
-        <v>0.9967397795570431</v>
+        <v>1.000116558286192</v>
       </c>
       <c r="K8">
-        <v>0.9992125811629829</v>
+        <v>1.000251187161805</v>
       </c>
       <c r="L8">
-        <v>1.001268950743919</v>
+        <v>1.000174583611165</v>
       </c>
       <c r="M8">
-        <v>0.9979501672901014</v>
+        <v>0.9985213300955644</v>
       </c>
       <c r="N8">
-        <v>1.001598694851835</v>
+        <v>0.9987850368141383</v>
       </c>
       <c r="O8">
-        <v>1.000196382095786</v>
+        <v>1.001739845717986</v>
       </c>
       <c r="P8">
-        <v>0.9984680808264144</v>
+        <v>0.9994566477193172</v>
       </c>
       <c r="Q8">
-        <v>0.9999298450944966</v>
+        <v>1.000928202002089</v>
       </c>
       <c r="R8">
-        <v>0.9995116188348879</v>
+        <v>0.9992327774175909</v>
       </c>
       <c r="S8">
-        <v>0.9988664899153453</v>
+        <v>0.9996766179082753</v>
       </c>
       <c r="T8">
-        <v>0.9995116188348879</v>
+        <v>0.9992327774175909</v>
       </c>
       <c r="U8">
-        <v>0.9995495411494678</v>
+        <v>0.9994537226347411</v>
       </c>
       <c r="V8">
-        <v>0.9999593718899413</v>
+        <v>0.9993199854706205</v>
       </c>
       <c r="W8">
-        <v>0.999715804754276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9997262114812093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002543942607621</v>
+        <v>0.9692194832354084</v>
       </c>
       <c r="D9">
-        <v>0.9955103629021473</v>
+        <v>0.9984597986800647</v>
       </c>
       <c r="E9">
-        <v>1.000074377227052</v>
+        <v>1.000375953435432</v>
       </c>
       <c r="F9">
-        <v>1.002543942607621</v>
+        <v>0.9692194832354084</v>
       </c>
       <c r="G9">
-        <v>0.9995394385917882</v>
+        <v>1.021251571549398</v>
       </c>
       <c r="H9">
-        <v>1.001578580362111</v>
+        <v>1.021251571549398</v>
       </c>
       <c r="I9">
-        <v>1.002543942607621</v>
+        <v>1.021251571549398</v>
       </c>
       <c r="J9">
-        <v>0.9955103629021473</v>
+        <v>0.9951754179706747</v>
       </c>
       <c r="K9">
-        <v>0.9986055482881374</v>
+        <v>1.006240332003238</v>
       </c>
       <c r="L9">
-        <v>1.002061940481059</v>
+        <v>1.006411549506512</v>
       </c>
       <c r="M9">
-        <v>0.9970050145776465</v>
+        <v>0.9835271606647148</v>
       </c>
       <c r="N9">
-        <v>1.002543942607621</v>
+        <v>1.021251571549398</v>
       </c>
       <c r="O9">
-        <v>1.000074377227052</v>
+        <v>1.000375953435432</v>
       </c>
       <c r="P9">
-        <v>0.9977923700645996</v>
+        <v>0.9847977183354203</v>
       </c>
       <c r="Q9">
-        <v>0.9998069079094201</v>
+        <v>0.9977756857030534</v>
       </c>
       <c r="R9">
-        <v>0.9993762275789401</v>
+        <v>0.9969490027400795</v>
       </c>
       <c r="S9">
-        <v>0.9983747262403292</v>
+        <v>0.9882569515471719</v>
       </c>
       <c r="T9">
-        <v>0.9993762275789401</v>
+        <v>0.9969490027400795</v>
       </c>
       <c r="U9">
-        <v>0.9994170303321521</v>
+        <v>0.9965056065477282</v>
       </c>
       <c r="V9">
-        <v>1.000042412787246</v>
+        <v>1.001454799548062</v>
       </c>
       <c r="W9">
-        <v>0.9996149006296953</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9975826583806804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.004928538529499</v>
+        <v>0.4761465155258265</v>
       </c>
       <c r="D10">
-        <v>0.9903845197976475</v>
+        <v>0.8972277781284725</v>
       </c>
       <c r="E10">
-        <v>1.00019930542307</v>
+        <v>1.0800336457256</v>
       </c>
       <c r="F10">
-        <v>1.004928538529499</v>
+        <v>0.4761465155258265</v>
       </c>
       <c r="G10">
-        <v>0.9990845821274649</v>
+        <v>1.084948009946167</v>
       </c>
       <c r="H10">
-        <v>1.003414240673258</v>
+        <v>1.084948009946167</v>
       </c>
       <c r="I10">
-        <v>1.004928538529499</v>
+        <v>1.084948009946167</v>
       </c>
       <c r="J10">
-        <v>0.9903845197976475</v>
+        <v>0.9631159892772818</v>
       </c>
       <c r="K10">
-        <v>0.9971435701022453</v>
+        <v>1.203289148417049</v>
       </c>
       <c r="L10">
-        <v>1.004330518238204</v>
+        <v>1.192850001521082</v>
       </c>
       <c r="M10">
-        <v>0.9936544052174312</v>
+        <v>0.6683137871237858</v>
       </c>
       <c r="N10">
-        <v>1.004928538529499</v>
+        <v>1.084948009946167</v>
       </c>
       <c r="O10">
-        <v>1.00019930542307</v>
+        <v>1.0800336457256</v>
       </c>
       <c r="P10">
-        <v>0.9952919126103587</v>
+        <v>0.7780900806257132</v>
       </c>
       <c r="Q10">
-        <v>0.9996419437752673</v>
+        <v>1.021574817501441</v>
       </c>
       <c r="R10">
-        <v>0.9985041212500722</v>
+        <v>0.8803760570658646</v>
       </c>
       <c r="S10">
-        <v>0.9965561357827274</v>
+        <v>0.8397653835095694</v>
       </c>
       <c r="T10">
-        <v>0.9985041212500722</v>
+        <v>0.8803760570658646</v>
       </c>
       <c r="U10">
-        <v>0.9986492364694203</v>
+        <v>0.9010610401187189</v>
       </c>
       <c r="V10">
-        <v>0.999905096881436</v>
+        <v>0.9378384340842085</v>
       </c>
       <c r="W10">
-        <v>0.9991424600136025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9457406094581582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.010549275583635</v>
+        <v>0.9320287169349388</v>
       </c>
       <c r="D11">
-        <v>0.9836303164026935</v>
+        <v>0.9621950500946163</v>
       </c>
       <c r="E11">
-        <v>0.9992797947288097</v>
+        <v>1.018136120550996</v>
       </c>
       <c r="F11">
-        <v>1.010549275583635</v>
+        <v>0.9320287169349388</v>
       </c>
       <c r="G11">
-        <v>0.9982839364485552</v>
+        <v>1.038972326713346</v>
       </c>
       <c r="H11">
-        <v>1.005443096746881</v>
+        <v>1.038972326713346</v>
       </c>
       <c r="I11">
-        <v>1.010549275583635</v>
+        <v>1.038972326713346</v>
       </c>
       <c r="J11">
-        <v>0.9836303164026935</v>
+        <v>0.9836382873617281</v>
       </c>
       <c r="K11">
-        <v>0.9948449963088384</v>
+        <v>1.04486711418037</v>
       </c>
       <c r="L11">
-        <v>1.007523857007484</v>
+        <v>1.03436763939825</v>
       </c>
       <c r="M11">
-        <v>0.9893480702861314</v>
+        <v>0.9426038181115859</v>
       </c>
       <c r="N11">
-        <v>1.010549275583635</v>
+        <v>1.038972326713346</v>
       </c>
       <c r="O11">
-        <v>0.9992797947288097</v>
+        <v>1.018136120550996</v>
       </c>
       <c r="P11">
-        <v>0.9914550555657515</v>
+        <v>0.9750824187429676</v>
       </c>
       <c r="Q11">
-        <v>0.9987818655886824</v>
+        <v>1.000887203956362</v>
       </c>
       <c r="R11">
-        <v>0.9978197955717126</v>
+        <v>0.9963790547330937</v>
       </c>
       <c r="S11">
-        <v>0.9937313491933528</v>
+        <v>0.9779343749492212</v>
       </c>
       <c r="T11">
-        <v>0.9978197955717126</v>
+        <v>0.9963790547330937</v>
       </c>
       <c r="U11">
-        <v>0.9979358307909232</v>
+        <v>0.9931938628902524</v>
       </c>
       <c r="V11">
-        <v>1.000458519749466</v>
+        <v>1.002349555654871</v>
       </c>
       <c r="W11">
-        <v>0.9986129179391285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.994601134168229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.056749160557282</v>
+        <v>0.8317081167473677</v>
       </c>
       <c r="D12">
-        <v>1.33124827028334</v>
+        <v>0.9766423853052616</v>
       </c>
       <c r="E12">
-        <v>0.7938059821182893</v>
+        <v>1.028896144557897</v>
       </c>
       <c r="F12">
-        <v>1.056749160557282</v>
+        <v>0.8317081167473677</v>
       </c>
       <c r="G12">
-        <v>1.044983896682497</v>
+        <v>1.04238310836842</v>
       </c>
       <c r="H12">
-        <v>0.8861111348405585</v>
+        <v>1.04238310836842</v>
       </c>
       <c r="I12">
-        <v>1.056749160557282</v>
+        <v>1.04238310836842</v>
       </c>
       <c r="J12">
-        <v>1.33124827028334</v>
+        <v>0.9858844689789489</v>
       </c>
       <c r="K12">
-        <v>0.9477131255820066</v>
+        <v>1.056911335684206</v>
       </c>
       <c r="L12">
-        <v>1.009600378499737</v>
+        <v>1.050607739810522</v>
       </c>
       <c r="M12">
-        <v>1.166844084262264</v>
+        <v>0.9003380140105264</v>
       </c>
       <c r="N12">
-        <v>1.056749160557282</v>
+        <v>1.04238310836842</v>
       </c>
       <c r="O12">
-        <v>0.7938059821182893</v>
+        <v>1.028896144557897</v>
       </c>
       <c r="P12">
-        <v>1.062527126200815</v>
+        <v>0.9303021306526322</v>
       </c>
       <c r="Q12">
-        <v>0.9193949394003931</v>
+        <v>1.007390306768423</v>
       </c>
       <c r="R12">
-        <v>1.06060113765297</v>
+        <v>0.967662456557895</v>
       </c>
       <c r="S12">
-        <v>1.056679383028042</v>
+        <v>0.9488295767614044</v>
       </c>
       <c r="T12">
-        <v>1.06060113765297</v>
+        <v>0.967662456557895</v>
       </c>
       <c r="U12">
-        <v>1.056696827410352</v>
+        <v>0.9722179596631585</v>
       </c>
       <c r="V12">
-        <v>1.056707294039738</v>
+        <v>0.9862509894042109</v>
       </c>
       <c r="W12">
-        <v>1.029632004103247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9841714141828938</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9252458156922565</v>
+        <v>1.076719502336704</v>
       </c>
       <c r="D13">
-        <v>0.9452396739507762</v>
+        <v>1.022915644097199</v>
       </c>
       <c r="E13">
-        <v>1.043636693120122</v>
+        <v>0.9655549567321682</v>
       </c>
       <c r="F13">
-        <v>0.9252458156922565</v>
+        <v>1.076719502336704</v>
       </c>
       <c r="G13">
-        <v>1.01039682232485</v>
+        <v>0.9456394608414463</v>
       </c>
       <c r="H13">
-        <v>0.9805879051240963</v>
+        <v>0.9456394608414463</v>
       </c>
       <c r="I13">
-        <v>0.9252458156922565</v>
+        <v>0.9456394608414463</v>
       </c>
       <c r="J13">
-        <v>0.9452396739507762</v>
+        <v>1.02662976227072</v>
       </c>
       <c r="K13">
-        <v>1.076957009981891</v>
+        <v>0.958536190966742</v>
       </c>
       <c r="L13">
-        <v>0.951223235371931</v>
+        <v>0.9801021321728562</v>
       </c>
       <c r="M13">
-        <v>1.01337517676093</v>
+        <v>1.061570741728478</v>
       </c>
       <c r="N13">
-        <v>0.9252458156922565</v>
+        <v>0.9456394608414463</v>
       </c>
       <c r="O13">
-        <v>1.043636693120122</v>
+        <v>0.9655549567321682</v>
       </c>
       <c r="P13">
-        <v>0.9944381835354492</v>
+        <v>1.021137229534436</v>
       </c>
       <c r="Q13">
-        <v>1.027016757722486</v>
+        <v>0.9960923595014443</v>
       </c>
       <c r="R13">
-        <v>0.9713740609210516</v>
+        <v>0.9959713066367729</v>
       </c>
       <c r="S13">
-        <v>0.9997577297985828</v>
+        <v>1.022968073779864</v>
       </c>
       <c r="T13">
-        <v>0.9713740609210516</v>
+        <v>0.9959713066367729</v>
       </c>
       <c r="U13">
-        <v>0.9811297512720012</v>
+        <v>1.00363592054526</v>
       </c>
       <c r="V13">
-        <v>0.9699529641560523</v>
+        <v>0.9920366286044973</v>
       </c>
       <c r="W13">
-        <v>0.9933327915408567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.004708548893289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4410001629655855</v>
+        <v>0.1021509500000002</v>
       </c>
       <c r="D14">
-        <v>0.6292570061519027</v>
+        <v>0.8165932599999992</v>
       </c>
       <c r="E14">
-        <v>1.514130508078374</v>
+        <v>1.133996400000001</v>
       </c>
       <c r="F14">
-        <v>0.4410001629655855</v>
+        <v>0.1021509500000002</v>
       </c>
       <c r="G14">
-        <v>0.9706731619074589</v>
+        <v>1.126229899999999</v>
       </c>
       <c r="H14">
-        <v>1.155648466661597</v>
+        <v>1.126229899999999</v>
       </c>
       <c r="I14">
-        <v>0.4410001629655855</v>
+        <v>1.126229899999999</v>
       </c>
       <c r="J14">
-        <v>0.6292570061519027</v>
+        <v>0.9383696200000015</v>
       </c>
       <c r="K14">
-        <v>1.231457406871493</v>
+        <v>1.357228500000001</v>
       </c>
       <c r="L14">
-        <v>0.8328893118235465</v>
+        <v>1.340356499999999</v>
       </c>
       <c r="M14">
-        <v>0.8732825534871642</v>
+        <v>0.4245624600000004</v>
       </c>
       <c r="N14">
-        <v>0.4410001629655855</v>
+        <v>1.126229899999999</v>
       </c>
       <c r="O14">
-        <v>1.514130508078374</v>
+        <v>1.133996400000001</v>
       </c>
       <c r="P14">
-        <v>1.071693757115138</v>
+        <v>0.6180736750000004</v>
       </c>
       <c r="Q14">
-        <v>1.242401834992916</v>
+        <v>1.036183010000001</v>
       </c>
       <c r="R14">
-        <v>0.8614625590652872</v>
+        <v>0.7874590833333333</v>
       </c>
       <c r="S14">
-        <v>1.038020225379245</v>
+        <v>0.7248389900000007</v>
       </c>
       <c r="T14">
-        <v>0.8614625590652872</v>
+        <v>0.7874590833333333</v>
       </c>
       <c r="U14">
-        <v>0.8887652097758301</v>
+        <v>0.8251867175000003</v>
       </c>
       <c r="V14">
-        <v>0.7992122004137812</v>
+        <v>0.8853953539999999</v>
       </c>
       <c r="W14">
-        <v>0.9560423222433903</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9049359487500002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.187748706572134</v>
+        <v>0.04733321</v>
       </c>
       <c r="D15">
-        <v>1.202250310326608</v>
+        <v>0.4240644</v>
       </c>
       <c r="E15">
-        <v>0.7986249444705715</v>
+        <v>0.55682332</v>
       </c>
       <c r="F15">
-        <v>1.187748706572134</v>
+        <v>0.04733321</v>
       </c>
       <c r="G15">
-        <v>1.013655450581753</v>
+        <v>2.3346269</v>
       </c>
       <c r="H15">
-        <v>0.9594749306531103</v>
+        <v>2.3346269</v>
       </c>
       <c r="I15">
-        <v>1.187748706572134</v>
+        <v>2.3346269</v>
       </c>
       <c r="J15">
-        <v>1.202250310326608</v>
+        <v>0.89008822</v>
       </c>
       <c r="K15">
-        <v>0.868862257372056</v>
+        <v>1.2390588</v>
       </c>
       <c r="L15">
-        <v>1.084166210186356</v>
+        <v>1.7272075</v>
       </c>
       <c r="M15">
-        <v>1.053328206990494</v>
+        <v>0.2967775</v>
       </c>
       <c r="N15">
-        <v>1.187748706572134</v>
+        <v>2.3346269</v>
       </c>
       <c r="O15">
-        <v>0.7986249444705715</v>
+        <v>0.55682332</v>
       </c>
       <c r="P15">
-        <v>1.00043762739859</v>
+        <v>0.302078265</v>
       </c>
       <c r="Q15">
-        <v>0.906140197526162</v>
+        <v>0.7234557699999999</v>
       </c>
       <c r="R15">
-        <v>1.062874653789771</v>
+        <v>0.9795944766666667</v>
       </c>
       <c r="S15">
-        <v>1.004843568459644</v>
+        <v>0.4980815833333334</v>
       </c>
       <c r="T15">
-        <v>1.062874653789771</v>
+        <v>0.9795944766666667</v>
       </c>
       <c r="U15">
-        <v>1.050569852987766</v>
+        <v>0.9572179125</v>
       </c>
       <c r="V15">
-        <v>1.07800562370464</v>
+        <v>1.23269971</v>
       </c>
       <c r="W15">
-        <v>1.021013877144135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.93949748125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000869093009285</v>
+        <v>0.034165329</v>
       </c>
       <c r="D16">
-        <v>1.001283833649116</v>
+        <v>0.55960717</v>
       </c>
       <c r="E16">
-        <v>0.9990452851409132</v>
+        <v>1.1044122</v>
       </c>
       <c r="F16">
-        <v>1.000869093009285</v>
+        <v>0.034165329</v>
       </c>
       <c r="G16">
-        <v>0.9998371003201459</v>
+        <v>1.7976002</v>
       </c>
       <c r="H16">
-        <v>1.000176773194876</v>
+        <v>1.7976002</v>
       </c>
       <c r="I16">
-        <v>1.000869093009285</v>
+        <v>1.7976002</v>
       </c>
       <c r="J16">
-        <v>1.001283833649116</v>
+        <v>0.69186698</v>
       </c>
       <c r="K16">
-        <v>0.9990884980500727</v>
+        <v>1.5717145</v>
       </c>
       <c r="L16">
-        <v>1.000283468781067</v>
+        <v>1.3864168</v>
       </c>
       <c r="M16">
-        <v>1.000320361720735</v>
+        <v>0.22586416</v>
       </c>
       <c r="N16">
-        <v>1.000869093009285</v>
+        <v>1.7976002</v>
       </c>
       <c r="O16">
-        <v>0.9990452851409132</v>
+        <v>1.1044122</v>
       </c>
       <c r="P16">
-        <v>1.000164559395015</v>
+        <v>0.5692887645</v>
       </c>
       <c r="Q16">
-        <v>0.9994411927305296</v>
+        <v>0.89813959</v>
       </c>
       <c r="R16">
-        <v>1.000399403933105</v>
+        <v>0.9787259096666666</v>
       </c>
       <c r="S16">
-        <v>1.000055406370058</v>
+        <v>0.6101481696666666</v>
       </c>
       <c r="T16">
-        <v>1.000399403933105</v>
+        <v>0.9787259096666666</v>
       </c>
       <c r="U16">
-        <v>1.000258828029865</v>
+        <v>0.9070111772499999</v>
       </c>
       <c r="V16">
-        <v>1.000380881025749</v>
+        <v>1.0851289818</v>
       </c>
       <c r="W16">
-        <v>1.000113051733277</v>
+        <v>0.921455917375</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9987850368141383</v>
+        <v>0.65661591</v>
       </c>
       <c r="D17">
-        <v>0.9971734497206481</v>
+        <v>0.89546981</v>
       </c>
       <c r="E17">
-        <v>1.001739845717986</v>
+        <v>0.6482668000000001</v>
       </c>
       <c r="F17">
-        <v>0.9987850368141383</v>
+        <v>0.65661591</v>
       </c>
       <c r="G17">
-        <v>1.000116558286192</v>
+        <v>1.6356824</v>
       </c>
       <c r="H17">
-        <v>1.000251187161805</v>
+        <v>1.6356824</v>
       </c>
       <c r="I17">
-        <v>0.9987850368141383</v>
+        <v>1.6356824</v>
       </c>
       <c r="J17">
-        <v>0.9971734497206481</v>
+        <v>0.97875154</v>
       </c>
       <c r="K17">
-        <v>1.001047700442176</v>
+        <v>0.98971548</v>
       </c>
       <c r="L17">
-        <v>1.000174583611164</v>
+        <v>1.1389616</v>
       </c>
       <c r="M17">
-        <v>0.9985213300955645</v>
+        <v>0.88474049</v>
       </c>
       <c r="N17">
-        <v>0.9987850368141383</v>
+        <v>1.6356824</v>
       </c>
       <c r="O17">
-        <v>1.001739845717986</v>
+        <v>0.6482668000000001</v>
       </c>
       <c r="P17">
-        <v>0.9994566477193171</v>
+        <v>0.6524413550000001</v>
       </c>
       <c r="Q17">
-        <v>1.000928202002089</v>
+        <v>0.8135091700000001</v>
       </c>
       <c r="R17">
-        <v>0.9992327774175909</v>
+        <v>0.9801883700000001</v>
       </c>
       <c r="S17">
-        <v>0.9996766179082753</v>
+        <v>0.7612114166666668</v>
       </c>
       <c r="T17">
-        <v>0.9992327774175909</v>
+        <v>0.98018837</v>
       </c>
       <c r="U17">
-        <v>0.9994537226347412</v>
+        <v>0.9798291625</v>
       </c>
       <c r="V17">
-        <v>0.9993199854706207</v>
+        <v>1.11099981</v>
       </c>
       <c r="W17">
-        <v>0.9997262114812092</v>
+        <v>0.97852550375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.005651538612513</v>
+        <v>0.6290249592328768</v>
       </c>
       <c r="D18">
-        <v>0.9990389148252888</v>
+        <v>0.9702086726027395</v>
       </c>
       <c r="E18">
-        <v>0.9963695499922867</v>
+        <v>0.9963461402739724</v>
       </c>
       <c r="F18">
-        <v>1.005651538612513</v>
+        <v>0.6290249592328768</v>
       </c>
       <c r="G18">
-        <v>0.998296705938797</v>
+        <v>1.282197215068493</v>
       </c>
       <c r="H18">
-        <v>1.001817671825823</v>
+        <v>1.282197215068493</v>
       </c>
       <c r="I18">
-        <v>1.005651538612513</v>
+        <v>1.282197215068493</v>
       </c>
       <c r="J18">
-        <v>0.9990389148252888</v>
+        <v>0.9417915263013698</v>
       </c>
       <c r="K18">
-        <v>0.997288706979271</v>
+        <v>1.073243689315069</v>
       </c>
       <c r="L18">
-        <v>1.001573537913993</v>
+        <v>1.086499628219178</v>
       </c>
       <c r="M18">
-        <v>0.9984261680135433</v>
+        <v>0.7991112813698635</v>
       </c>
       <c r="N18">
-        <v>1.005651538612513</v>
+        <v>1.282197215068493</v>
       </c>
       <c r="O18">
-        <v>0.9963695499922867</v>
+        <v>0.9963461402739724</v>
       </c>
       <c r="P18">
-        <v>0.9977042324087877</v>
+        <v>0.8126855497534247</v>
       </c>
       <c r="Q18">
-        <v>0.9973331279655419</v>
+        <v>0.9690688332876711</v>
       </c>
       <c r="R18">
-        <v>1.000353334476696</v>
+        <v>0.969189438191781</v>
       </c>
       <c r="S18">
-        <v>0.9979017235854575</v>
+        <v>0.8557208752694064</v>
       </c>
       <c r="T18">
-        <v>1.000353334476696</v>
+        <v>0.9691894381917808</v>
       </c>
       <c r="U18">
-        <v>0.9998391773422215</v>
+        <v>0.9623399602191781</v>
       </c>
       <c r="V18">
-        <v>1.00100164959628</v>
+        <v>1.026311411189041</v>
       </c>
       <c r="W18">
-        <v>0.9998078492626895</v>
+        <v>0.9723028890479453</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.02223865634517</v>
+        <v>0.3106690667894737</v>
       </c>
       <c r="D19">
-        <v>1.003396653651694</v>
+        <v>1.011693811052631</v>
       </c>
       <c r="E19">
-        <v>0.9882869936718864</v>
+        <v>1.283223473157895</v>
       </c>
       <c r="F19">
-        <v>1.02223865634517</v>
+        <v>0.3106690667894737</v>
       </c>
       <c r="G19">
-        <v>0.9961934838782176</v>
+        <v>1.148376904210526</v>
       </c>
       <c r="H19">
-        <v>1.003754772695041</v>
+        <v>1.148376904210526</v>
       </c>
       <c r="I19">
-        <v>1.02223865634517</v>
+        <v>1.148376904210526</v>
       </c>
       <c r="J19">
-        <v>1.003396653651694</v>
+        <v>0.8913537273684213</v>
       </c>
       <c r="K19">
-        <v>0.9884953809974645</v>
+        <v>1.226564115789474</v>
       </c>
       <c r="L19">
-        <v>1.004382257387526</v>
+        <v>1.070575995263158</v>
       </c>
       <c r="M19">
-        <v>0.9992522760616596</v>
+        <v>0.6092873963157897</v>
       </c>
       <c r="N19">
-        <v>1.02223865634517</v>
+        <v>1.148376904210526</v>
       </c>
       <c r="O19">
-        <v>0.9882869936718864</v>
+        <v>1.283223473157895</v>
       </c>
       <c r="P19">
-        <v>0.9958418236617903</v>
+        <v>0.7969462699736842</v>
       </c>
       <c r="Q19">
-        <v>0.992240238775052</v>
+        <v>1.087288600263158</v>
       </c>
       <c r="R19">
-        <v>1.004640767889583</v>
+        <v>0.9140898147192983</v>
       </c>
       <c r="S19">
-        <v>0.9959590437339326</v>
+        <v>0.8284154224385967</v>
       </c>
       <c r="T19">
-        <v>1.004640767889583</v>
+        <v>0.9140898147192981</v>
       </c>
       <c r="U19">
-        <v>1.002528946886742</v>
+        <v>0.908405792881579</v>
       </c>
       <c r="V19">
-        <v>1.006470888778427</v>
+        <v>0.9564000151473684</v>
       </c>
       <c r="W19">
-        <v>1.000750059336082</v>
+        <v>0.9439680612434209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.4620953888947369</v>
+      </c>
+      <c r="D20">
+        <v>0.9417972668421053</v>
+      </c>
+      <c r="E20">
+        <v>1.152991674736842</v>
+      </c>
+      <c r="F20">
+        <v>0.4620953888947369</v>
+      </c>
+      <c r="G20">
+        <v>1.316131018421053</v>
+      </c>
+      <c r="H20">
+        <v>1.316131018421053</v>
+      </c>
+      <c r="I20">
+        <v>1.316131018421053</v>
+      </c>
+      <c r="J20">
+        <v>0.8591794521052631</v>
+      </c>
+      <c r="K20">
+        <v>1.205887782105263</v>
+      </c>
+      <c r="L20">
+        <v>1.080670141052632</v>
+      </c>
+      <c r="M20">
+        <v>0.662588005263158</v>
+      </c>
+      <c r="N20">
+        <v>1.316131018421053</v>
+      </c>
+      <c r="O20">
+        <v>1.152991674736842</v>
+      </c>
+      <c r="P20">
+        <v>0.8075435318157895</v>
+      </c>
+      <c r="Q20">
+        <v>1.006085563421053</v>
+      </c>
+      <c r="R20">
+        <v>0.9770726940175439</v>
+      </c>
+      <c r="S20">
+        <v>0.824755505245614</v>
+      </c>
+      <c r="T20">
+        <v>0.9770726940175439</v>
+      </c>
+      <c r="U20">
+        <v>0.9475993835394737</v>
+      </c>
+      <c r="V20">
+        <v>1.021305710515789</v>
+      </c>
+      <c r="W20">
+        <v>0.9601675911776317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.6292570061519027</v>
+      </c>
+      <c r="D21">
+        <v>1.231457406871493</v>
+      </c>
+      <c r="E21">
+        <v>1.514130508078374</v>
+      </c>
+      <c r="F21">
+        <v>0.6292570061519027</v>
+      </c>
+      <c r="G21">
+        <v>0.4410001629655855</v>
+      </c>
+      <c r="H21">
+        <v>0.4410001629655855</v>
+      </c>
+      <c r="I21">
+        <v>0.4410001629655855</v>
+      </c>
+      <c r="J21">
+        <v>0.9706731619074589</v>
+      </c>
+      <c r="K21">
+        <v>1.155648466661597</v>
+      </c>
+      <c r="L21">
+        <v>0.8328893118235465</v>
+      </c>
+      <c r="M21">
+        <v>0.8732825534871642</v>
+      </c>
+      <c r="N21">
+        <v>0.4410001629655855</v>
+      </c>
+      <c r="O21">
+        <v>1.514130508078374</v>
+      </c>
+      <c r="P21">
+        <v>1.071693757115138</v>
+      </c>
+      <c r="Q21">
+        <v>1.242401834992916</v>
+      </c>
+      <c r="R21">
+        <v>0.8614625590652872</v>
+      </c>
+      <c r="S21">
+        <v>1.038020225379245</v>
+      </c>
+      <c r="T21">
+        <v>0.8614625590652872</v>
+      </c>
+      <c r="U21">
+        <v>0.8887652097758301</v>
+      </c>
+      <c r="V21">
+        <v>0.7992122004137812</v>
+      </c>
+      <c r="W21">
+        <v>0.9560423222433903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.202250310326608</v>
+      </c>
+      <c r="D22">
+        <v>0.868862257372056</v>
+      </c>
+      <c r="E22">
+        <v>0.7986249444705715</v>
+      </c>
+      <c r="F22">
+        <v>1.202250310326608</v>
+      </c>
+      <c r="G22">
+        <v>1.187748706572134</v>
+      </c>
+      <c r="H22">
+        <v>1.187748706572134</v>
+      </c>
+      <c r="I22">
+        <v>1.187748706572134</v>
+      </c>
+      <c r="J22">
+        <v>1.013655450581753</v>
+      </c>
+      <c r="K22">
+        <v>0.9594749306531103</v>
+      </c>
+      <c r="L22">
+        <v>1.084166210186356</v>
+      </c>
+      <c r="M22">
+        <v>1.053328206990494</v>
+      </c>
+      <c r="N22">
+        <v>1.187748706572134</v>
+      </c>
+      <c r="O22">
+        <v>0.7986249444705715</v>
+      </c>
+      <c r="P22">
+        <v>1.00043762739859</v>
+      </c>
+      <c r="Q22">
+        <v>0.906140197526162</v>
+      </c>
+      <c r="R22">
+        <v>1.062874653789771</v>
+      </c>
+      <c r="S22">
+        <v>1.004843568459644</v>
+      </c>
+      <c r="T22">
+        <v>1.062874653789771</v>
+      </c>
+      <c r="U22">
+        <v>1.050569852987767</v>
+      </c>
+      <c r="V22">
+        <v>1.07800562370464</v>
+      </c>
+      <c r="W22">
+        <v>1.021013877144135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.33124827028334</v>
+      </c>
+      <c r="D23">
+        <v>0.9477131255820066</v>
+      </c>
+      <c r="E23">
+        <v>0.7938059821182893</v>
+      </c>
+      <c r="F23">
+        <v>1.33124827028334</v>
+      </c>
+      <c r="G23">
+        <v>1.056749160557282</v>
+      </c>
+      <c r="H23">
+        <v>1.056749160557282</v>
+      </c>
+      <c r="I23">
+        <v>1.056749160557282</v>
+      </c>
+      <c r="J23">
+        <v>1.044983896682497</v>
+      </c>
+      <c r="K23">
+        <v>0.8861111348405583</v>
+      </c>
+      <c r="L23">
+        <v>1.009600378499737</v>
+      </c>
+      <c r="M23">
+        <v>1.166844084262264</v>
+      </c>
+      <c r="N23">
+        <v>1.056749160557282</v>
+      </c>
+      <c r="O23">
+        <v>0.7938059821182893</v>
+      </c>
+      <c r="P23">
+        <v>1.062527126200815</v>
+      </c>
+      <c r="Q23">
+        <v>0.9193949394003931</v>
+      </c>
+      <c r="R23">
+        <v>1.06060113765297</v>
+      </c>
+      <c r="S23">
+        <v>1.056679383028042</v>
+      </c>
+      <c r="T23">
+        <v>1.06060113765297</v>
+      </c>
+      <c r="U23">
+        <v>1.056696827410352</v>
+      </c>
+      <c r="V23">
+        <v>1.056707294039738</v>
+      </c>
+      <c r="W23">
+        <v>1.029632004103247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9452396739507762</v>
+      </c>
+      <c r="D24">
+        <v>1.076957009981891</v>
+      </c>
+      <c r="E24">
+        <v>1.043636693120122</v>
+      </c>
+      <c r="F24">
+        <v>0.9452396739507762</v>
+      </c>
+      <c r="G24">
+        <v>0.9252458156922565</v>
+      </c>
+      <c r="H24">
+        <v>0.9252458156922565</v>
+      </c>
+      <c r="I24">
+        <v>0.9252458156922565</v>
+      </c>
+      <c r="J24">
+        <v>1.01039682232485</v>
+      </c>
+      <c r="K24">
+        <v>0.9805879051240963</v>
+      </c>
+      <c r="L24">
+        <v>0.951223235371931</v>
+      </c>
+      <c r="M24">
+        <v>1.01337517676093</v>
+      </c>
+      <c r="N24">
+        <v>0.9252458156922565</v>
+      </c>
+      <c r="O24">
+        <v>1.043636693120122</v>
+      </c>
+      <c r="P24">
+        <v>0.9944381835354492</v>
+      </c>
+      <c r="Q24">
+        <v>1.027016757722486</v>
+      </c>
+      <c r="R24">
+        <v>0.9713740609210516</v>
+      </c>
+      <c r="S24">
+        <v>0.9997577297985828</v>
+      </c>
+      <c r="T24">
+        <v>0.9713740609210516</v>
+      </c>
+      <c r="U24">
+        <v>0.9811297512720012</v>
+      </c>
+      <c r="V24">
+        <v>0.9699529641560523</v>
+      </c>
+      <c r="W24">
+        <v>0.9933327915408567</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.2269011704999</v>
+      </c>
+      <c r="D25">
+        <v>0.9007855351998629</v>
+      </c>
+      <c r="E25">
+        <v>0.7239601576545195</v>
+      </c>
+      <c r="F25">
+        <v>1.2269011704999</v>
+      </c>
+      <c r="G25">
+        <v>1.268226415958169</v>
+      </c>
+      <c r="H25">
+        <v>1.268226415958169</v>
+      </c>
+      <c r="I25">
+        <v>1.268226415958169</v>
+      </c>
+      <c r="J25">
+        <v>1.024491652971288</v>
+      </c>
+      <c r="K25">
+        <v>0.8910999143073878</v>
+      </c>
+      <c r="L25">
+        <v>1.078147655401303</v>
+      </c>
+      <c r="M25">
+        <v>1.089745850286793</v>
+      </c>
+      <c r="N25">
+        <v>1.268226415958169</v>
+      </c>
+      <c r="O25">
+        <v>0.7239601576545195</v>
+      </c>
+      <c r="P25">
+        <v>0.9754306640772099</v>
+      </c>
+      <c r="Q25">
+        <v>0.874225905312904</v>
+      </c>
+      <c r="R25">
+        <v>1.07302924803753</v>
+      </c>
+      <c r="S25">
+        <v>0.9917843270419028</v>
+      </c>
+      <c r="T25">
+        <v>1.07302924803753</v>
+      </c>
+      <c r="U25">
+        <v>1.060894849270969</v>
+      </c>
+      <c r="V25">
+        <v>1.102361162608409</v>
+      </c>
+      <c r="W25">
+        <v>1.025419794034903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9363169740440938</v>
+      </c>
+      <c r="D26">
+        <v>1.048098333258116</v>
+      </c>
+      <c r="E26">
+        <v>1.101403672553537</v>
+      </c>
+      <c r="F26">
+        <v>0.9363169740440938</v>
+      </c>
+      <c r="G26">
+        <v>0.8695525712809882</v>
+      </c>
+      <c r="H26">
+        <v>0.8695525712809882</v>
+      </c>
+      <c r="I26">
+        <v>0.8695525712809882</v>
+      </c>
+      <c r="J26">
+        <v>0.9991452752063491</v>
+      </c>
+      <c r="K26">
+        <v>1.030978851516105</v>
+      </c>
+      <c r="L26">
+        <v>0.961705886640403</v>
+      </c>
+      <c r="M26">
+        <v>0.9828582129170113</v>
+      </c>
+      <c r="N26">
+        <v>0.8695525712809882</v>
+      </c>
+      <c r="O26">
+        <v>1.101403672553537</v>
+      </c>
+      <c r="P26">
+        <v>1.018860323298815</v>
+      </c>
+      <c r="Q26">
+        <v>1.050274473879943</v>
+      </c>
+      <c r="R26">
+        <v>0.9690910726262064</v>
+      </c>
+      <c r="S26">
+        <v>1.012288640601327</v>
+      </c>
+      <c r="T26">
+        <v>0.9690910726262062</v>
+      </c>
+      <c r="U26">
+        <v>0.976604623271242</v>
+      </c>
+      <c r="V26">
+        <v>0.9551942128731913</v>
+      </c>
+      <c r="W26">
+        <v>0.9912574721770754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.015747212347032</v>
+      </c>
+      <c r="D27">
+        <v>0.9894719913801412</v>
+      </c>
+      <c r="E27">
+        <v>1.028697020321511</v>
+      </c>
+      <c r="F27">
+        <v>1.015747212347032</v>
+      </c>
+      <c r="G27">
+        <v>1.058750288781183</v>
+      </c>
+      <c r="H27">
+        <v>1.058750288781183</v>
+      </c>
+      <c r="I27">
+        <v>1.058750288781183</v>
+      </c>
+      <c r="J27">
+        <v>0.9522113551934523</v>
+      </c>
+      <c r="K27">
+        <v>1.028892641796521</v>
+      </c>
+      <c r="L27">
+        <v>0.9868543985596123</v>
+      </c>
+      <c r="M27">
+        <v>0.9625650762716237</v>
+      </c>
+      <c r="N27">
+        <v>1.058750288781183</v>
+      </c>
+      <c r="O27">
+        <v>1.028697020321511</v>
+      </c>
+      <c r="P27">
+        <v>1.022222116334272</v>
+      </c>
+      <c r="Q27">
+        <v>0.9904541877574817</v>
+      </c>
+      <c r="R27">
+        <v>1.034398173816576</v>
+      </c>
+      <c r="S27">
+        <v>0.9988851959539984</v>
+      </c>
+      <c r="T27">
+        <v>1.034398173816576</v>
+      </c>
+      <c r="U27">
+        <v>1.013851469160795</v>
+      </c>
+      <c r="V27">
+        <v>1.022831233084872</v>
+      </c>
+      <c r="W27">
+        <v>1.002898748081384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9409710670936395</v>
+      </c>
+      <c r="D28">
+        <v>0.9781060473754312</v>
+      </c>
+      <c r="E28">
+        <v>0.9969430200138224</v>
+      </c>
+      <c r="F28">
+        <v>0.9409710670936395</v>
+      </c>
+      <c r="G28">
+        <v>1.081021913703884</v>
+      </c>
+      <c r="H28">
+        <v>1.081021913703884</v>
+      </c>
+      <c r="I28">
+        <v>1.081021913703884</v>
+      </c>
+      <c r="J28">
+        <v>0.9818660597535073</v>
+      </c>
+      <c r="K28">
+        <v>1.034198694230619</v>
+      </c>
+      <c r="L28">
+        <v>0.9856809554260842</v>
+      </c>
+      <c r="M28">
+        <v>0.9868666258400072</v>
+      </c>
+      <c r="N28">
+        <v>1.081021913703884</v>
+      </c>
+      <c r="O28">
+        <v>0.9969430200138224</v>
+      </c>
+      <c r="P28">
+        <v>0.9689570435537309</v>
+      </c>
+      <c r="Q28">
+        <v>0.9894045398836648</v>
+      </c>
+      <c r="R28">
+        <v>1.006312000270449</v>
+      </c>
+      <c r="S28">
+        <v>0.9732600489536564</v>
+      </c>
+      <c r="T28">
+        <v>1.006312000270449</v>
+      </c>
+      <c r="U28">
+        <v>1.000200515141213</v>
+      </c>
+      <c r="V28">
+        <v>1.016364794853748</v>
+      </c>
+      <c r="W28">
+        <v>0.9982067979296245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.03186757732731</v>
+      </c>
+      <c r="D29">
+        <v>0.9732306067251674</v>
+      </c>
+      <c r="E29">
+        <v>0.7962151119615879</v>
+      </c>
+      <c r="F29">
+        <v>1.03186757732731</v>
+      </c>
+      <c r="G29">
+        <v>1.077027797620022</v>
+      </c>
+      <c r="H29">
+        <v>1.077027797620022</v>
+      </c>
+      <c r="I29">
+        <v>1.077027797620022</v>
+      </c>
+      <c r="J29">
+        <v>1.072529576606006</v>
+      </c>
+      <c r="K29">
+        <v>0.9407435372235661</v>
+      </c>
+      <c r="L29">
+        <v>0.9957476122149218</v>
+      </c>
+      <c r="M29">
+        <v>1.130152400259836</v>
+      </c>
+      <c r="N29">
+        <v>1.077027797620022</v>
+      </c>
+      <c r="O29">
+        <v>0.7962151119615879</v>
+      </c>
+      <c r="P29">
+        <v>0.9140413446444487</v>
+      </c>
+      <c r="Q29">
+        <v>0.9343723442837969</v>
+      </c>
+      <c r="R29">
+        <v>0.9683701623029731</v>
+      </c>
+      <c r="S29">
+        <v>0.966870755298301</v>
+      </c>
+      <c r="T29">
+        <v>0.968370162302973</v>
+      </c>
+      <c r="U29">
+        <v>0.9944100158787312</v>
+      </c>
+      <c r="V29">
+        <v>1.010933572226989</v>
+      </c>
+      <c r="W29">
+        <v>1.002189277492302</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8368218343082955</v>
+        <v>0.8764908607462931</v>
       </c>
       <c r="D4">
-        <v>0.9548637838594713</v>
+        <v>0.979663647886287</v>
       </c>
       <c r="E4">
-        <v>1.034161695528331</v>
+        <v>1.0302578604456</v>
       </c>
       <c r="F4">
-        <v>0.8368218343082955</v>
+        <v>0.8764908607462931</v>
       </c>
       <c r="G4">
-        <v>1.120816718081987</v>
+        <v>1.039164797323707</v>
       </c>
       <c r="H4">
-        <v>1.120816718081987</v>
+        <v>1.039164797323707</v>
       </c>
       <c r="I4">
-        <v>1.120816718081987</v>
+        <v>1.039164797323707</v>
       </c>
       <c r="J4">
-        <v>0.9599781157101281</v>
+        <v>0.9840961427415305</v>
       </c>
       <c r="K4">
-        <v>1.069817481552992</v>
+        <v>1.046567168517559</v>
       </c>
       <c r="L4">
-        <v>1.048489668829025</v>
+        <v>1.035025058431231</v>
       </c>
       <c r="M4">
-        <v>0.8861334485399571</v>
+        <v>0.9230436325957466</v>
       </c>
       <c r="N4">
-        <v>1.120816718081987</v>
+        <v>1.039164797323707</v>
       </c>
       <c r="O4">
-        <v>1.034161695528331</v>
+        <v>1.0302578604456</v>
       </c>
       <c r="P4">
-        <v>0.9354917649183132</v>
+        <v>0.9533743605959464</v>
       </c>
       <c r="Q4">
-        <v>0.9970699056192296</v>
+        <v>1.007177001593565</v>
       </c>
       <c r="R4">
-        <v>0.9972667493062047</v>
+        <v>0.9819711728385333</v>
       </c>
       <c r="S4">
-        <v>0.9436538818489182</v>
+        <v>0.9636149546444743</v>
       </c>
       <c r="T4">
-        <v>0.9972667493062047</v>
+        <v>0.9819711728385333</v>
       </c>
       <c r="U4">
-        <v>0.9879445909071856</v>
+        <v>0.9825024153142825</v>
       </c>
       <c r="V4">
-        <v>1.014519016342146</v>
+        <v>0.9938348917161675</v>
       </c>
       <c r="W4">
-        <v>0.9888853433012734</v>
+        <v>0.9892886460859942</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8433295646822753</v>
+        <v>0.4995501974358014</v>
       </c>
       <c r="D5">
-        <v>0.9730594726296825</v>
+        <v>0.9638867570068957</v>
       </c>
       <c r="E5">
-        <v>1.031315756368879</v>
+        <v>1.17198689683651</v>
       </c>
       <c r="F5">
-        <v>0.8433295646822753</v>
+        <v>0.4995501974358014</v>
       </c>
       <c r="G5">
-        <v>1.057566429474063</v>
+        <v>1.300685790840398</v>
       </c>
       <c r="H5">
-        <v>1.057566429474063</v>
+        <v>1.300685790840398</v>
       </c>
       <c r="I5">
-        <v>1.057566429474063</v>
+        <v>1.300685790840398</v>
       </c>
       <c r="J5">
-        <v>0.9799392563616721</v>
+        <v>0.8525995676398073</v>
       </c>
       <c r="K5">
-        <v>1.057006719135443</v>
+        <v>1.19503010968925</v>
       </c>
       <c r="L5">
-        <v>1.046485354409218</v>
+        <v>1.044951655130421</v>
       </c>
       <c r="M5">
-        <v>0.9024876154034576</v>
+        <v>0.6892538189038696</v>
       </c>
       <c r="N5">
-        <v>1.057566429474063</v>
+        <v>1.300685790840398</v>
       </c>
       <c r="O5">
-        <v>1.031315756368879</v>
+        <v>1.17198689683651</v>
       </c>
       <c r="P5">
-        <v>0.9373226605255773</v>
+        <v>0.8357685471361559</v>
       </c>
       <c r="Q5">
-        <v>1.005627506365276</v>
+        <v>1.012293232238159</v>
       </c>
       <c r="R5">
-        <v>0.9774039168417392</v>
+        <v>0.9907409617042368</v>
       </c>
       <c r="S5">
-        <v>0.9515281924709423</v>
+        <v>0.8413788873040398</v>
       </c>
       <c r="T5">
-        <v>0.9774039168417392</v>
+        <v>0.9907409617042368</v>
       </c>
       <c r="U5">
-        <v>0.9780377517217225</v>
+        <v>0.9562056131881294</v>
       </c>
       <c r="V5">
-        <v>0.9939434872721906</v>
+        <v>1.025101648718583</v>
       </c>
       <c r="W5">
-        <v>0.9863987710580864</v>
+        <v>0.9647430991853693</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.488946812374294</v>
+        <v>0.8368218343082955</v>
       </c>
       <c r="D6">
-        <v>0.897235803805974</v>
+        <v>0.9548637838594713</v>
       </c>
       <c r="E6">
-        <v>1.080707370831878</v>
+        <v>1.034161695528331</v>
       </c>
       <c r="F6">
-        <v>0.488946812374294</v>
+        <v>0.8368218343082955</v>
       </c>
       <c r="G6">
-        <v>1.086111918525873</v>
+        <v>1.120816718081987</v>
       </c>
       <c r="H6">
-        <v>1.086111918525873</v>
+        <v>1.120816718081987</v>
       </c>
       <c r="I6">
-        <v>1.086111918525873</v>
+        <v>1.120816718081987</v>
       </c>
       <c r="J6">
-        <v>0.9611501595955484</v>
+        <v>0.9599781157101281</v>
       </c>
       <c r="K6">
-        <v>1.201547292742791</v>
+        <v>1.069817481552992</v>
       </c>
       <c r="L6">
-        <v>1.188540083613676</v>
+        <v>1.048489668829025</v>
       </c>
       <c r="M6">
-        <v>0.6734337782984637</v>
+        <v>0.8861334485399571</v>
       </c>
       <c r="N6">
-        <v>1.086111918525873</v>
+        <v>1.120816718081987</v>
       </c>
       <c r="O6">
-        <v>1.080707370831878</v>
+        <v>1.034161695528331</v>
       </c>
       <c r="P6">
-        <v>0.7848270916030857</v>
+        <v>0.9354917649183132</v>
       </c>
       <c r="Q6">
-        <v>1.020928765213713</v>
+        <v>0.9970699056192296</v>
       </c>
       <c r="R6">
-        <v>0.8852553672440147</v>
+        <v>0.9972667493062047</v>
       </c>
       <c r="S6">
-        <v>0.8436014476005732</v>
+        <v>0.9436538818489182</v>
       </c>
       <c r="T6">
-        <v>0.8852553672440147</v>
+        <v>0.9972667493062047</v>
       </c>
       <c r="U6">
-        <v>0.9042290653318981</v>
+        <v>0.9879445909071856</v>
       </c>
       <c r="V6">
-        <v>0.940605635970693</v>
+        <v>1.014519016342146</v>
       </c>
       <c r="W6">
-        <v>0.9472091524735622</v>
+        <v>0.9888853433012734</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9824680654228982</v>
+        <v>0.8433295646822753</v>
       </c>
       <c r="D7">
-        <v>0.9979677086282019</v>
+        <v>0.9730594726296825</v>
       </c>
       <c r="E7">
-        <v>0.9988203720482636</v>
+        <v>1.031315756368879</v>
       </c>
       <c r="F7">
-        <v>0.9824680654228982</v>
+        <v>0.8433295646822753</v>
       </c>
       <c r="G7">
-        <v>1.015942104759218</v>
+        <v>1.057566429474063</v>
       </c>
       <c r="H7">
-        <v>1.015942104759218</v>
+        <v>1.057566429474063</v>
       </c>
       <c r="I7">
-        <v>1.015942104759218</v>
+        <v>1.057566429474063</v>
       </c>
       <c r="J7">
-        <v>0.9969140876834335</v>
+        <v>0.9799392563616721</v>
       </c>
       <c r="K7">
-        <v>1.003418445257159</v>
+        <v>1.057006719135443</v>
       </c>
       <c r="L7">
-        <v>1.004296467785693</v>
+        <v>1.046485354409218</v>
       </c>
       <c r="M7">
-        <v>0.9904089320555512</v>
+        <v>0.9024876154034576</v>
       </c>
       <c r="N7">
-        <v>1.015942104759218</v>
+        <v>1.057566429474063</v>
       </c>
       <c r="O7">
-        <v>0.9988203720482636</v>
+        <v>1.031315756368879</v>
       </c>
       <c r="P7">
-        <v>0.9906442187355808</v>
+        <v>0.9373226605255773</v>
       </c>
       <c r="Q7">
-        <v>0.9978672298658485</v>
+        <v>1.005627506365276</v>
       </c>
       <c r="R7">
-        <v>0.9990768474101266</v>
+        <v>0.9774039168417392</v>
       </c>
       <c r="S7">
-        <v>0.9927341750515316</v>
+        <v>0.9515281924709423</v>
       </c>
       <c r="T7">
-        <v>0.9990768474101266</v>
+        <v>0.9774039168417392</v>
       </c>
       <c r="U7">
-        <v>0.9985361574784533</v>
+        <v>0.9780377517217225</v>
       </c>
       <c r="V7">
-        <v>1.002017346934606</v>
+        <v>0.9939434872721906</v>
       </c>
       <c r="W7">
-        <v>0.9987795229550522</v>
+        <v>0.9863987710580864</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9971734497206481</v>
+        <v>0.488946812374294</v>
       </c>
       <c r="D8">
-        <v>1.001047700442176</v>
+        <v>0.897235803805974</v>
       </c>
       <c r="E8">
-        <v>1.001739845717986</v>
+        <v>1.080707370831878</v>
       </c>
       <c r="F8">
-        <v>0.9971734497206481</v>
+        <v>0.488946812374294</v>
       </c>
       <c r="G8">
-        <v>0.9987850368141383</v>
+        <v>1.086111918525873</v>
       </c>
       <c r="H8">
-        <v>0.9987850368141383</v>
+        <v>1.086111918525873</v>
       </c>
       <c r="I8">
-        <v>0.9987850368141383</v>
+        <v>1.086111918525873</v>
       </c>
       <c r="J8">
-        <v>1.000116558286192</v>
+        <v>0.9611501595955484</v>
       </c>
       <c r="K8">
-        <v>1.000251187161805</v>
+        <v>1.201547292742791</v>
       </c>
       <c r="L8">
-        <v>1.000174583611165</v>
+        <v>1.188540083613676</v>
       </c>
       <c r="M8">
-        <v>0.9985213300955644</v>
+        <v>0.6734337782984637</v>
       </c>
       <c r="N8">
-        <v>0.9987850368141383</v>
+        <v>1.086111918525873</v>
       </c>
       <c r="O8">
-        <v>1.001739845717986</v>
+        <v>1.080707370831878</v>
       </c>
       <c r="P8">
-        <v>0.9994566477193172</v>
+        <v>0.7848270916030857</v>
       </c>
       <c r="Q8">
-        <v>1.000928202002089</v>
+        <v>1.020928765213713</v>
       </c>
       <c r="R8">
-        <v>0.9992327774175909</v>
+        <v>0.8852553672440147</v>
       </c>
       <c r="S8">
-        <v>0.9996766179082753</v>
+        <v>0.8436014476005732</v>
       </c>
       <c r="T8">
-        <v>0.9992327774175909</v>
+        <v>0.8852553672440147</v>
       </c>
       <c r="U8">
-        <v>0.9994537226347411</v>
+        <v>0.9042290653318981</v>
       </c>
       <c r="V8">
-        <v>0.9993199854706205</v>
+        <v>0.940605635970693</v>
       </c>
       <c r="W8">
-        <v>0.9997262114812093</v>
+        <v>0.9472091524735622</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9692194832354084</v>
+        <v>0.9824680654228982</v>
       </c>
       <c r="D9">
-        <v>0.9984597986800647</v>
+        <v>0.9979677086282019</v>
       </c>
       <c r="E9">
-        <v>1.000375953435432</v>
+        <v>0.9988203720482636</v>
       </c>
       <c r="F9">
-        <v>0.9692194832354084</v>
+        <v>0.9824680654228982</v>
       </c>
       <c r="G9">
-        <v>1.021251571549398</v>
+        <v>1.015942104759218</v>
       </c>
       <c r="H9">
-        <v>1.021251571549398</v>
+        <v>1.015942104759218</v>
       </c>
       <c r="I9">
-        <v>1.021251571549398</v>
+        <v>1.015942104759218</v>
       </c>
       <c r="J9">
-        <v>0.9951754179706747</v>
+        <v>0.9969140876834335</v>
       </c>
       <c r="K9">
-        <v>1.006240332003238</v>
+        <v>1.003418445257159</v>
       </c>
       <c r="L9">
-        <v>1.006411549506512</v>
+        <v>1.004296467785693</v>
       </c>
       <c r="M9">
-        <v>0.9835271606647148</v>
+        <v>0.9904089320555512</v>
       </c>
       <c r="N9">
-        <v>1.021251571549398</v>
+        <v>1.015942104759218</v>
       </c>
       <c r="O9">
-        <v>1.000375953435432</v>
+        <v>0.9988203720482636</v>
       </c>
       <c r="P9">
-        <v>0.9847977183354203</v>
+        <v>0.9906442187355808</v>
       </c>
       <c r="Q9">
-        <v>0.9977756857030534</v>
+        <v>0.9978672298658485</v>
       </c>
       <c r="R9">
-        <v>0.9969490027400795</v>
+        <v>0.9990768474101266</v>
       </c>
       <c r="S9">
-        <v>0.9882569515471719</v>
+        <v>0.9927341750515316</v>
       </c>
       <c r="T9">
-        <v>0.9969490027400795</v>
+        <v>0.9990768474101266</v>
       </c>
       <c r="U9">
-        <v>0.9965056065477282</v>
+        <v>0.9985361574784533</v>
       </c>
       <c r="V9">
-        <v>1.001454799548062</v>
+        <v>1.002017346934606</v>
       </c>
       <c r="W9">
-        <v>0.9975826583806804</v>
+        <v>0.9987795229550522</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4761465155258265</v>
+        <v>0.9971734497206481</v>
       </c>
       <c r="D10">
-        <v>0.8972277781284725</v>
+        <v>1.001047700442176</v>
       </c>
       <c r="E10">
-        <v>1.0800336457256</v>
+        <v>1.001739845717986</v>
       </c>
       <c r="F10">
-        <v>0.4761465155258265</v>
+        <v>0.9971734497206481</v>
       </c>
       <c r="G10">
-        <v>1.084948009946167</v>
+        <v>0.9987850368141383</v>
       </c>
       <c r="H10">
-        <v>1.084948009946167</v>
+        <v>0.9987850368141383</v>
       </c>
       <c r="I10">
-        <v>1.084948009946167</v>
+        <v>0.9987850368141383</v>
       </c>
       <c r="J10">
-        <v>0.9631159892772818</v>
+        <v>1.000116558286192</v>
       </c>
       <c r="K10">
-        <v>1.203289148417049</v>
+        <v>1.000251187161805</v>
       </c>
       <c r="L10">
-        <v>1.192850001521082</v>
+        <v>1.000174583611165</v>
       </c>
       <c r="M10">
-        <v>0.6683137871237858</v>
+        <v>0.9985213300955644</v>
       </c>
       <c r="N10">
-        <v>1.084948009946167</v>
+        <v>0.9987850368141383</v>
       </c>
       <c r="O10">
-        <v>1.0800336457256</v>
+        <v>1.001739845717986</v>
       </c>
       <c r="P10">
-        <v>0.7780900806257132</v>
+        <v>0.9994566477193172</v>
       </c>
       <c r="Q10">
-        <v>1.021574817501441</v>
+        <v>1.000928202002089</v>
       </c>
       <c r="R10">
-        <v>0.8803760570658646</v>
+        <v>0.9992327774175909</v>
       </c>
       <c r="S10">
-        <v>0.8397653835095694</v>
+        <v>0.9996766179082753</v>
       </c>
       <c r="T10">
-        <v>0.8803760570658646</v>
+        <v>0.9992327774175909</v>
       </c>
       <c r="U10">
-        <v>0.9010610401187189</v>
+        <v>0.9994537226347411</v>
       </c>
       <c r="V10">
-        <v>0.9378384340842085</v>
+        <v>0.9993199854706205</v>
       </c>
       <c r="W10">
-        <v>0.9457406094581582</v>
+        <v>0.9997262114812093</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9320287169349388</v>
+        <v>0.9692194832354084</v>
       </c>
       <c r="D11">
-        <v>0.9621950500946163</v>
+        <v>0.9984597986800647</v>
       </c>
       <c r="E11">
-        <v>1.018136120550996</v>
+        <v>1.000375953435432</v>
       </c>
       <c r="F11">
-        <v>0.9320287169349388</v>
+        <v>0.9692194832354084</v>
       </c>
       <c r="G11">
-        <v>1.038972326713346</v>
+        <v>1.021251571549398</v>
       </c>
       <c r="H11">
-        <v>1.038972326713346</v>
+        <v>1.021251571549398</v>
       </c>
       <c r="I11">
-        <v>1.038972326713346</v>
+        <v>1.021251571549398</v>
       </c>
       <c r="J11">
-        <v>0.9836382873617281</v>
+        <v>0.9951754179706747</v>
       </c>
       <c r="K11">
-        <v>1.04486711418037</v>
+        <v>1.006240332003238</v>
       </c>
       <c r="L11">
-        <v>1.03436763939825</v>
+        <v>1.006411549506512</v>
       </c>
       <c r="M11">
-        <v>0.9426038181115859</v>
+        <v>0.9835271606647148</v>
       </c>
       <c r="N11">
-        <v>1.038972326713346</v>
+        <v>1.021251571549398</v>
       </c>
       <c r="O11">
-        <v>1.018136120550996</v>
+        <v>1.000375953435432</v>
       </c>
       <c r="P11">
-        <v>0.9750824187429676</v>
+        <v>0.9847977183354203</v>
       </c>
       <c r="Q11">
-        <v>1.000887203956362</v>
+        <v>0.9977756857030534</v>
       </c>
       <c r="R11">
-        <v>0.9963790547330937</v>
+        <v>0.9969490027400795</v>
       </c>
       <c r="S11">
-        <v>0.9779343749492212</v>
+        <v>0.9882569515471719</v>
       </c>
       <c r="T11">
-        <v>0.9963790547330937</v>
+        <v>0.9969490027400795</v>
       </c>
       <c r="U11">
-        <v>0.9931938628902524</v>
+        <v>0.9965056065477282</v>
       </c>
       <c r="V11">
-        <v>1.002349555654871</v>
+        <v>1.001454799548062</v>
       </c>
       <c r="W11">
-        <v>0.994601134168229</v>
+        <v>0.9975826583806804</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8317081167473677</v>
+        <v>0.4761465155258265</v>
       </c>
       <c r="D12">
-        <v>0.9766423853052616</v>
+        <v>0.8972277781284725</v>
       </c>
       <c r="E12">
-        <v>1.028896144557897</v>
+        <v>1.0800336457256</v>
       </c>
       <c r="F12">
-        <v>0.8317081167473677</v>
+        <v>0.4761465155258265</v>
       </c>
       <c r="G12">
-        <v>1.04238310836842</v>
+        <v>1.084948009946167</v>
       </c>
       <c r="H12">
-        <v>1.04238310836842</v>
+        <v>1.084948009946167</v>
       </c>
       <c r="I12">
-        <v>1.04238310836842</v>
+        <v>1.084948009946167</v>
       </c>
       <c r="J12">
-        <v>0.9858844689789489</v>
+        <v>0.9631159892772818</v>
       </c>
       <c r="K12">
-        <v>1.056911335684206</v>
+        <v>1.203289148417049</v>
       </c>
       <c r="L12">
-        <v>1.050607739810522</v>
+        <v>1.192850001521082</v>
       </c>
       <c r="M12">
-        <v>0.9003380140105264</v>
+        <v>0.6683137871237858</v>
       </c>
       <c r="N12">
-        <v>1.04238310836842</v>
+        <v>1.084948009946167</v>
       </c>
       <c r="O12">
-        <v>1.028896144557897</v>
+        <v>1.0800336457256</v>
       </c>
       <c r="P12">
-        <v>0.9303021306526322</v>
+        <v>0.7780900806257132</v>
       </c>
       <c r="Q12">
-        <v>1.007390306768423</v>
+        <v>1.021574817501441</v>
       </c>
       <c r="R12">
-        <v>0.967662456557895</v>
+        <v>0.8803760570658646</v>
       </c>
       <c r="S12">
-        <v>0.9488295767614044</v>
+        <v>0.8397653835095694</v>
       </c>
       <c r="T12">
-        <v>0.967662456557895</v>
+        <v>0.8803760570658646</v>
       </c>
       <c r="U12">
-        <v>0.9722179596631585</v>
+        <v>0.9010610401187189</v>
       </c>
       <c r="V12">
-        <v>0.9862509894042109</v>
+        <v>0.9378384340842085</v>
       </c>
       <c r="W12">
-        <v>0.9841714141828938</v>
+        <v>0.9457406094581582</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.076719502336704</v>
+        <v>0.9320287169349388</v>
       </c>
       <c r="D13">
-        <v>1.022915644097199</v>
+        <v>0.9621950500946163</v>
       </c>
       <c r="E13">
-        <v>0.9655549567321682</v>
+        <v>1.018136120550996</v>
       </c>
       <c r="F13">
-        <v>1.076719502336704</v>
+        <v>0.9320287169349388</v>
       </c>
       <c r="G13">
-        <v>0.9456394608414463</v>
+        <v>1.038972326713346</v>
       </c>
       <c r="H13">
-        <v>0.9456394608414463</v>
+        <v>1.038972326713346</v>
       </c>
       <c r="I13">
-        <v>0.9456394608414463</v>
+        <v>1.038972326713346</v>
       </c>
       <c r="J13">
-        <v>1.02662976227072</v>
+        <v>0.9836382873617281</v>
       </c>
       <c r="K13">
-        <v>0.958536190966742</v>
+        <v>1.04486711418037</v>
       </c>
       <c r="L13">
-        <v>0.9801021321728562</v>
+        <v>1.03436763939825</v>
       </c>
       <c r="M13">
-        <v>1.061570741728478</v>
+        <v>0.9426038181115859</v>
       </c>
       <c r="N13">
-        <v>0.9456394608414463</v>
+        <v>1.038972326713346</v>
       </c>
       <c r="O13">
-        <v>0.9655549567321682</v>
+        <v>1.018136120550996</v>
       </c>
       <c r="P13">
-        <v>1.021137229534436</v>
+        <v>0.9750824187429676</v>
       </c>
       <c r="Q13">
-        <v>0.9960923595014443</v>
+        <v>1.000887203956362</v>
       </c>
       <c r="R13">
-        <v>0.9959713066367729</v>
+        <v>0.9963790547330937</v>
       </c>
       <c r="S13">
-        <v>1.022968073779864</v>
+        <v>0.9779343749492212</v>
       </c>
       <c r="T13">
-        <v>0.9959713066367729</v>
+        <v>0.9963790547330937</v>
       </c>
       <c r="U13">
-        <v>1.00363592054526</v>
+        <v>0.9931938628902524</v>
       </c>
       <c r="V13">
-        <v>0.9920366286044973</v>
+        <v>1.002349555654871</v>
       </c>
       <c r="W13">
-        <v>1.004708548893289</v>
+        <v>0.994601134168229</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1021509500000002</v>
+        <v>0.8317081167473677</v>
       </c>
       <c r="D14">
-        <v>0.8165932599999992</v>
+        <v>0.9766423853052616</v>
       </c>
       <c r="E14">
-        <v>1.133996400000001</v>
+        <v>1.028896144557897</v>
       </c>
       <c r="F14">
-        <v>0.1021509500000002</v>
+        <v>0.8317081167473677</v>
       </c>
       <c r="G14">
-        <v>1.126229899999999</v>
+        <v>1.04238310836842</v>
       </c>
       <c r="H14">
-        <v>1.126229899999999</v>
+        <v>1.04238310836842</v>
       </c>
       <c r="I14">
-        <v>1.126229899999999</v>
+        <v>1.04238310836842</v>
       </c>
       <c r="J14">
-        <v>0.9383696200000015</v>
+        <v>0.9858844689789489</v>
       </c>
       <c r="K14">
-        <v>1.357228500000001</v>
+        <v>1.056911335684206</v>
       </c>
       <c r="L14">
-        <v>1.340356499999999</v>
+        <v>1.050607739810522</v>
       </c>
       <c r="M14">
-        <v>0.4245624600000004</v>
+        <v>0.9003380140105264</v>
       </c>
       <c r="N14">
-        <v>1.126229899999999</v>
+        <v>1.04238310836842</v>
       </c>
       <c r="O14">
-        <v>1.133996400000001</v>
+        <v>1.028896144557897</v>
       </c>
       <c r="P14">
-        <v>0.6180736750000004</v>
+        <v>0.9303021306526322</v>
       </c>
       <c r="Q14">
-        <v>1.036183010000001</v>
+        <v>1.007390306768423</v>
       </c>
       <c r="R14">
-        <v>0.7874590833333333</v>
+        <v>0.967662456557895</v>
       </c>
       <c r="S14">
-        <v>0.7248389900000007</v>
+        <v>0.9488295767614044</v>
       </c>
       <c r="T14">
-        <v>0.7874590833333333</v>
+        <v>0.967662456557895</v>
       </c>
       <c r="U14">
-        <v>0.8251867175000003</v>
+        <v>0.9722179596631585</v>
       </c>
       <c r="V14">
-        <v>0.8853953539999999</v>
+        <v>0.9862509894042109</v>
       </c>
       <c r="W14">
-        <v>0.9049359487500002</v>
+        <v>0.9841714141828938</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.04733321</v>
+        <v>1.076719502336704</v>
       </c>
       <c r="D15">
-        <v>0.4240644</v>
+        <v>1.022915644097199</v>
       </c>
       <c r="E15">
-        <v>0.55682332</v>
+        <v>0.9655549567321682</v>
       </c>
       <c r="F15">
-        <v>0.04733321</v>
+        <v>1.076719502336704</v>
       </c>
       <c r="G15">
-        <v>2.3346269</v>
+        <v>0.9456394608414463</v>
       </c>
       <c r="H15">
-        <v>2.3346269</v>
+        <v>0.9456394608414463</v>
       </c>
       <c r="I15">
-        <v>2.3346269</v>
+        <v>0.9456394608414463</v>
       </c>
       <c r="J15">
-        <v>0.89008822</v>
+        <v>1.02662976227072</v>
       </c>
       <c r="K15">
-        <v>1.2390588</v>
+        <v>0.958536190966742</v>
       </c>
       <c r="L15">
-        <v>1.7272075</v>
+        <v>0.9801021321728562</v>
       </c>
       <c r="M15">
-        <v>0.2967775</v>
+        <v>1.061570741728478</v>
       </c>
       <c r="N15">
-        <v>2.3346269</v>
+        <v>0.9456394608414463</v>
       </c>
       <c r="O15">
-        <v>0.55682332</v>
+        <v>0.9655549567321682</v>
       </c>
       <c r="P15">
-        <v>0.302078265</v>
+        <v>1.021137229534436</v>
       </c>
       <c r="Q15">
-        <v>0.7234557699999999</v>
+        <v>0.9960923595014443</v>
       </c>
       <c r="R15">
-        <v>0.9795944766666667</v>
+        <v>0.9959713066367729</v>
       </c>
       <c r="S15">
-        <v>0.4980815833333334</v>
+        <v>1.022968073779864</v>
       </c>
       <c r="T15">
-        <v>0.9795944766666667</v>
+        <v>0.9959713066367729</v>
       </c>
       <c r="U15">
-        <v>0.9572179125</v>
+        <v>1.00363592054526</v>
       </c>
       <c r="V15">
-        <v>1.23269971</v>
+        <v>0.9920366286044973</v>
       </c>
       <c r="W15">
-        <v>0.93949748125</v>
+        <v>1.004708548893289</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.034165329</v>
+        <v>0.1021509500000002</v>
       </c>
       <c r="D16">
-        <v>0.55960717</v>
+        <v>0.8165932599999992</v>
       </c>
       <c r="E16">
-        <v>1.1044122</v>
+        <v>1.133996400000001</v>
       </c>
       <c r="F16">
-        <v>0.034165329</v>
+        <v>0.1021509500000002</v>
       </c>
       <c r="G16">
-        <v>1.7976002</v>
+        <v>1.126229899999999</v>
       </c>
       <c r="H16">
-        <v>1.7976002</v>
+        <v>1.126229899999999</v>
       </c>
       <c r="I16">
-        <v>1.7976002</v>
+        <v>1.126229899999999</v>
       </c>
       <c r="J16">
-        <v>0.69186698</v>
+        <v>0.9383696200000015</v>
       </c>
       <c r="K16">
-        <v>1.5717145</v>
+        <v>1.357228500000001</v>
       </c>
       <c r="L16">
-        <v>1.3864168</v>
+        <v>1.340356499999999</v>
       </c>
       <c r="M16">
-        <v>0.22586416</v>
+        <v>0.4245624600000004</v>
       </c>
       <c r="N16">
-        <v>1.7976002</v>
+        <v>1.126229899999999</v>
       </c>
       <c r="O16">
-        <v>1.1044122</v>
+        <v>1.133996400000001</v>
       </c>
       <c r="P16">
-        <v>0.5692887645</v>
+        <v>0.6180736750000004</v>
       </c>
       <c r="Q16">
-        <v>0.89813959</v>
+        <v>1.036183010000001</v>
       </c>
       <c r="R16">
-        <v>0.9787259096666666</v>
+        <v>0.7874590833333333</v>
       </c>
       <c r="S16">
-        <v>0.6101481696666666</v>
+        <v>0.7248389900000007</v>
       </c>
       <c r="T16">
-        <v>0.9787259096666666</v>
+        <v>0.7874590833333333</v>
       </c>
       <c r="U16">
-        <v>0.9070111772499999</v>
+        <v>0.8251867175000003</v>
       </c>
       <c r="V16">
-        <v>1.0851289818</v>
+        <v>0.8853953539999999</v>
       </c>
       <c r="W16">
-        <v>0.921455917375</v>
+        <v>0.9049359487500002</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.65661591</v>
+        <v>0.04733321</v>
       </c>
       <c r="D17">
-        <v>0.89546981</v>
+        <v>0.4240644</v>
       </c>
       <c r="E17">
-        <v>0.6482668000000001</v>
+        <v>0.55682332</v>
       </c>
       <c r="F17">
-        <v>0.65661591</v>
+        <v>0.04733321</v>
       </c>
       <c r="G17">
-        <v>1.6356824</v>
+        <v>2.3346269</v>
       </c>
       <c r="H17">
-        <v>1.6356824</v>
+        <v>2.3346269</v>
       </c>
       <c r="I17">
-        <v>1.6356824</v>
+        <v>2.3346269</v>
       </c>
       <c r="J17">
-        <v>0.97875154</v>
+        <v>0.89008822</v>
       </c>
       <c r="K17">
-        <v>0.98971548</v>
+        <v>1.2390588</v>
       </c>
       <c r="L17">
-        <v>1.1389616</v>
+        <v>1.7272075</v>
       </c>
       <c r="M17">
-        <v>0.88474049</v>
+        <v>0.2967775</v>
       </c>
       <c r="N17">
-        <v>1.6356824</v>
+        <v>2.3346269</v>
       </c>
       <c r="O17">
-        <v>0.6482668000000001</v>
+        <v>0.55682332</v>
       </c>
       <c r="P17">
-        <v>0.6524413550000001</v>
+        <v>0.302078265</v>
       </c>
       <c r="Q17">
-        <v>0.8135091700000001</v>
+        <v>0.7234557699999999</v>
       </c>
       <c r="R17">
-        <v>0.9801883700000001</v>
+        <v>0.9795944766666667</v>
       </c>
       <c r="S17">
-        <v>0.7612114166666668</v>
+        <v>0.4980815833333334</v>
       </c>
       <c r="T17">
-        <v>0.98018837</v>
+        <v>0.9795944766666667</v>
       </c>
       <c r="U17">
-        <v>0.9798291625</v>
+        <v>0.9572179125</v>
       </c>
       <c r="V17">
-        <v>1.11099981</v>
+        <v>1.23269971</v>
       </c>
       <c r="W17">
-        <v>0.97852550375</v>
+        <v>0.93949748125</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.6290249592328768</v>
+        <v>0.034165329</v>
       </c>
       <c r="D18">
-        <v>0.9702086726027395</v>
+        <v>0.55960717</v>
       </c>
       <c r="E18">
-        <v>0.9963461402739724</v>
+        <v>1.1044122</v>
       </c>
       <c r="F18">
-        <v>0.6290249592328768</v>
+        <v>0.034165329</v>
       </c>
       <c r="G18">
-        <v>1.282197215068493</v>
+        <v>1.7976002</v>
       </c>
       <c r="H18">
-        <v>1.282197215068493</v>
+        <v>1.7976002</v>
       </c>
       <c r="I18">
-        <v>1.282197215068493</v>
+        <v>1.7976002</v>
       </c>
       <c r="J18">
-        <v>0.9417915263013698</v>
+        <v>0.69186698</v>
       </c>
       <c r="K18">
-        <v>1.073243689315069</v>
+        <v>1.5717145</v>
       </c>
       <c r="L18">
-        <v>1.086499628219178</v>
+        <v>1.3864168</v>
       </c>
       <c r="M18">
-        <v>0.7991112813698635</v>
+        <v>0.22586416</v>
       </c>
       <c r="N18">
-        <v>1.282197215068493</v>
+        <v>1.7976002</v>
       </c>
       <c r="O18">
-        <v>0.9963461402739724</v>
+        <v>1.1044122</v>
       </c>
       <c r="P18">
-        <v>0.8126855497534247</v>
+        <v>0.5692887645</v>
       </c>
       <c r="Q18">
-        <v>0.9690688332876711</v>
+        <v>0.89813959</v>
       </c>
       <c r="R18">
-        <v>0.969189438191781</v>
+        <v>0.9787259096666666</v>
       </c>
       <c r="S18">
-        <v>0.8557208752694064</v>
+        <v>0.6101481696666666</v>
       </c>
       <c r="T18">
-        <v>0.9691894381917808</v>
+        <v>0.9787259096666666</v>
       </c>
       <c r="U18">
-        <v>0.9623399602191781</v>
+        <v>0.9070111772499999</v>
       </c>
       <c r="V18">
-        <v>1.026311411189041</v>
+        <v>1.0851289818</v>
       </c>
       <c r="W18">
-        <v>0.9723028890479453</v>
+        <v>0.921455917375</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.3106690667894737</v>
+        <v>0.65661591</v>
       </c>
       <c r="D19">
-        <v>1.011693811052631</v>
+        <v>0.89546981</v>
       </c>
       <c r="E19">
-        <v>1.283223473157895</v>
+        <v>0.6482668000000001</v>
       </c>
       <c r="F19">
-        <v>0.3106690667894737</v>
+        <v>0.65661591</v>
       </c>
       <c r="G19">
-        <v>1.148376904210526</v>
+        <v>1.6356824</v>
       </c>
       <c r="H19">
-        <v>1.148376904210526</v>
+        <v>1.6356824</v>
       </c>
       <c r="I19">
-        <v>1.148376904210526</v>
+        <v>1.6356824</v>
       </c>
       <c r="J19">
-        <v>0.8913537273684213</v>
+        <v>0.97875154</v>
       </c>
       <c r="K19">
-        <v>1.226564115789474</v>
+        <v>0.98971548</v>
       </c>
       <c r="L19">
-        <v>1.070575995263158</v>
+        <v>1.1389616</v>
       </c>
       <c r="M19">
-        <v>0.6092873963157897</v>
+        <v>0.88474049</v>
       </c>
       <c r="N19">
-        <v>1.148376904210526</v>
+        <v>1.6356824</v>
       </c>
       <c r="O19">
-        <v>1.283223473157895</v>
+        <v>0.6482668000000001</v>
       </c>
       <c r="P19">
-        <v>0.7969462699736842</v>
+        <v>0.6524413550000001</v>
       </c>
       <c r="Q19">
-        <v>1.087288600263158</v>
+        <v>0.8135091700000001</v>
       </c>
       <c r="R19">
-        <v>0.9140898147192983</v>
+        <v>0.9801883700000001</v>
       </c>
       <c r="S19">
-        <v>0.8284154224385967</v>
+        <v>0.7612114166666668</v>
       </c>
       <c r="T19">
-        <v>0.9140898147192981</v>
+        <v>0.98018837</v>
       </c>
       <c r="U19">
-        <v>0.908405792881579</v>
+        <v>0.9798291625</v>
       </c>
       <c r="V19">
-        <v>0.9564000151473684</v>
+        <v>1.11099981</v>
       </c>
       <c r="W19">
-        <v>0.9439680612434209</v>
+        <v>0.97852550375</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.4620953888947369</v>
+        <v>0.6290249592328768</v>
       </c>
       <c r="D20">
-        <v>0.9417972668421053</v>
+        <v>0.9702086726027395</v>
       </c>
       <c r="E20">
-        <v>1.152991674736842</v>
+        <v>0.9963461402739724</v>
       </c>
       <c r="F20">
-        <v>0.4620953888947369</v>
+        <v>0.6290249592328768</v>
       </c>
       <c r="G20">
-        <v>1.316131018421053</v>
+        <v>1.282197215068493</v>
       </c>
       <c r="H20">
-        <v>1.316131018421053</v>
+        <v>1.282197215068493</v>
       </c>
       <c r="I20">
-        <v>1.316131018421053</v>
+        <v>1.282197215068493</v>
       </c>
       <c r="J20">
-        <v>0.8591794521052631</v>
+        <v>0.9417915263013698</v>
       </c>
       <c r="K20">
-        <v>1.205887782105263</v>
+        <v>1.073243689315069</v>
       </c>
       <c r="L20">
-        <v>1.080670141052632</v>
+        <v>1.086499628219178</v>
       </c>
       <c r="M20">
-        <v>0.662588005263158</v>
+        <v>0.7991112813698635</v>
       </c>
       <c r="N20">
-        <v>1.316131018421053</v>
+        <v>1.282197215068493</v>
       </c>
       <c r="O20">
-        <v>1.152991674736842</v>
+        <v>0.9963461402739724</v>
       </c>
       <c r="P20">
-        <v>0.8075435318157895</v>
+        <v>0.8126855497534247</v>
       </c>
       <c r="Q20">
-        <v>1.006085563421053</v>
+        <v>0.9690688332876711</v>
       </c>
       <c r="R20">
-        <v>0.9770726940175439</v>
+        <v>0.969189438191781</v>
       </c>
       <c r="S20">
-        <v>0.824755505245614</v>
+        <v>0.8557208752694064</v>
       </c>
       <c r="T20">
-        <v>0.9770726940175439</v>
+        <v>0.9691894381917808</v>
       </c>
       <c r="U20">
-        <v>0.9475993835394737</v>
+        <v>0.9623399602191781</v>
       </c>
       <c r="V20">
-        <v>1.021305710515789</v>
+        <v>1.026311411189041</v>
       </c>
       <c r="W20">
-        <v>0.9601675911776317</v>
+        <v>0.9723028890479453</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6292570061519027</v>
+        <v>0.3106690667894737</v>
       </c>
       <c r="D21">
-        <v>1.231457406871493</v>
+        <v>1.011693811052631</v>
       </c>
       <c r="E21">
-        <v>1.514130508078374</v>
+        <v>1.283223473157895</v>
       </c>
       <c r="F21">
-        <v>0.6292570061519027</v>
+        <v>0.3106690667894737</v>
       </c>
       <c r="G21">
-        <v>0.4410001629655855</v>
+        <v>1.148376904210526</v>
       </c>
       <c r="H21">
-        <v>0.4410001629655855</v>
+        <v>1.148376904210526</v>
       </c>
       <c r="I21">
-        <v>0.4410001629655855</v>
+        <v>1.148376904210526</v>
       </c>
       <c r="J21">
-        <v>0.9706731619074589</v>
+        <v>0.8913537273684213</v>
       </c>
       <c r="K21">
-        <v>1.155648466661597</v>
+        <v>1.226564115789474</v>
       </c>
       <c r="L21">
-        <v>0.8328893118235465</v>
+        <v>1.070575995263158</v>
       </c>
       <c r="M21">
-        <v>0.8732825534871642</v>
+        <v>0.6092873963157897</v>
       </c>
       <c r="N21">
-        <v>0.4410001629655855</v>
+        <v>1.148376904210526</v>
       </c>
       <c r="O21">
-        <v>1.514130508078374</v>
+        <v>1.283223473157895</v>
       </c>
       <c r="P21">
-        <v>1.071693757115138</v>
+        <v>0.7969462699736842</v>
       </c>
       <c r="Q21">
-        <v>1.242401834992916</v>
+        <v>1.087288600263158</v>
       </c>
       <c r="R21">
-        <v>0.8614625590652872</v>
+        <v>0.9140898147192983</v>
       </c>
       <c r="S21">
-        <v>1.038020225379245</v>
+        <v>0.8284154224385967</v>
       </c>
       <c r="T21">
-        <v>0.8614625590652872</v>
+        <v>0.9140898147192981</v>
       </c>
       <c r="U21">
-        <v>0.8887652097758301</v>
+        <v>0.908405792881579</v>
       </c>
       <c r="V21">
-        <v>0.7992122004137812</v>
+        <v>0.9564000151473684</v>
       </c>
       <c r="W21">
-        <v>0.9560423222433903</v>
+        <v>0.9439680612434209</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.202250310326608</v>
+        <v>0.4620953888947369</v>
       </c>
       <c r="D22">
-        <v>0.868862257372056</v>
+        <v>0.9417972668421053</v>
       </c>
       <c r="E22">
-        <v>0.7986249444705715</v>
+        <v>1.152991674736842</v>
       </c>
       <c r="F22">
-        <v>1.202250310326608</v>
+        <v>0.4620953888947369</v>
       </c>
       <c r="G22">
-        <v>1.187748706572134</v>
+        <v>1.316131018421053</v>
       </c>
       <c r="H22">
-        <v>1.187748706572134</v>
+        <v>1.316131018421053</v>
       </c>
       <c r="I22">
-        <v>1.187748706572134</v>
+        <v>1.316131018421053</v>
       </c>
       <c r="J22">
-        <v>1.013655450581753</v>
+        <v>0.8591794521052631</v>
       </c>
       <c r="K22">
-        <v>0.9594749306531103</v>
+        <v>1.205887782105263</v>
       </c>
       <c r="L22">
-        <v>1.084166210186356</v>
+        <v>1.080670141052632</v>
       </c>
       <c r="M22">
-        <v>1.053328206990494</v>
+        <v>0.662588005263158</v>
       </c>
       <c r="N22">
-        <v>1.187748706572134</v>
+        <v>1.316131018421053</v>
       </c>
       <c r="O22">
-        <v>0.7986249444705715</v>
+        <v>1.152991674736842</v>
       </c>
       <c r="P22">
-        <v>1.00043762739859</v>
+        <v>0.8075435318157895</v>
       </c>
       <c r="Q22">
-        <v>0.906140197526162</v>
+        <v>1.006085563421053</v>
       </c>
       <c r="R22">
-        <v>1.062874653789771</v>
+        <v>0.9770726940175439</v>
       </c>
       <c r="S22">
-        <v>1.004843568459644</v>
+        <v>0.824755505245614</v>
       </c>
       <c r="T22">
-        <v>1.062874653789771</v>
+        <v>0.9770726940175439</v>
       </c>
       <c r="U22">
-        <v>1.050569852987767</v>
+        <v>0.9475993835394737</v>
       </c>
       <c r="V22">
-        <v>1.07800562370464</v>
+        <v>1.021305710515789</v>
       </c>
       <c r="W22">
-        <v>1.021013877144135</v>
+        <v>0.9601675911776317</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.33124827028334</v>
+        <v>0.6292570061519027</v>
       </c>
       <c r="D23">
-        <v>0.9477131255820066</v>
+        <v>1.231457406871493</v>
       </c>
       <c r="E23">
-        <v>0.7938059821182893</v>
+        <v>1.514130508078374</v>
       </c>
       <c r="F23">
-        <v>1.33124827028334</v>
+        <v>0.6292570061519027</v>
       </c>
       <c r="G23">
-        <v>1.056749160557282</v>
+        <v>0.4410001629655855</v>
       </c>
       <c r="H23">
-        <v>1.056749160557282</v>
+        <v>0.4410001629655855</v>
       </c>
       <c r="I23">
-        <v>1.056749160557282</v>
+        <v>0.4410001629655855</v>
       </c>
       <c r="J23">
-        <v>1.044983896682497</v>
+        <v>0.9706731619074589</v>
       </c>
       <c r="K23">
-        <v>0.8861111348405583</v>
+        <v>1.155648466661597</v>
       </c>
       <c r="L23">
-        <v>1.009600378499737</v>
+        <v>0.8328893118235465</v>
       </c>
       <c r="M23">
-        <v>1.166844084262264</v>
+        <v>0.8732825534871642</v>
       </c>
       <c r="N23">
-        <v>1.056749160557282</v>
+        <v>0.4410001629655855</v>
       </c>
       <c r="O23">
-        <v>0.7938059821182893</v>
+        <v>1.514130508078374</v>
       </c>
       <c r="P23">
-        <v>1.062527126200815</v>
+        <v>1.071693757115138</v>
       </c>
       <c r="Q23">
-        <v>0.9193949394003931</v>
+        <v>1.242401834992916</v>
       </c>
       <c r="R23">
-        <v>1.06060113765297</v>
+        <v>0.8614625590652872</v>
       </c>
       <c r="S23">
-        <v>1.056679383028042</v>
+        <v>1.038020225379245</v>
       </c>
       <c r="T23">
-        <v>1.06060113765297</v>
+        <v>0.8614625590652872</v>
       </c>
       <c r="U23">
-        <v>1.056696827410352</v>
+        <v>0.8887652097758301</v>
       </c>
       <c r="V23">
-        <v>1.056707294039738</v>
+        <v>0.7992122004137812</v>
       </c>
       <c r="W23">
-        <v>1.029632004103247</v>
+        <v>0.9560423222433903</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9452396739507762</v>
+        <v>1.202250310326608</v>
       </c>
       <c r="D24">
-        <v>1.076957009981891</v>
+        <v>0.868862257372056</v>
       </c>
       <c r="E24">
-        <v>1.043636693120122</v>
+        <v>0.7986249444705715</v>
       </c>
       <c r="F24">
-        <v>0.9452396739507762</v>
+        <v>1.202250310326608</v>
       </c>
       <c r="G24">
-        <v>0.9252458156922565</v>
+        <v>1.187748706572134</v>
       </c>
       <c r="H24">
-        <v>0.9252458156922565</v>
+        <v>1.187748706572134</v>
       </c>
       <c r="I24">
-        <v>0.9252458156922565</v>
+        <v>1.187748706572134</v>
       </c>
       <c r="J24">
-        <v>1.01039682232485</v>
+        <v>1.013655450581753</v>
       </c>
       <c r="K24">
-        <v>0.9805879051240963</v>
+        <v>0.9594749306531103</v>
       </c>
       <c r="L24">
-        <v>0.951223235371931</v>
+        <v>1.084166210186356</v>
       </c>
       <c r="M24">
-        <v>1.01337517676093</v>
+        <v>1.053328206990494</v>
       </c>
       <c r="N24">
-        <v>0.9252458156922565</v>
+        <v>1.187748706572134</v>
       </c>
       <c r="O24">
-        <v>1.043636693120122</v>
+        <v>0.7986249444705715</v>
       </c>
       <c r="P24">
-        <v>0.9944381835354492</v>
+        <v>1.00043762739859</v>
       </c>
       <c r="Q24">
-        <v>1.027016757722486</v>
+        <v>0.906140197526162</v>
       </c>
       <c r="R24">
-        <v>0.9713740609210516</v>
+        <v>1.062874653789771</v>
       </c>
       <c r="S24">
-        <v>0.9997577297985828</v>
+        <v>1.004843568459644</v>
       </c>
       <c r="T24">
-        <v>0.9713740609210516</v>
+        <v>1.062874653789771</v>
       </c>
       <c r="U24">
-        <v>0.9811297512720012</v>
+        <v>1.050569852987767</v>
       </c>
       <c r="V24">
-        <v>0.9699529641560523</v>
+        <v>1.07800562370464</v>
       </c>
       <c r="W24">
-        <v>0.9933327915408567</v>
+        <v>1.021013877144135</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.2269011704999</v>
+        <v>1.33124827028334</v>
       </c>
       <c r="D25">
-        <v>0.9007855351998629</v>
+        <v>0.9477131255820066</v>
       </c>
       <c r="E25">
-        <v>0.7239601576545195</v>
+        <v>0.7938059821182893</v>
       </c>
       <c r="F25">
-        <v>1.2269011704999</v>
+        <v>1.33124827028334</v>
       </c>
       <c r="G25">
-        <v>1.268226415958169</v>
+        <v>1.056749160557282</v>
       </c>
       <c r="H25">
-        <v>1.268226415958169</v>
+        <v>1.056749160557282</v>
       </c>
       <c r="I25">
-        <v>1.268226415958169</v>
+        <v>1.056749160557282</v>
       </c>
       <c r="J25">
-        <v>1.024491652971288</v>
+        <v>1.044983896682497</v>
       </c>
       <c r="K25">
-        <v>0.8910999143073878</v>
+        <v>0.8861111348405583</v>
       </c>
       <c r="L25">
-        <v>1.078147655401303</v>
+        <v>1.009600378499737</v>
       </c>
       <c r="M25">
-        <v>1.089745850286793</v>
+        <v>1.166844084262264</v>
       </c>
       <c r="N25">
-        <v>1.268226415958169</v>
+        <v>1.056749160557282</v>
       </c>
       <c r="O25">
-        <v>0.7239601576545195</v>
+        <v>0.7938059821182893</v>
       </c>
       <c r="P25">
-        <v>0.9754306640772099</v>
+        <v>1.062527126200815</v>
       </c>
       <c r="Q25">
-        <v>0.874225905312904</v>
+        <v>0.9193949394003931</v>
       </c>
       <c r="R25">
-        <v>1.07302924803753</v>
+        <v>1.06060113765297</v>
       </c>
       <c r="S25">
-        <v>0.9917843270419028</v>
+        <v>1.056679383028042</v>
       </c>
       <c r="T25">
-        <v>1.07302924803753</v>
+        <v>1.06060113765297</v>
       </c>
       <c r="U25">
-        <v>1.060894849270969</v>
+        <v>1.056696827410352</v>
       </c>
       <c r="V25">
-        <v>1.102361162608409</v>
+        <v>1.056707294039738</v>
       </c>
       <c r="W25">
-        <v>1.025419794034903</v>
+        <v>1.029632004103247</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9363169740440938</v>
+        <v>0.9452396739507762</v>
       </c>
       <c r="D26">
-        <v>1.048098333258116</v>
+        <v>1.076957009981891</v>
       </c>
       <c r="E26">
-        <v>1.101403672553537</v>
+        <v>1.043636693120122</v>
       </c>
       <c r="F26">
-        <v>0.9363169740440938</v>
+        <v>0.9452396739507762</v>
       </c>
       <c r="G26">
-        <v>0.8695525712809882</v>
+        <v>0.9252458156922565</v>
       </c>
       <c r="H26">
-        <v>0.8695525712809882</v>
+        <v>0.9252458156922565</v>
       </c>
       <c r="I26">
-        <v>0.8695525712809882</v>
+        <v>0.9252458156922565</v>
       </c>
       <c r="J26">
-        <v>0.9991452752063491</v>
+        <v>1.01039682232485</v>
       </c>
       <c r="K26">
-        <v>1.030978851516105</v>
+        <v>0.9805879051240963</v>
       </c>
       <c r="L26">
-        <v>0.961705886640403</v>
+        <v>0.951223235371931</v>
       </c>
       <c r="M26">
-        <v>0.9828582129170113</v>
+        <v>1.01337517676093</v>
       </c>
       <c r="N26">
-        <v>0.8695525712809882</v>
+        <v>0.9252458156922565</v>
       </c>
       <c r="O26">
-        <v>1.101403672553537</v>
+        <v>1.043636693120122</v>
       </c>
       <c r="P26">
-        <v>1.018860323298815</v>
+        <v>0.9944381835354492</v>
       </c>
       <c r="Q26">
-        <v>1.050274473879943</v>
+        <v>1.027016757722486</v>
       </c>
       <c r="R26">
-        <v>0.9690910726262064</v>
+        <v>0.9713740609210516</v>
       </c>
       <c r="S26">
-        <v>1.012288640601327</v>
+        <v>0.9997577297985828</v>
       </c>
       <c r="T26">
-        <v>0.9690910726262062</v>
+        <v>0.9713740609210516</v>
       </c>
       <c r="U26">
-        <v>0.976604623271242</v>
+        <v>0.9811297512720012</v>
       </c>
       <c r="V26">
-        <v>0.9551942128731913</v>
+        <v>0.9699529641560523</v>
       </c>
       <c r="W26">
-        <v>0.9912574721770754</v>
+        <v>0.9933327915408567</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.015747212347032</v>
+        <v>1.2269011704999</v>
       </c>
       <c r="D27">
-        <v>0.9894719913801412</v>
+        <v>0.9007855351998629</v>
       </c>
       <c r="E27">
-        <v>1.028697020321511</v>
+        <v>0.7239601576545195</v>
       </c>
       <c r="F27">
-        <v>1.015747212347032</v>
+        <v>1.2269011704999</v>
       </c>
       <c r="G27">
-        <v>1.058750288781183</v>
+        <v>1.268226415958169</v>
       </c>
       <c r="H27">
-        <v>1.058750288781183</v>
+        <v>1.268226415958169</v>
       </c>
       <c r="I27">
-        <v>1.058750288781183</v>
+        <v>1.268226415958169</v>
       </c>
       <c r="J27">
-        <v>0.9522113551934523</v>
+        <v>1.024491652971288</v>
       </c>
       <c r="K27">
-        <v>1.028892641796521</v>
+        <v>0.8910999143073878</v>
       </c>
       <c r="L27">
-        <v>0.9868543985596123</v>
+        <v>1.078147655401303</v>
       </c>
       <c r="M27">
-        <v>0.9625650762716237</v>
+        <v>1.089745850286793</v>
       </c>
       <c r="N27">
-        <v>1.058750288781183</v>
+        <v>1.268226415958169</v>
       </c>
       <c r="O27">
-        <v>1.028697020321511</v>
+        <v>0.7239601576545195</v>
       </c>
       <c r="P27">
-        <v>1.022222116334272</v>
+        <v>0.9754306640772099</v>
       </c>
       <c r="Q27">
-        <v>0.9904541877574817</v>
+        <v>0.874225905312904</v>
       </c>
       <c r="R27">
-        <v>1.034398173816576</v>
+        <v>1.07302924803753</v>
       </c>
       <c r="S27">
-        <v>0.9988851959539984</v>
+        <v>0.9917843270419028</v>
       </c>
       <c r="T27">
-        <v>1.034398173816576</v>
+        <v>1.07302924803753</v>
       </c>
       <c r="U27">
-        <v>1.013851469160795</v>
+        <v>1.060894849270969</v>
       </c>
       <c r="V27">
-        <v>1.022831233084872</v>
+        <v>1.102361162608409</v>
       </c>
       <c r="W27">
-        <v>1.002898748081384</v>
+        <v>1.025419794034903</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9409710670936395</v>
+        <v>0.9363169740440938</v>
       </c>
       <c r="D28">
-        <v>0.9781060473754312</v>
+        <v>1.048098333258116</v>
       </c>
       <c r="E28">
-        <v>0.9969430200138224</v>
+        <v>1.101403672553537</v>
       </c>
       <c r="F28">
-        <v>0.9409710670936395</v>
+        <v>0.9363169740440938</v>
       </c>
       <c r="G28">
-        <v>1.081021913703884</v>
+        <v>0.8695525712809882</v>
       </c>
       <c r="H28">
-        <v>1.081021913703884</v>
+        <v>0.8695525712809882</v>
       </c>
       <c r="I28">
-        <v>1.081021913703884</v>
+        <v>0.8695525712809882</v>
       </c>
       <c r="J28">
-        <v>0.9818660597535073</v>
+        <v>0.9991452752063491</v>
       </c>
       <c r="K28">
-        <v>1.034198694230619</v>
+        <v>1.030978851516105</v>
       </c>
       <c r="L28">
-        <v>0.9856809554260842</v>
+        <v>0.961705886640403</v>
       </c>
       <c r="M28">
-        <v>0.9868666258400072</v>
+        <v>0.9828582129170113</v>
       </c>
       <c r="N28">
-        <v>1.081021913703884</v>
+        <v>0.8695525712809882</v>
       </c>
       <c r="O28">
-        <v>0.9969430200138224</v>
+        <v>1.101403672553537</v>
       </c>
       <c r="P28">
-        <v>0.9689570435537309</v>
+        <v>1.018860323298815</v>
       </c>
       <c r="Q28">
-        <v>0.9894045398836648</v>
+        <v>1.050274473879943</v>
       </c>
       <c r="R28">
-        <v>1.006312000270449</v>
+        <v>0.9690910726262064</v>
       </c>
       <c r="S28">
-        <v>0.9732600489536564</v>
+        <v>1.012288640601327</v>
       </c>
       <c r="T28">
-        <v>1.006312000270449</v>
+        <v>0.9690910726262062</v>
       </c>
       <c r="U28">
-        <v>1.000200515141213</v>
+        <v>0.976604623271242</v>
       </c>
       <c r="V28">
-        <v>1.016364794853748</v>
+        <v>0.9551942128731913</v>
       </c>
       <c r="W28">
-        <v>0.9982067979296245</v>
+        <v>0.9912574721770754</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.015747212347032</v>
+      </c>
+      <c r="D29">
+        <v>0.9894719913801412</v>
+      </c>
+      <c r="E29">
+        <v>1.028697020321511</v>
+      </c>
+      <c r="F29">
+        <v>1.015747212347032</v>
+      </c>
+      <c r="G29">
+        <v>1.058750288781183</v>
+      </c>
+      <c r="H29">
+        <v>1.058750288781183</v>
+      </c>
+      <c r="I29">
+        <v>1.058750288781183</v>
+      </c>
+      <c r="J29">
+        <v>0.9522113551934523</v>
+      </c>
+      <c r="K29">
+        <v>1.028892641796521</v>
+      </c>
+      <c r="L29">
+        <v>0.9868543985596123</v>
+      </c>
+      <c r="M29">
+        <v>0.9625650762716237</v>
+      </c>
+      <c r="N29">
+        <v>1.058750288781183</v>
+      </c>
+      <c r="O29">
+        <v>1.028697020321511</v>
+      </c>
+      <c r="P29">
+        <v>1.022222116334272</v>
+      </c>
+      <c r="Q29">
+        <v>0.9904541877574817</v>
+      </c>
+      <c r="R29">
+        <v>1.034398173816576</v>
+      </c>
+      <c r="S29">
+        <v>0.9988851959539984</v>
+      </c>
+      <c r="T29">
+        <v>1.034398173816576</v>
+      </c>
+      <c r="U29">
+        <v>1.013851469160795</v>
+      </c>
+      <c r="V29">
+        <v>1.022831233084872</v>
+      </c>
+      <c r="W29">
+        <v>1.002898748081384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9409710670936395</v>
+      </c>
+      <c r="D30">
+        <v>0.9781060473754312</v>
+      </c>
+      <c r="E30">
+        <v>0.9969430200138224</v>
+      </c>
+      <c r="F30">
+        <v>0.9409710670936395</v>
+      </c>
+      <c r="G30">
+        <v>1.081021913703884</v>
+      </c>
+      <c r="H30">
+        <v>1.081021913703884</v>
+      </c>
+      <c r="I30">
+        <v>1.081021913703884</v>
+      </c>
+      <c r="J30">
+        <v>0.9818660597535073</v>
+      </c>
+      <c r="K30">
+        <v>1.034198694230619</v>
+      </c>
+      <c r="L30">
+        <v>0.9856809554260842</v>
+      </c>
+      <c r="M30">
+        <v>0.9868666258400072</v>
+      </c>
+      <c r="N30">
+        <v>1.081021913703884</v>
+      </c>
+      <c r="O30">
+        <v>0.9969430200138224</v>
+      </c>
+      <c r="P30">
+        <v>0.9689570435537309</v>
+      </c>
+      <c r="Q30">
+        <v>0.9894045398836648</v>
+      </c>
+      <c r="R30">
+        <v>1.006312000270449</v>
+      </c>
+      <c r="S30">
+        <v>0.9732600489536564</v>
+      </c>
+      <c r="T30">
+        <v>1.006312000270449</v>
+      </c>
+      <c r="U30">
+        <v>1.000200515141213</v>
+      </c>
+      <c r="V30">
+        <v>1.016364794853748</v>
+      </c>
+      <c r="W30">
+        <v>0.9982067979296245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.03186757732731</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9732306067251674</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.7962151119615879</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.03186757732731</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.077027797620022</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.077027797620022</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.077027797620022</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.072529576606006</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9407435372235661</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9957476122149218</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.130152400259836</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.077027797620022</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.7962151119615879</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9140413446444487</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9343723442837969</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9683701623029731</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.966870755298301</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.968370162302973</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.9944100158787312</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.010933572226989</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.002189277492302</v>
       </c>
     </row>
